--- a/excel_routes/route_CAI_RUH_threats.xlsx
+++ b/excel_routes/route_CAI_RUH_threats.xlsx
@@ -33,7 +33,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -50,12 +50,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="00D4EDDA"/>
         <bgColor rgb="00D4EDDA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFF3CD"/>
-        <bgColor rgb="00FFF3CD"/>
       </patternFill>
     </fill>
   </fills>
@@ -77,7 +71,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -86,9 +80,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -456,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K110"/>
+  <dimension ref="A1:K231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +464,7 @@
     <col width="13" customWidth="1" min="7" max="7"/>
     <col width="13" customWidth="1" min="8" max="8"/>
     <col width="19" customWidth="1" min="9" max="9"/>
-    <col width="25" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="10" max="10"/>
     <col width="10" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
@@ -537,27 +528,27 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>07-JAN-26</t>
+          <t>11-JAN-26</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>SM-469</t>
+          <t>SM-461</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-415</t>
+          <t>Nesma Airlines NE-162</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>6339</v>
+        <v>6830</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>6395</v>
+        <v>7611</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>-56</v>
+        <v>-781</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>30</v>
@@ -582,36 +573,36 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>07-JAN-26</t>
+          <t>11-JAN-26</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>SM-469</t>
+          <t>SM-461</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-320</t>
+          <t>Air Arabia Egypt E5-410</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>7236</v>
+        <v>7471</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>6395</v>
+        <v>7611</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>841</v>
+        <v>-140</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J3" s="3" t="inlineStr">
         <is>
@@ -627,36 +618,36 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>07-JAN-26</t>
+          <t>11-JAN-26</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>SM-469</t>
+          <t>SM-461</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-312</t>
+          <t>Nesma Airlines NE-162</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>7236</v>
+        <v>6830</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>6395</v>
+        <v>6905</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>841</v>
+        <v>-75</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J4" s="3" t="inlineStr">
         <is>
@@ -672,27 +663,27 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>08-JAN-26</t>
+          <t>13-JAN-26</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>SM-461</t>
+          <t>SM-469</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-160</t>
+          <t>Air Arabia Egypt E5-415</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>5631</v>
+        <v>6741</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>6395</v>
+        <v>8443</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>-764</v>
+        <v>-1702</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>30</v>
@@ -717,27 +708,27 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>08-JAN-26</t>
+          <t>13-JAN-26</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>SM-461</t>
+          <t>SM-469</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-151</t>
+          <t>Nesma Airlines NE-160</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>5656</v>
+        <v>7926</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>6395</v>
+        <v>8443</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>-739</v>
+        <v>-517</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>30</v>
@@ -762,27 +753,27 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>08-JAN-26</t>
+          <t>14-JAN-26</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>SM-461</t>
+          <t>SM-469</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-410</t>
+          <t>Nesma Airlines NE-160</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>6244</v>
+        <v>7926</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>6395</v>
+        <v>9564</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-151</v>
+        <v>-1638</v>
       </c>
       <c r="G7" s="2" t="n">
         <v>30</v>
@@ -807,27 +798,27 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>08-JAN-26</t>
+          <t>14-JAN-26</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>SM-461</t>
+          <t>SM-469</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-164</t>
+          <t>Nile Air NP-251</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>6255</v>
+        <v>9035</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>6395</v>
+        <v>9564</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-140</v>
+        <v>-529</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>30</v>
@@ -852,7 +843,7 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>09-JAN-26</t>
+          <t>14-JAN-26</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
@@ -862,17 +853,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-151</t>
+          <t>Air Arabia Egypt E5-415</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>6077</v>
+        <v>9072</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>6395</v>
+        <v>9564</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>-318</v>
+        <v>-492</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>30</v>
@@ -897,7 +888,7 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>09-JAN-26</t>
+          <t>14-JAN-26</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -907,26 +898,26 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-160</t>
+          <t>flynas XY-268</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>6255</v>
+        <v>10950</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>6395</v>
+        <v>9564</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>-140</v>
+        <v>1386</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H10" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J10" s="3" t="inlineStr">
         <is>
@@ -942,7 +933,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>09-JAN-26</t>
+          <t>14-JAN-26</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
@@ -952,26 +943,26 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-320</t>
+          <t>flynas XY-270</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>7949</v>
+        <v>10950</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>6395</v>
+        <v>9564</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1554</v>
+        <v>1386</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H11" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J11" s="3" t="inlineStr">
         <is>
@@ -987,7 +978,7 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>10-JAN-26</t>
+          <t>15-JAN-26</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
@@ -997,17 +988,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-151</t>
+          <t>Air Arabia Egypt E5-410</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>6714</v>
+        <v>8860</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>7656</v>
+        <v>10686</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>-942</v>
+        <v>-1826</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>30</v>
@@ -1032,7 +1023,7 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>10-JAN-26</t>
+          <t>15-JAN-26</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
@@ -1042,17 +1033,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-160</t>
+          <t>Nile Air NP-151</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>7516</v>
+        <v>9035</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>7656</v>
+        <v>10686</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>-140</v>
+        <v>-1651</v>
       </c>
       <c r="G13" s="2" t="n">
         <v>30</v>
@@ -1077,27 +1068,27 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>12-JAN-26</t>
+          <t>15-JAN-26</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>SM-469</t>
+          <t>SM-461</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-410</t>
+          <t>Nesma Airlines NE-160</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>5530</v>
+        <v>9224</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>6395</v>
+        <v>10686</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>-865</v>
+        <v>-1462</v>
       </c>
       <c r="G14" s="2" t="n">
         <v>30</v>
@@ -1122,27 +1113,27 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>13-JAN-26</t>
+          <t>15-JAN-26</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>SM-469</t>
+          <t>SM-461</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-160</t>
+          <t>Nile Air NP-251</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>5631</v>
+        <v>9753</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>6956</v>
+        <v>10686</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>-1325</v>
+        <v>-933</v>
       </c>
       <c r="G15" s="2" t="n">
         <v>30</v>
@@ -1167,27 +1158,27 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>13-JAN-26</t>
+          <t>15-JAN-26</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>SM-469</t>
+          <t>SM-461</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-415</t>
+          <t>Nesma Airlines NE-164</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>5768</v>
+        <v>9929</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>6956</v>
+        <v>10686</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>-1188</v>
+        <v>-757</v>
       </c>
       <c r="G16" s="2" t="n">
         <v>30</v>
@@ -1212,36 +1203,36 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>13-JAN-26</t>
+          <t>15-JAN-26</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>SM-469</t>
+          <t>SM-461</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-410</t>
+          <t>flynas XY-264</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>6387</v>
+        <v>11832</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>6956</v>
+        <v>10686</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>-569</v>
+        <v>1146</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H17" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J17" s="3" t="inlineStr">
         <is>
@@ -1257,36 +1248,36 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>13-JAN-26</t>
+          <t>15-JAN-26</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>SM-469</t>
+          <t>SM-461</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-320</t>
+          <t>flyadeal F3-606</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>9300</v>
+        <v>11958</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>6956</v>
+        <v>10686</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>2344</v>
+        <v>1272</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H18" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J18" s="3" t="inlineStr">
         <is>
@@ -1302,36 +1293,36 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>13-JAN-26</t>
+          <t>15-JAN-26</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>SM-469</t>
+          <t>SM-461</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-312</t>
+          <t>flyadeal F3-616</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>9300</v>
+        <v>11958</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>6956</v>
+        <v>10686</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>2344</v>
+        <v>1272</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H19" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J19" s="3" t="inlineStr">
         <is>
@@ -1347,36 +1338,36 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>14-JAN-26</t>
+          <t>15-JAN-26</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>SM-469</t>
+          <t>SM-461</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-415</t>
+          <t>flyadeal F3-608</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>6482</v>
+        <v>11958</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>8510</v>
+        <v>10686</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>-2028</v>
+        <v>1272</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H20" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J20" s="3" t="inlineStr">
         <is>
@@ -1392,27 +1383,27 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>14-JAN-26</t>
+          <t>16-JAN-26</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>SM-469</t>
+          <t>SM-461</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-160</t>
+          <t>Nile Air NP-151</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>6866</v>
+        <v>9753</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>8510</v>
+        <v>10686</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>-1644</v>
+        <v>-933</v>
       </c>
       <c r="G21" s="2" t="n">
         <v>30</v>
@@ -1437,36 +1428,36 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>14-JAN-26</t>
+          <t>16-JAN-26</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>SM-469</t>
+          <t>SM-461</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-274</t>
+          <t>Nesma Airlines NE-160</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>6994</v>
+        <v>9929</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>8510</v>
+        <v>10686</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>-1516</v>
+        <v>-757</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H22" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="inlineStr">
         <is>
@@ -1482,36 +1473,36 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>14-JAN-26</t>
+          <t>16-JAN-26</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>SM-469</t>
+          <t>SM-461</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-264</t>
+          <t>Air Arabia Egypt E5-410</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>9414</v>
+        <v>10014</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>8510</v>
+        <v>10686</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>904</v>
+        <v>-672</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H23" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J23" s="3" t="inlineStr">
         <is>
@@ -1532,22 +1523,22 @@
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>SM-461</t>
+          <t>SM-469</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-410</t>
+          <t>Nile Air NP-151</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>8220</v>
+        <v>9753</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>9631</v>
+        <v>12084</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>-1411</v>
+        <v>-2331</v>
       </c>
       <c r="G24" s="2" t="n">
         <v>30</v>
@@ -1582,17 +1573,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-410</t>
+          <t>Nesma Airlines NE-160</t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>8220</v>
+        <v>9929</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>10752</v>
+        <v>12084</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>-2532</v>
+        <v>-2155</v>
       </c>
       <c r="G25" s="2" t="n">
         <v>30</v>
@@ -1627,26 +1618,26 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-264</t>
+          <t>Air Arabia Egypt E5-410</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>8650</v>
+        <v>10014</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>10752</v>
+        <v>12084</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>-2102</v>
+        <v>-2070</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H26" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J26" s="3" t="inlineStr">
         <is>
@@ -1672,17 +1663,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-274</t>
+          <t>flynas XY-264</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>8650</v>
+        <v>10320</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>10752</v>
+        <v>12084</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>-2102</v>
+        <v>-1764</v>
       </c>
       <c r="G27" s="2" t="n">
         <v>20</v>
@@ -1717,26 +1708,26 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-606</t>
+          <t>flynas XY-274</t>
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>12090</v>
+        <v>10320</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>10752</v>
+        <v>12084</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>1338</v>
+        <v>-1764</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H28" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="J28" s="3" t="inlineStr">
         <is>
@@ -1752,40 +1743,40 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>17-JAN-26</t>
+          <t>16-JAN-26</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>SM-461</t>
+          <t>SM-469</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-410</t>
+          <t>flynas XY-270</t>
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>8375</v>
+        <v>10320</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>12154</v>
+        <v>12084</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>-3779</v>
+        <v>-1764</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H29" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>10</v>
+      </c>
+      <c r="J29" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
@@ -1807,26 +1798,26 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-264</t>
+          <t>Nesma Airlines NE-164</t>
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>9542</v>
+        <v>9929</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>12154</v>
+        <v>10686</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>-2612</v>
+        <v>-757</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H30" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J30" s="3" t="inlineStr">
         <is>
@@ -1842,7 +1833,7 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>17-JAN-26</t>
+          <t>18-JAN-26</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
@@ -1852,26 +1843,26 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-606</t>
+          <t>Nesma Airlines NE-162</t>
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>9669</v>
+        <v>7926</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>12154</v>
+        <v>8443</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>-2485</v>
+        <v>-517</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H31" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J31" s="3" t="inlineStr">
         <is>
@@ -1887,7 +1878,7 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>17-JAN-26</t>
+          <t>18-JAN-26</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
@@ -1897,26 +1888,26 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-616</t>
+          <t>Air Arabia Egypt E5-415</t>
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>9669</v>
+        <v>8130</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>12154</v>
+        <v>8443</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>-2485</v>
+        <v>-313</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H32" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3" t="inlineStr">
         <is>
@@ -1932,7 +1923,7 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>17-JAN-26</t>
+          <t>18-JAN-26</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
@@ -1942,26 +1933,26 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-268</t>
+          <t>Air Arabia Egypt E5-410</t>
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>10434</v>
+        <v>8283</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>12154</v>
+        <v>8443</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>-1720</v>
+        <v>-160</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H33" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3" t="inlineStr">
         <is>
@@ -1977,36 +1968,36 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>17-JAN-26</t>
+          <t>19-JAN-26</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>SM-461</t>
+          <t>SM-469</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-270</t>
+          <t>Air Arabia Egypt E5-410</t>
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>10434</v>
+        <v>7117</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>12154</v>
+        <v>8443</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>-1720</v>
+        <v>-1326</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H34" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J34" s="3" t="inlineStr">
         <is>
@@ -2022,12 +2013,12 @@
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>17-JAN-26</t>
+          <t>19-JAN-26</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>SM-461</t>
+          <t>SM-469</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
@@ -2036,13 +2027,13 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>10982</v>
+        <v>7472</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>12154</v>
+        <v>8443</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>-1172</v>
+        <v>-971</v>
       </c>
       <c r="G35" s="2" t="n">
         <v>30</v>
@@ -2067,36 +2058,36 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>17-JAN-26</t>
+          <t>19-JAN-26</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>SM-461</t>
+          <t>SM-469</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-274</t>
+          <t>Nile Air NP-151</t>
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>11963</v>
+        <v>7775</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>12154</v>
+        <v>8443</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>-191</v>
+        <v>-668</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H36" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J36" s="3" t="inlineStr">
         <is>
@@ -2112,27 +2103,27 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>17-JAN-26</t>
+          <t>19-JAN-26</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>SM-461</t>
+          <t>SM-469</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-151</t>
+          <t>Nile Air NP-251</t>
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>12001</v>
+        <v>7775</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>12154</v>
+        <v>8443</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>-153</v>
+        <v>-668</v>
       </c>
       <c r="G37" s="2" t="n">
         <v>30</v>
@@ -2157,36 +2148,36 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>17-JAN-26</t>
+          <t>20-JAN-26</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>SM-461</t>
+          <t>SM-469</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-649</t>
+          <t>Nile Air NP-151</t>
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>14014</v>
+        <v>7245</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>12154</v>
+        <v>8443</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>1860</v>
+        <v>-1198</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H38" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J38" s="3" t="inlineStr">
         <is>
@@ -2202,36 +2193,36 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>18-JAN-26</t>
+          <t>20-JAN-26</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>SM-461</t>
+          <t>SM-469</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-266</t>
+          <t>Nesma Airlines NE-160</t>
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>6994</v>
+        <v>7472</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>8510</v>
+        <v>8443</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>-1516</v>
+        <v>-971</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H39" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J39" s="3" t="inlineStr">
         <is>
@@ -2247,36 +2238,36 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>18-JAN-26</t>
+          <t>20-JAN-26</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>SM-461</t>
+          <t>SM-469</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-274</t>
+          <t>Nile Air NP-151</t>
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>6994</v>
+        <v>7245</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>8510</v>
+        <v>7611</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>-1516</v>
+        <v>-366</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H40" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J40" s="3" t="inlineStr">
         <is>
@@ -2292,12 +2283,12 @@
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>18-JAN-26</t>
+          <t>20-JAN-26</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>SM-461</t>
+          <t>SM-469</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
@@ -2306,13 +2297,13 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>7268</v>
+        <v>8212</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>8510</v>
+        <v>8443</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>-1242</v>
+        <v>-231</v>
       </c>
       <c r="G41" s="2" t="n">
         <v>30</v>
@@ -2337,27 +2328,27 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>18-JAN-26</t>
+          <t>20-JAN-26</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>SM-461</t>
+          <t>SM-469</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-410</t>
+          <t>Nesma Airlines NE-160</t>
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>7268</v>
+        <v>7472</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>8510</v>
+        <v>7611</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>-1242</v>
+        <v>-139</v>
       </c>
       <c r="G42" s="2" t="n">
         <v>30</v>
@@ -2382,36 +2373,36 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>18-JAN-26</t>
+          <t>20-JAN-26</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>SM-461</t>
+          <t>SM-469</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-162</t>
+          <t>EgyptAir MS-651</t>
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>7975</v>
+        <v>10761</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>8510</v>
+        <v>8443</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>-535</v>
+        <v>2318</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H43" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J43" s="3" t="inlineStr">
         <is>
@@ -2427,7 +2418,7 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>18-JAN-26</t>
+          <t>21-JAN-26</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
@@ -2437,26 +2428,26 @@
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-276</t>
+          <t>Nile Air NP-151</t>
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>9414</v>
+        <v>6640</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>8510</v>
+        <v>7611</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>904</v>
+        <v>-971</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H44" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I44" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J44" s="3" t="inlineStr">
         <is>
@@ -2472,7 +2463,7 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>18-JAN-26</t>
+          <t>21-JAN-26</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
@@ -2482,26 +2473,26 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-270</t>
+          <t>Nile Air NP-251</t>
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>9414</v>
+        <v>7245</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>8510</v>
+        <v>7611</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>904</v>
+        <v>-366</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H45" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I45" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3" t="inlineStr">
         <is>
@@ -2517,27 +2508,27 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>19-JAN-26</t>
+          <t>21-JAN-26</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>SM-469</t>
+          <t>SM-461</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-410</t>
+          <t>Nesma Airlines NE-160</t>
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>6244</v>
+        <v>7472</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>7656</v>
+        <v>7611</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>-1412</v>
+        <v>-139</v>
       </c>
       <c r="G46" s="2" t="n">
         <v>30</v>
@@ -2562,27 +2553,27 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>19-JAN-26</t>
+          <t>21-JAN-26</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>SM-469</t>
+          <t>SM-461</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-151</t>
+          <t>Air Arabia Egypt E5-415</t>
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>6714</v>
+        <v>7588</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>7656</v>
+        <v>7611</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>-942</v>
+        <v>-23</v>
       </c>
       <c r="G47" s="2" t="n">
         <v>30</v>
@@ -2607,27 +2598,27 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>19-JAN-26</t>
+          <t>22-JAN-26</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>SM-469</t>
+          <t>SM-461</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-160</t>
+          <t>Nile Air NP-151</t>
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>6866</v>
+        <v>7245</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>7656</v>
+        <v>7611</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>-790</v>
+        <v>-366</v>
       </c>
       <c r="G48" s="2" t="n">
         <v>30</v>
@@ -2652,27 +2643,27 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>19-JAN-26</t>
+          <t>22-JAN-26</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>SM-469</t>
+          <t>SM-461</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-251</t>
+          <t>Nesma Airlines NE-160</t>
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>7325</v>
+        <v>7472</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>7656</v>
+        <v>7611</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>-331</v>
+        <v>-139</v>
       </c>
       <c r="G49" s="2" t="n">
         <v>30</v>
@@ -2697,36 +2688,36 @@
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>19-JAN-26</t>
+          <t>22-JAN-26</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>SM-469</t>
+          <t>SM-461</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-320</t>
+          <t>Air Arabia Egypt E5-410</t>
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>7949</v>
+        <v>7588</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>7656</v>
+        <v>7611</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>293</v>
+        <v>-23</v>
       </c>
       <c r="G50" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H50" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I50" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J50" s="3" t="inlineStr">
         <is>
@@ -2742,7 +2733,7 @@
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>19-JAN-26</t>
+          <t>23-JAN-26</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
@@ -2752,26 +2743,26 @@
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-314</t>
+          <t>Air Arabia Egypt E5-410</t>
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>7949</v>
+        <v>8601</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>7656</v>
+        <v>9564</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>293</v>
+        <v>-963</v>
       </c>
       <c r="G51" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H51" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I51" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J51" s="3" t="inlineStr">
         <is>
@@ -2787,7 +2778,7 @@
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>19-JAN-26</t>
+          <t>23-JAN-26</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
@@ -2797,26 +2788,26 @@
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-266</t>
+          <t>Nesma Airlines NE-160</t>
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>8650</v>
+        <v>8619</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>7656</v>
+        <v>9564</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>994</v>
+        <v>-945</v>
       </c>
       <c r="G52" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H52" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I52" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J52" s="3" t="inlineStr">
         <is>
@@ -2832,7 +2823,7 @@
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>19-JAN-26</t>
+          <t>23-JAN-26</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
@@ -2842,26 +2833,26 @@
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-264</t>
+          <t>Nile Air NP-151</t>
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>8650</v>
+        <v>9035</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>7656</v>
+        <v>9564</v>
       </c>
       <c r="F53" s="2" t="n">
-        <v>994</v>
+        <v>-529</v>
       </c>
       <c r="G53" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H53" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I53" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J53" s="3" t="inlineStr">
         <is>
@@ -2877,36 +2868,36 @@
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>19-JAN-26</t>
+          <t>24-JAN-26</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>SM-469</t>
+          <t>SM-461</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-274</t>
+          <t>Nesma Airlines NE-160</t>
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>8650</v>
+        <v>7926</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>7656</v>
+        <v>8443</v>
       </c>
       <c r="F54" s="2" t="n">
-        <v>994</v>
+        <v>-517</v>
       </c>
       <c r="G54" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H54" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I54" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J54" s="3" t="inlineStr">
         <is>
@@ -2922,12 +2913,12 @@
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>20-JAN-26</t>
+          <t>25-JAN-26</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>SM-469</t>
+          <t>SM-461</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
@@ -2936,13 +2927,13 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>6244</v>
+        <v>6246</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>6395</v>
+        <v>7611</v>
       </c>
       <c r="F55" s="2" t="n">
-        <v>-151</v>
+        <v>-1365</v>
       </c>
       <c r="G55" s="2" t="n">
         <v>30</v>
@@ -2967,27 +2958,27 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>21-JAN-26</t>
+          <t>25-JAN-26</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>SM-469</t>
+          <t>SM-461</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-415</t>
+          <t>Air Arabia Egypt E5-410</t>
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>6244</v>
+        <v>6246</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>7656</v>
+        <v>7611</v>
       </c>
       <c r="F56" s="2" t="n">
-        <v>-1412</v>
+        <v>-1365</v>
       </c>
       <c r="G56" s="2" t="n">
         <v>30</v>
@@ -3012,27 +3003,27 @@
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>21-JAN-26</t>
+          <t>25-JAN-26</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>SM-469</t>
+          <t>SM-461</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-160</t>
+          <t>Nesma Airlines NE-162</t>
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>6255</v>
+        <v>6830</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>7656</v>
+        <v>7611</v>
       </c>
       <c r="F57" s="2" t="n">
-        <v>-1401</v>
+        <v>-781</v>
       </c>
       <c r="G57" s="2" t="n">
         <v>30</v>
@@ -3057,7 +3048,7 @@
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>21-JAN-26</t>
+          <t>26-JAN-26</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
@@ -3071,13 +3062,13 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>6714</v>
+        <v>6010</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>7656</v>
+        <v>7611</v>
       </c>
       <c r="F58" s="2" t="n">
-        <v>-942</v>
+        <v>-1601</v>
       </c>
       <c r="G58" s="2" t="n">
         <v>30</v>
@@ -3102,7 +3093,7 @@
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>21-JAN-26</t>
+          <t>26-JAN-26</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
@@ -3112,17 +3103,17 @@
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-251</t>
+          <t>Air Arabia Egypt E5-410</t>
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>6714</v>
+        <v>6176</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>7656</v>
+        <v>7611</v>
       </c>
       <c r="F59" s="2" t="n">
-        <v>-942</v>
+        <v>-1435</v>
       </c>
       <c r="G59" s="2" t="n">
         <v>30</v>
@@ -3147,7 +3138,7 @@
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>21-JAN-26</t>
+          <t>26-JAN-26</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
@@ -3157,26 +3148,26 @@
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-276</t>
+          <t>Nesma Airlines NE-160</t>
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>8650</v>
+        <v>6225</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>7656</v>
+        <v>7611</v>
       </c>
       <c r="F60" s="2" t="n">
-        <v>994</v>
+        <v>-1386</v>
       </c>
       <c r="G60" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H60" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I60" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J60" s="3" t="inlineStr">
         <is>
@@ -3192,7 +3183,7 @@
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>21-JAN-26</t>
+          <t>26-JAN-26</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
@@ -3202,26 +3193,26 @@
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-649</t>
+          <t>Nile Air NP-251</t>
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>9618</v>
+        <v>7245</v>
       </c>
       <c r="E61" s="2" t="n">
-        <v>7656</v>
+        <v>7611</v>
       </c>
       <c r="F61" s="2" t="n">
-        <v>1962</v>
+        <v>-366</v>
       </c>
       <c r="G61" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H61" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I61" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3" t="inlineStr">
         <is>
@@ -3237,7 +3228,7 @@
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>21-JAN-26</t>
+          <t>26-JAN-26</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
@@ -3247,26 +3238,26 @@
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-651</t>
+          <t>flynas XY-276</t>
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>9618</v>
+        <v>8556</v>
       </c>
       <c r="E62" s="2" t="n">
-        <v>7656</v>
+        <v>7611</v>
       </c>
       <c r="F62" s="2" t="n">
-        <v>1962</v>
+        <v>945</v>
       </c>
       <c r="G62" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H62" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I62" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J62" s="3" t="inlineStr">
         <is>
@@ -3282,36 +3273,36 @@
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>22-JAN-26</t>
+          <t>26-JAN-26</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>SM-461</t>
+          <t>SM-469</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-151</t>
+          <t>flynas XY-270</t>
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>6714</v>
+        <v>8556</v>
       </c>
       <c r="E63" s="2" t="n">
-        <v>6956</v>
+        <v>7611</v>
       </c>
       <c r="F63" s="2" t="n">
-        <v>-242</v>
+        <v>945</v>
       </c>
       <c r="G63" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H63" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I63" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J63" s="3" t="inlineStr">
         <is>
@@ -3327,36 +3318,36 @@
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>22-JAN-26</t>
+          <t>26-JAN-26</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>SM-461</t>
+          <t>SM-469</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-410</t>
+          <t>Saudia SV-312</t>
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>6720</v>
+        <v>8770</v>
       </c>
       <c r="E64" s="2" t="n">
-        <v>6956</v>
+        <v>7611</v>
       </c>
       <c r="F64" s="2" t="n">
-        <v>-236</v>
+        <v>1159</v>
       </c>
       <c r="G64" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H64" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I64" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J64" s="3" t="inlineStr">
         <is>
@@ -3372,36 +3363,36 @@
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>22-JAN-26</t>
+          <t>26-JAN-26</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>SM-461</t>
+          <t>SM-469</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-160</t>
+          <t>EgyptAir MS-649</t>
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>6866</v>
+        <v>9740</v>
       </c>
       <c r="E65" s="2" t="n">
-        <v>6956</v>
+        <v>7611</v>
       </c>
       <c r="F65" s="2" t="n">
-        <v>-90</v>
+        <v>2129</v>
       </c>
       <c r="G65" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H65" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I65" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J65" s="3" t="inlineStr">
         <is>
@@ -3417,7 +3408,7 @@
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>23-JAN-26</t>
+          <t>27-JAN-26</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
@@ -3431,13 +3422,13 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>7975</v>
+        <v>5595</v>
       </c>
       <c r="E66" s="2" t="n">
-        <v>9631</v>
+        <v>5784</v>
       </c>
       <c r="F66" s="2" t="n">
-        <v>-1656</v>
+        <v>-189</v>
       </c>
       <c r="G66" s="2" t="n">
         <v>30</v>
@@ -3462,7 +3453,7 @@
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>23-JAN-26</t>
+          <t>27-JAN-26</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
@@ -3472,17 +3463,17 @@
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-410</t>
+          <t>Air Arabia Egypt E5-415</t>
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>8220</v>
+        <v>5705</v>
       </c>
       <c r="E67" s="2" t="n">
-        <v>9631</v>
+        <v>5784</v>
       </c>
       <c r="F67" s="2" t="n">
-        <v>-1411</v>
+        <v>-79</v>
       </c>
       <c r="G67" s="2" t="n">
         <v>30</v>
@@ -3507,7 +3498,7 @@
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>23-JAN-26</t>
+          <t>27-JAN-26</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
@@ -3517,26 +3508,26 @@
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-266</t>
+          <t>Air Arabia Egypt E5-410</t>
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>11071</v>
+        <v>5705</v>
       </c>
       <c r="E68" s="2" t="n">
-        <v>9631</v>
+        <v>5784</v>
       </c>
       <c r="F68" s="2" t="n">
-        <v>1440</v>
+        <v>-79</v>
       </c>
       <c r="G68" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H68" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I68" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J68" s="3" t="inlineStr">
         <is>
@@ -3552,36 +3543,36 @@
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>23-JAN-26</t>
+          <t>28-JAN-26</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>SM-469</t>
+          <t>SM-461</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-276</t>
+          <t>Nile Air NP-151</t>
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>11071</v>
+        <v>5595</v>
       </c>
       <c r="E69" s="2" t="n">
-        <v>9631</v>
+        <v>5784</v>
       </c>
       <c r="F69" s="2" t="n">
-        <v>1440</v>
+        <v>-189</v>
       </c>
       <c r="G69" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H69" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I69" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J69" s="3" t="inlineStr">
         <is>
@@ -3597,36 +3588,36 @@
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>23-JAN-26</t>
+          <t>28-JAN-26</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>SM-469</t>
+          <t>SM-461</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-268</t>
+          <t>Nesma Airlines NE-160</t>
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>11071</v>
+        <v>5595</v>
       </c>
       <c r="E70" s="2" t="n">
-        <v>9631</v>
+        <v>5784</v>
       </c>
       <c r="F70" s="2" t="n">
-        <v>1440</v>
+        <v>-189</v>
       </c>
       <c r="G70" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H70" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I70" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J70" s="3" t="inlineStr">
         <is>
@@ -3642,36 +3633,36 @@
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>23-JAN-26</t>
+          <t>28-JAN-26</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>SM-469</t>
+          <t>SM-461</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-272</t>
+          <t>Air Arabia Egypt E5-415</t>
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>11071</v>
+        <v>5705</v>
       </c>
       <c r="E71" s="2" t="n">
-        <v>9631</v>
+        <v>5784</v>
       </c>
       <c r="F71" s="2" t="n">
-        <v>1440</v>
+        <v>-79</v>
       </c>
       <c r="G71" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H71" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I71" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J71" s="3" t="inlineStr">
         <is>
@@ -3687,7 +3678,7 @@
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>23-JAN-26</t>
+          <t>28-JAN-26</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
@@ -3697,26 +3688,26 @@
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-264</t>
+          <t>Nile Air NP-151</t>
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>11071</v>
+        <v>5595</v>
       </c>
       <c r="E72" s="2" t="n">
-        <v>9631</v>
+        <v>6351</v>
       </c>
       <c r="F72" s="2" t="n">
-        <v>1440</v>
+        <v>-756</v>
       </c>
       <c r="G72" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H72" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I72" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J72" s="3" t="inlineStr">
         <is>
@@ -3732,7 +3723,7 @@
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>23-JAN-26</t>
+          <t>28-JAN-26</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
@@ -3742,26 +3733,26 @@
       </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-270</t>
+          <t>Nesma Airlines NE-160</t>
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>11071</v>
+        <v>5595</v>
       </c>
       <c r="E73" s="2" t="n">
-        <v>9631</v>
+        <v>6351</v>
       </c>
       <c r="F73" s="2" t="n">
-        <v>1440</v>
+        <v>-756</v>
       </c>
       <c r="G73" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H73" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I73" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J73" s="3" t="inlineStr">
         <is>
@@ -3777,27 +3768,27 @@
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>24-JAN-26</t>
+          <t>28-JAN-26</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>SM-461</t>
+          <t>SM-469</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-410</t>
+          <t>Air Arabia Egypt E5-415</t>
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>7268</v>
+        <v>5705</v>
       </c>
       <c r="E74" s="2" t="n">
-        <v>8510</v>
+        <v>6351</v>
       </c>
       <c r="F74" s="2" t="n">
-        <v>-1242</v>
+        <v>-646</v>
       </c>
       <c r="G74" s="2" t="n">
         <v>30</v>
@@ -3822,27 +3813,27 @@
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>24-JAN-26</t>
+          <t>28-JAN-26</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>SM-461</t>
+          <t>SM-469</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-160</t>
+          <t>Nile Air NP-251</t>
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>7975</v>
+        <v>6010</v>
       </c>
       <c r="E75" s="2" t="n">
-        <v>8510</v>
+        <v>6351</v>
       </c>
       <c r="F75" s="2" t="n">
-        <v>-535</v>
+        <v>-341</v>
       </c>
       <c r="G75" s="2" t="n">
         <v>30</v>
@@ -3867,7 +3858,7 @@
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>25-JAN-26</t>
+          <t>29-JAN-26</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
@@ -3877,17 +3868,17 @@
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-410</t>
+          <t>Nile Air NP-151</t>
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>5601</v>
+        <v>5595</v>
       </c>
       <c r="E76" s="2" t="n">
-        <v>7656</v>
+        <v>5784</v>
       </c>
       <c r="F76" s="2" t="n">
-        <v>-2055</v>
+        <v>-189</v>
       </c>
       <c r="G76" s="2" t="n">
         <v>30</v>
@@ -3912,7 +3903,7 @@
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>25-JAN-26</t>
+          <t>29-JAN-26</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
@@ -3922,17 +3913,17 @@
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-415</t>
+          <t>Nile Air NP-251</t>
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>5839</v>
+        <v>5595</v>
       </c>
       <c r="E77" s="2" t="n">
-        <v>7656</v>
+        <v>5784</v>
       </c>
       <c r="F77" s="2" t="n">
-        <v>-1817</v>
+        <v>-189</v>
       </c>
       <c r="G77" s="2" t="n">
         <v>30</v>
@@ -3957,7 +3948,7 @@
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>25-JAN-26</t>
+          <t>29-JAN-26</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
@@ -3967,17 +3958,17 @@
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-162</t>
+          <t>Nesma Airlines NE-164</t>
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>6255</v>
+        <v>5595</v>
       </c>
       <c r="E78" s="2" t="n">
-        <v>7656</v>
+        <v>5784</v>
       </c>
       <c r="F78" s="2" t="n">
-        <v>-1401</v>
+        <v>-189</v>
       </c>
       <c r="G78" s="2" t="n">
         <v>30</v>
@@ -4002,7 +3993,7 @@
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>25-JAN-26</t>
+          <t>29-JAN-26</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
@@ -4012,26 +4003,26 @@
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-649</t>
+          <t>Nesma Airlines NE-160</t>
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>9720</v>
+        <v>5595</v>
       </c>
       <c r="E79" s="2" t="n">
-        <v>7656</v>
+        <v>5784</v>
       </c>
       <c r="F79" s="2" t="n">
-        <v>2064</v>
+        <v>-189</v>
       </c>
       <c r="G79" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H79" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I79" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J79" s="3" t="inlineStr">
         <is>
@@ -4047,12 +4038,12 @@
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>26-JAN-26</t>
+          <t>29-JAN-26</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>SM-469</t>
+          <t>SM-461</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr">
@@ -4061,13 +4052,13 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>5530</v>
+        <v>5705</v>
       </c>
       <c r="E80" s="2" t="n">
-        <v>6395</v>
+        <v>5784</v>
       </c>
       <c r="F80" s="2" t="n">
-        <v>-865</v>
+        <v>-79</v>
       </c>
       <c r="G80" s="2" t="n">
         <v>30</v>
@@ -4092,36 +4083,36 @@
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>26-JAN-26</t>
+          <t>29-JAN-26</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>SM-469</t>
+          <t>SM-461</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-160</t>
+          <t>EgyptAir MS-651</t>
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>5631</v>
+        <v>7712</v>
       </c>
       <c r="E81" s="2" t="n">
-        <v>6395</v>
+        <v>5784</v>
       </c>
       <c r="F81" s="2" t="n">
-        <v>-764</v>
+        <v>1928</v>
       </c>
       <c r="G81" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H81" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I81" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J81" s="3" t="inlineStr">
         <is>
@@ -4137,27 +4128,27 @@
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>26-JAN-26</t>
+          <t>30-JAN-26</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>SM-469</t>
+          <t>SM-461</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-151</t>
+          <t>Air Arabia Egypt E5-410</t>
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>6077</v>
+        <v>5540</v>
       </c>
       <c r="E82" s="2" t="n">
-        <v>6395</v>
+        <v>5784</v>
       </c>
       <c r="F82" s="2" t="n">
-        <v>-318</v>
+        <v>-244</v>
       </c>
       <c r="G82" s="2" t="n">
         <v>30</v>
@@ -4182,27 +4173,27 @@
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>27-JAN-26</t>
+          <t>30-JAN-26</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>SM-469</t>
+          <t>SM-461</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-415</t>
+          <t>Nesma Airlines NE-160</t>
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>5292</v>
+        <v>5595</v>
       </c>
       <c r="E83" s="2" t="n">
-        <v>5835</v>
+        <v>5784</v>
       </c>
       <c r="F83" s="2" t="n">
-        <v>-543</v>
+        <v>-189</v>
       </c>
       <c r="G83" s="2" t="n">
         <v>30</v>
@@ -4227,27 +4218,27 @@
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>27-JAN-26</t>
+          <t>30-JAN-26</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>SM-469</t>
+          <t>SM-461</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-410</t>
+          <t>Nile Air NP-151</t>
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>5530</v>
+        <v>5595</v>
       </c>
       <c r="E84" s="2" t="n">
-        <v>5835</v>
+        <v>5784</v>
       </c>
       <c r="F84" s="2" t="n">
-        <v>-305</v>
+        <v>-189</v>
       </c>
       <c r="G84" s="2" t="n">
         <v>30</v>
@@ -4272,7 +4263,7 @@
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>27-JAN-26</t>
+          <t>30-JAN-26</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
@@ -4282,17 +4273,17 @@
       </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-160</t>
+          <t>Air Arabia Egypt E5-410</t>
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>5631</v>
+        <v>5540</v>
       </c>
       <c r="E85" s="2" t="n">
-        <v>5835</v>
+        <v>6351</v>
       </c>
       <c r="F85" s="2" t="n">
-        <v>-204</v>
+        <v>-811</v>
       </c>
       <c r="G85" s="2" t="n">
         <v>30</v>
@@ -4317,7 +4308,7 @@
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>27-JAN-26</t>
+          <t>30-JAN-26</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
@@ -4327,26 +4318,26 @@
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-649</t>
+          <t>Nesma Airlines NE-160</t>
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>8153</v>
+        <v>5595</v>
       </c>
       <c r="E86" s="2" t="n">
-        <v>5835</v>
+        <v>6351</v>
       </c>
       <c r="F86" s="2" t="n">
-        <v>2318</v>
+        <v>-756</v>
       </c>
       <c r="G86" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H86" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I86" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J86" s="3" t="inlineStr">
         <is>
@@ -4362,7 +4353,7 @@
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>28-JAN-26</t>
+          <t>30-JAN-26</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
@@ -4372,17 +4363,17 @@
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-415</t>
+          <t>Nile Air NP-151</t>
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>5292</v>
+        <v>5595</v>
       </c>
       <c r="E87" s="2" t="n">
-        <v>5835</v>
+        <v>6351</v>
       </c>
       <c r="F87" s="2" t="n">
-        <v>-543</v>
+        <v>-756</v>
       </c>
       <c r="G87" s="2" t="n">
         <v>30</v>
@@ -4407,27 +4398,27 @@
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>28-JAN-26</t>
+          <t>31-JAN-26</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>SM-469</t>
+          <t>SM-461</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-160</t>
+          <t>Nile Air NP-151</t>
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>5631</v>
+        <v>6010</v>
       </c>
       <c r="E88" s="2" t="n">
-        <v>5835</v>
+        <v>6905</v>
       </c>
       <c r="F88" s="2" t="n">
-        <v>-204</v>
+        <v>-895</v>
       </c>
       <c r="G88" s="2" t="n">
         <v>30</v>
@@ -4452,27 +4443,27 @@
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>28-JAN-26</t>
+          <t>31-JAN-26</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>SM-469</t>
+          <t>SM-461</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-151</t>
+          <t>Nesma Airlines NE-160</t>
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>5656</v>
+        <v>6225</v>
       </c>
       <c r="E89" s="2" t="n">
-        <v>5835</v>
+        <v>6905</v>
       </c>
       <c r="F89" s="2" t="n">
-        <v>-179</v>
+        <v>-680</v>
       </c>
       <c r="G89" s="2" t="n">
         <v>30</v>
@@ -4497,27 +4488,27 @@
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>28-JAN-26</t>
+          <t>31-JAN-26</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>SM-469</t>
+          <t>SM-461</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-251</t>
+          <t>Air Arabia Egypt E5-410</t>
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>5656</v>
+        <v>6246</v>
       </c>
       <c r="E90" s="2" t="n">
-        <v>5835</v>
+        <v>6905</v>
       </c>
       <c r="F90" s="2" t="n">
-        <v>-179</v>
+        <v>-659</v>
       </c>
       <c r="G90" s="2" t="n">
         <v>30</v>
@@ -4542,36 +4533,36 @@
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>28-JAN-26</t>
+          <t>31-JAN-26</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>SM-469</t>
+          <t>SM-461</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-649</t>
+          <t>Nesma Airlines NE-164</t>
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>7593</v>
+        <v>6830</v>
       </c>
       <c r="E91" s="2" t="n">
-        <v>5835</v>
+        <v>6905</v>
       </c>
       <c r="F91" s="2" t="n">
-        <v>1758</v>
+        <v>-75</v>
       </c>
       <c r="G91" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H91" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I91" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="inlineStr">
         <is>
@@ -4587,27 +4578,27 @@
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>28-JAN-26</t>
+          <t>31-JAN-26</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>SM-469</t>
+          <t>SM-461</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-651</t>
+          <t>Saudia SV-320</t>
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>8153</v>
+        <v>8770</v>
       </c>
       <c r="E92" s="2" t="n">
-        <v>5835</v>
+        <v>6905</v>
       </c>
       <c r="F92" s="2" t="n">
-        <v>2318</v>
+        <v>1865</v>
       </c>
       <c r="G92" s="2" t="n">
         <v>46</v>
@@ -4632,7 +4623,7 @@
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>29-JAN-26</t>
+          <t>31-JAN-26</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
@@ -4642,26 +4633,26 @@
       </c>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-410</t>
+          <t>EgyptAir MS-651</t>
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>5292</v>
+        <v>9110</v>
       </c>
       <c r="E93" s="2" t="n">
-        <v>5835</v>
+        <v>6905</v>
       </c>
       <c r="F93" s="2" t="n">
-        <v>-543</v>
+        <v>2205</v>
       </c>
       <c r="G93" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H93" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I93" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J93" s="3" t="inlineStr">
         <is>
@@ -4677,7 +4668,7 @@
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>29-JAN-26</t>
+          <t>01-FEB-26</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
@@ -4687,17 +4678,17 @@
       </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-164</t>
+          <t>Air Arabia Egypt E5-410</t>
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>5631</v>
+        <v>5304</v>
       </c>
       <c r="E94" s="2" t="n">
-        <v>5835</v>
+        <v>5784</v>
       </c>
       <c r="F94" s="2" t="n">
-        <v>-204</v>
+        <v>-480</v>
       </c>
       <c r="G94" s="2" t="n">
         <v>30</v>
@@ -4722,7 +4713,7 @@
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>29-JAN-26</t>
+          <t>01-FEB-26</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
@@ -4732,17 +4723,17 @@
       </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-160</t>
+          <t>Air Arabia Egypt E5-415</t>
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>5631</v>
+        <v>5540</v>
       </c>
       <c r="E95" s="2" t="n">
-        <v>5835</v>
+        <v>5784</v>
       </c>
       <c r="F95" s="2" t="n">
-        <v>-204</v>
+        <v>-244</v>
       </c>
       <c r="G95" s="2" t="n">
         <v>30</v>
@@ -4767,7 +4758,7 @@
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>29-JAN-26</t>
+          <t>01-FEB-26</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
@@ -4777,17 +4768,17 @@
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-151</t>
+          <t>Nesma Airlines NE-162</t>
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>5656</v>
+        <v>5595</v>
       </c>
       <c r="E96" s="2" t="n">
-        <v>5835</v>
+        <v>5784</v>
       </c>
       <c r="F96" s="2" t="n">
-        <v>-179</v>
+        <v>-189</v>
       </c>
       <c r="G96" s="2" t="n">
         <v>30</v>
@@ -4812,7 +4803,7 @@
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>29-JAN-26</t>
+          <t>01-FEB-26</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
@@ -4822,17 +4813,17 @@
       </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-651</t>
+          <t>EgyptAir MS-649</t>
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>7593</v>
+        <v>7712</v>
       </c>
       <c r="E97" s="2" t="n">
-        <v>5835</v>
+        <v>5784</v>
       </c>
       <c r="F97" s="2" t="n">
-        <v>1758</v>
+        <v>1928</v>
       </c>
       <c r="G97" s="2" t="n">
         <v>46</v>
@@ -4857,36 +4848,36 @@
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>29-JAN-26</t>
+          <t>02-FEB-26</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>SM-461</t>
+          <t>SM-469</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-649</t>
+          <t>Air Arabia Egypt E5-410</t>
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>8153</v>
+        <v>4998</v>
       </c>
       <c r="E98" s="2" t="n">
-        <v>5835</v>
+        <v>5784</v>
       </c>
       <c r="F98" s="2" t="n">
-        <v>2318</v>
+        <v>-786</v>
       </c>
       <c r="G98" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H98" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I98" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J98" s="3" t="inlineStr">
         <is>
@@ -4902,27 +4893,27 @@
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>30-JAN-26</t>
+          <t>02-FEB-26</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>SM-461</t>
+          <t>SM-469</t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-410</t>
+          <t>Nile Air NP-151</t>
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>5363</v>
+        <v>5595</v>
       </c>
       <c r="E99" s="2" t="n">
-        <v>5835</v>
+        <v>5784</v>
       </c>
       <c r="F99" s="2" t="n">
-        <v>-472</v>
+        <v>-189</v>
       </c>
       <c r="G99" s="2" t="n">
         <v>30</v>
@@ -4947,27 +4938,27 @@
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>30-JAN-26</t>
+          <t>02-FEB-26</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>SM-461</t>
+          <t>SM-469</t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-160</t>
+          <t>Nile Air NP-251</t>
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>5631</v>
+        <v>5595</v>
       </c>
       <c r="E100" s="2" t="n">
-        <v>5835</v>
+        <v>5784</v>
       </c>
       <c r="F100" s="2" t="n">
-        <v>-204</v>
+        <v>-189</v>
       </c>
       <c r="G100" s="2" t="n">
         <v>30</v>
@@ -4992,27 +4983,27 @@
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>30-JAN-26</t>
+          <t>02-FEB-26</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>SM-461</t>
+          <t>SM-469</t>
         </is>
       </c>
       <c r="C101" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-151</t>
+          <t>Nesma Airlines NE-160</t>
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>5656</v>
+        <v>5595</v>
       </c>
       <c r="E101" s="2" t="n">
-        <v>5835</v>
+        <v>5784</v>
       </c>
       <c r="F101" s="2" t="n">
-        <v>-179</v>
+        <v>-189</v>
       </c>
       <c r="G101" s="2" t="n">
         <v>30</v>
@@ -5037,7 +5028,7 @@
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>30-JAN-26</t>
+          <t>02-FEB-26</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
@@ -5047,26 +5038,26 @@
       </c>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-410</t>
+          <t>EgyptAir MS-651</t>
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>5363</v>
+        <v>7157</v>
       </c>
       <c r="E102" s="2" t="n">
-        <v>6395</v>
+        <v>5784</v>
       </c>
       <c r="F102" s="2" t="n">
-        <v>-1032</v>
+        <v>1373</v>
       </c>
       <c r="G102" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H102" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I102" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J102" s="3" t="inlineStr">
         <is>
@@ -5082,7 +5073,7 @@
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>30-JAN-26</t>
+          <t>02-FEB-26</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
@@ -5092,26 +5083,26 @@
       </c>
       <c r="C103" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-160</t>
+          <t>EgyptAir MS-649</t>
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>5631</v>
+        <v>7712</v>
       </c>
       <c r="E103" s="2" t="n">
-        <v>6395</v>
+        <v>5784</v>
       </c>
       <c r="F103" s="2" t="n">
-        <v>-764</v>
+        <v>1928</v>
       </c>
       <c r="G103" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H103" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I103" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J103" s="3" t="inlineStr">
         <is>
@@ -5127,7 +5118,7 @@
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>30-JAN-26</t>
+          <t>02-FEB-26</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
@@ -5137,26 +5128,26 @@
       </c>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-151</t>
+          <t>EgyptAir MS-647</t>
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>5656</v>
+        <v>7812</v>
       </c>
       <c r="E104" s="2" t="n">
-        <v>6395</v>
+        <v>5784</v>
       </c>
       <c r="F104" s="2" t="n">
-        <v>-739</v>
+        <v>2028</v>
       </c>
       <c r="G104" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H104" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I104" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J104" s="3" t="inlineStr">
         <is>
@@ -5172,27 +5163,27 @@
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>31-JAN-26</t>
+          <t>03-FEB-26</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
         <is>
-          <t>SM-461</t>
+          <t>SM-469</t>
         </is>
       </c>
       <c r="C105" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-410</t>
+          <t>Air Arabia Egypt E5-415</t>
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>5363</v>
+        <v>4763</v>
       </c>
       <c r="E105" s="2" t="n">
-        <v>6956</v>
+        <v>5784</v>
       </c>
       <c r="F105" s="2" t="n">
-        <v>-1593</v>
+        <v>-1021</v>
       </c>
       <c r="G105" s="2" t="n">
         <v>30</v>
@@ -5217,27 +5208,27 @@
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>31-JAN-26</t>
+          <t>03-FEB-26</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>SM-461</t>
+          <t>SM-469</t>
         </is>
       </c>
       <c r="C106" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-151</t>
+          <t>Air Arabia Egypt E5-410</t>
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>6077</v>
+        <v>4763</v>
       </c>
       <c r="E106" s="2" t="n">
-        <v>6956</v>
+        <v>5784</v>
       </c>
       <c r="F106" s="2" t="n">
-        <v>-879</v>
+        <v>-1021</v>
       </c>
       <c r="G106" s="2" t="n">
         <v>30</v>
@@ -5262,27 +5253,27 @@
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>31-JAN-26</t>
+          <t>03-FEB-26</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
         <is>
-          <t>SM-461</t>
+          <t>SM-469</t>
         </is>
       </c>
       <c r="C107" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-160</t>
+          <t>Nile Air NP-151</t>
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>6255</v>
+        <v>5595</v>
       </c>
       <c r="E107" s="2" t="n">
-        <v>6956</v>
+        <v>5784</v>
       </c>
       <c r="F107" s="2" t="n">
-        <v>-701</v>
+        <v>-189</v>
       </c>
       <c r="G107" s="2" t="n">
         <v>30</v>
@@ -5307,27 +5298,27 @@
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>31-JAN-26</t>
+          <t>03-FEB-26</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t>SM-461</t>
+          <t>SM-469</t>
         </is>
       </c>
       <c r="C108" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-164</t>
+          <t>Nesma Airlines NE-160</t>
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>6866</v>
+        <v>5595</v>
       </c>
       <c r="E108" s="2" t="n">
-        <v>6956</v>
+        <v>5784</v>
       </c>
       <c r="F108" s="2" t="n">
-        <v>-90</v>
+        <v>-189</v>
       </c>
       <c r="G108" s="2" t="n">
         <v>30</v>
@@ -5352,12 +5343,12 @@
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>31-JAN-26</t>
+          <t>03-FEB-26</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
         <is>
-          <t>SM-461</t>
+          <t>SM-469</t>
         </is>
       </c>
       <c r="C109" s="2" t="inlineStr">
@@ -5366,13 +5357,13 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>8879</v>
+        <v>7157</v>
       </c>
       <c r="E109" s="2" t="n">
-        <v>6956</v>
+        <v>5784</v>
       </c>
       <c r="F109" s="2" t="n">
-        <v>1923</v>
+        <v>1373</v>
       </c>
       <c r="G109" s="2" t="n">
         <v>46</v>
@@ -5397,12 +5388,12 @@
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>31-JAN-26</t>
+          <t>03-FEB-26</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>SM-461</t>
+          <t>SM-469</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr">
@@ -5411,13 +5402,13 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>8981</v>
+        <v>7157</v>
       </c>
       <c r="E110" s="2" t="n">
-        <v>6956</v>
+        <v>5784</v>
       </c>
       <c r="F110" s="2" t="n">
-        <v>2025</v>
+        <v>1373</v>
       </c>
       <c r="G110" s="2" t="n">
         <v>46</v>
@@ -5434,6 +5425,5451 @@
         </is>
       </c>
       <c r="K110" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="inlineStr">
+        <is>
+          <t>03-FEB-26</t>
+        </is>
+      </c>
+      <c r="B111" s="2" t="inlineStr">
+        <is>
+          <t>SM-469</t>
+        </is>
+      </c>
+      <c r="C111" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-647</t>
+        </is>
+      </c>
+      <c r="D111" s="2" t="n">
+        <v>7258</v>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>5784</v>
+      </c>
+      <c r="F111" s="2" t="n">
+        <v>1474</v>
+      </c>
+      <c r="G111" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H111" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I111" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J111" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K111" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="inlineStr">
+        <is>
+          <t>04-FEB-26</t>
+        </is>
+      </c>
+      <c r="B112" s="2" t="inlineStr">
+        <is>
+          <t>SM-469</t>
+        </is>
+      </c>
+      <c r="C112" s="2" t="inlineStr">
+        <is>
+          <t>Air Arabia Egypt E5-415</t>
+        </is>
+      </c>
+      <c r="D112" s="2" t="n">
+        <v>4527</v>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F112" s="2" t="n">
+        <v>-841</v>
+      </c>
+      <c r="G112" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H112" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I112" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K112" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="inlineStr">
+        <is>
+          <t>04-FEB-26</t>
+        </is>
+      </c>
+      <c r="B113" s="2" t="inlineStr">
+        <is>
+          <t>SM-469</t>
+        </is>
+      </c>
+      <c r="C113" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-649</t>
+        </is>
+      </c>
+      <c r="D113" s="2" t="n">
+        <v>6640</v>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F113" s="2" t="n">
+        <v>1272</v>
+      </c>
+      <c r="G113" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H113" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I113" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J113" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K113" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="inlineStr">
+        <is>
+          <t>04-FEB-26</t>
+        </is>
+      </c>
+      <c r="B114" s="2" t="inlineStr">
+        <is>
+          <t>SM-469</t>
+        </is>
+      </c>
+      <c r="C114" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-266</t>
+        </is>
+      </c>
+      <c r="D114" s="2" t="n">
+        <v>6792</v>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F114" s="2" t="n">
+        <v>1424</v>
+      </c>
+      <c r="G114" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H114" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I114" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="J114" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K114" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="inlineStr">
+        <is>
+          <t>04-FEB-26</t>
+        </is>
+      </c>
+      <c r="B115" s="2" t="inlineStr">
+        <is>
+          <t>SM-469</t>
+        </is>
+      </c>
+      <c r="C115" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-288</t>
+        </is>
+      </c>
+      <c r="D115" s="2" t="n">
+        <v>6792</v>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F115" s="2" t="n">
+        <v>1424</v>
+      </c>
+      <c r="G115" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H115" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I115" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="J115" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K115" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="inlineStr">
+        <is>
+          <t>04-FEB-26</t>
+        </is>
+      </c>
+      <c r="B116" s="2" t="inlineStr">
+        <is>
+          <t>SM-469</t>
+        </is>
+      </c>
+      <c r="C116" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-276</t>
+        </is>
+      </c>
+      <c r="D116" s="2" t="n">
+        <v>6792</v>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F116" s="2" t="n">
+        <v>1424</v>
+      </c>
+      <c r="G116" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H116" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I116" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="J116" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K116" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="inlineStr">
+        <is>
+          <t>04-FEB-26</t>
+        </is>
+      </c>
+      <c r="B117" s="2" t="inlineStr">
+        <is>
+          <t>SM-469</t>
+        </is>
+      </c>
+      <c r="C117" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-268</t>
+        </is>
+      </c>
+      <c r="D117" s="2" t="n">
+        <v>6792</v>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F117" s="2" t="n">
+        <v>1424</v>
+      </c>
+      <c r="G117" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H117" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I117" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="J117" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K117" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="inlineStr">
+        <is>
+          <t>04-FEB-26</t>
+        </is>
+      </c>
+      <c r="B118" s="2" t="inlineStr">
+        <is>
+          <t>SM-469</t>
+        </is>
+      </c>
+      <c r="C118" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-651</t>
+        </is>
+      </c>
+      <c r="D118" s="2" t="n">
+        <v>7157</v>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F118" s="2" t="n">
+        <v>1789</v>
+      </c>
+      <c r="G118" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H118" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I118" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J118" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K118" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="inlineStr">
+        <is>
+          <t>05-FEB-26</t>
+        </is>
+      </c>
+      <c r="B119" s="2" t="inlineStr">
+        <is>
+          <t>SM-461</t>
+        </is>
+      </c>
+      <c r="C119" s="2" t="inlineStr">
+        <is>
+          <t>Air Arabia Egypt E5-410</t>
+        </is>
+      </c>
+      <c r="D119" s="2" t="n">
+        <v>4763</v>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F119" s="2" t="n">
+        <v>-605</v>
+      </c>
+      <c r="G119" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H119" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I119" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K119" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="inlineStr">
+        <is>
+          <t>05-FEB-26</t>
+        </is>
+      </c>
+      <c r="B120" s="2" t="inlineStr">
+        <is>
+          <t>SM-461</t>
+        </is>
+      </c>
+      <c r="C120" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-270</t>
+        </is>
+      </c>
+      <c r="D120" s="2" t="n">
+        <v>6792</v>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F120" s="2" t="n">
+        <v>1424</v>
+      </c>
+      <c r="G120" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H120" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I120" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="J120" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K120" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="inlineStr">
+        <is>
+          <t>05-FEB-26</t>
+        </is>
+      </c>
+      <c r="B121" s="2" t="inlineStr">
+        <is>
+          <t>SM-461</t>
+        </is>
+      </c>
+      <c r="C121" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-649</t>
+        </is>
+      </c>
+      <c r="D121" s="2" t="n">
+        <v>7157</v>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F121" s="2" t="n">
+        <v>1789</v>
+      </c>
+      <c r="G121" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H121" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I121" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J121" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K121" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="inlineStr">
+        <is>
+          <t>05-FEB-26</t>
+        </is>
+      </c>
+      <c r="B122" s="2" t="inlineStr">
+        <is>
+          <t>SM-461</t>
+        </is>
+      </c>
+      <c r="C122" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-651</t>
+        </is>
+      </c>
+      <c r="D122" s="2" t="n">
+        <v>7157</v>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F122" s="2" t="n">
+        <v>1789</v>
+      </c>
+      <c r="G122" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H122" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I122" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J122" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K122" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="inlineStr">
+        <is>
+          <t>06-FEB-26</t>
+        </is>
+      </c>
+      <c r="B123" s="2" t="inlineStr">
+        <is>
+          <t>SM-469</t>
+        </is>
+      </c>
+      <c r="C123" s="2" t="inlineStr">
+        <is>
+          <t>Air Arabia Egypt E5-410</t>
+        </is>
+      </c>
+      <c r="D123" s="2" t="n">
+        <v>4363</v>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F123" s="2" t="n">
+        <v>-1005</v>
+      </c>
+      <c r="G123" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H123" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I123" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K123" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="inlineStr">
+        <is>
+          <t>06-FEB-26</t>
+        </is>
+      </c>
+      <c r="B124" s="2" t="inlineStr">
+        <is>
+          <t>SM-469</t>
+        </is>
+      </c>
+      <c r="C124" s="2" t="inlineStr">
+        <is>
+          <t>Saudia SV-310</t>
+        </is>
+      </c>
+      <c r="D124" s="2" t="n">
+        <v>7346</v>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F124" s="2" t="n">
+        <v>1978</v>
+      </c>
+      <c r="G124" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H124" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I124" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J124" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K124" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="inlineStr">
+        <is>
+          <t>06-FEB-26</t>
+        </is>
+      </c>
+      <c r="B125" s="2" t="inlineStr">
+        <is>
+          <t>SM-469</t>
+        </is>
+      </c>
+      <c r="C125" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-649</t>
+        </is>
+      </c>
+      <c r="D125" s="2" t="n">
+        <v>7712</v>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F125" s="2" t="n">
+        <v>2344</v>
+      </c>
+      <c r="G125" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H125" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I125" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J125" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K125" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="inlineStr">
+        <is>
+          <t>06-FEB-26</t>
+        </is>
+      </c>
+      <c r="B126" s="2" t="inlineStr">
+        <is>
+          <t>SM-469</t>
+        </is>
+      </c>
+      <c r="C126" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-651</t>
+        </is>
+      </c>
+      <c r="D126" s="2" t="n">
+        <v>7712</v>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F126" s="2" t="n">
+        <v>2344</v>
+      </c>
+      <c r="G126" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H126" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I126" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J126" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K126" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="inlineStr">
+        <is>
+          <t>07-FEB-26</t>
+        </is>
+      </c>
+      <c r="B127" s="2" t="inlineStr">
+        <is>
+          <t>SM-461</t>
+        </is>
+      </c>
+      <c r="C127" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-151</t>
+        </is>
+      </c>
+      <c r="D127" s="2" t="n">
+        <v>5595</v>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>5784</v>
+      </c>
+      <c r="F127" s="2" t="n">
+        <v>-189</v>
+      </c>
+      <c r="G127" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H127" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I127" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K127" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="inlineStr">
+        <is>
+          <t>07-FEB-26</t>
+        </is>
+      </c>
+      <c r="B128" s="2" t="inlineStr">
+        <is>
+          <t>SM-461</t>
+        </is>
+      </c>
+      <c r="C128" s="2" t="inlineStr">
+        <is>
+          <t>Nesma Airlines NE-160</t>
+        </is>
+      </c>
+      <c r="D128" s="2" t="n">
+        <v>5595</v>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>5784</v>
+      </c>
+      <c r="F128" s="2" t="n">
+        <v>-189</v>
+      </c>
+      <c r="G128" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H128" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I128" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K128" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="inlineStr">
+        <is>
+          <t>07-FEB-26</t>
+        </is>
+      </c>
+      <c r="B129" s="2" t="inlineStr">
+        <is>
+          <t>SM-461</t>
+        </is>
+      </c>
+      <c r="C129" s="2" t="inlineStr">
+        <is>
+          <t>Air Arabia Egypt E5-410</t>
+        </is>
+      </c>
+      <c r="D129" s="2" t="n">
+        <v>5775</v>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>5784</v>
+      </c>
+      <c r="F129" s="2" t="n">
+        <v>-9</v>
+      </c>
+      <c r="G129" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H129" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I129" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K129" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="inlineStr">
+        <is>
+          <t>07-FEB-26</t>
+        </is>
+      </c>
+      <c r="B130" s="2" t="inlineStr">
+        <is>
+          <t>SM-461</t>
+        </is>
+      </c>
+      <c r="C130" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-649</t>
+        </is>
+      </c>
+      <c r="D130" s="2" t="n">
+        <v>7812</v>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>5784</v>
+      </c>
+      <c r="F130" s="2" t="n">
+        <v>2028</v>
+      </c>
+      <c r="G130" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H130" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I130" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J130" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K130" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="inlineStr">
+        <is>
+          <t>07-FEB-26</t>
+        </is>
+      </c>
+      <c r="B131" s="2" t="inlineStr">
+        <is>
+          <t>SM-461</t>
+        </is>
+      </c>
+      <c r="C131" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-651</t>
+        </is>
+      </c>
+      <c r="D131" s="2" t="n">
+        <v>7812</v>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>5784</v>
+      </c>
+      <c r="F131" s="2" t="n">
+        <v>2028</v>
+      </c>
+      <c r="G131" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H131" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I131" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J131" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K131" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="inlineStr">
+        <is>
+          <t>08-FEB-26</t>
+        </is>
+      </c>
+      <c r="B132" s="2" t="inlineStr">
+        <is>
+          <t>SM-461</t>
+        </is>
+      </c>
+      <c r="C132" s="2" t="inlineStr">
+        <is>
+          <t>Air Arabia Egypt E5-415</t>
+        </is>
+      </c>
+      <c r="D132" s="2" t="n">
+        <v>4363</v>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F132" s="2" t="n">
+        <v>-1005</v>
+      </c>
+      <c r="G132" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H132" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I132" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K132" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="inlineStr">
+        <is>
+          <t>08-FEB-26</t>
+        </is>
+      </c>
+      <c r="B133" s="2" t="inlineStr">
+        <is>
+          <t>SM-461</t>
+        </is>
+      </c>
+      <c r="C133" s="2" t="inlineStr">
+        <is>
+          <t>Air Arabia Egypt E5-410</t>
+        </is>
+      </c>
+      <c r="D133" s="2" t="n">
+        <v>4363</v>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F133" s="2" t="n">
+        <v>-1005</v>
+      </c>
+      <c r="G133" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H133" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I133" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K133" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="inlineStr">
+        <is>
+          <t>08-FEB-26</t>
+        </is>
+      </c>
+      <c r="B134" s="2" t="inlineStr">
+        <is>
+          <t>SM-461</t>
+        </is>
+      </c>
+      <c r="C134" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-649</t>
+        </is>
+      </c>
+      <c r="D134" s="2" t="n">
+        <v>6640</v>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F134" s="2" t="n">
+        <v>1272</v>
+      </c>
+      <c r="G134" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H134" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I134" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J134" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K134" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="inlineStr">
+        <is>
+          <t>08-FEB-26</t>
+        </is>
+      </c>
+      <c r="B135" s="2" t="inlineStr">
+        <is>
+          <t>SM-461</t>
+        </is>
+      </c>
+      <c r="C135" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-651</t>
+        </is>
+      </c>
+      <c r="D135" s="2" t="n">
+        <v>7157</v>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F135" s="2" t="n">
+        <v>1789</v>
+      </c>
+      <c r="G135" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H135" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I135" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J135" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K135" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="inlineStr">
+        <is>
+          <t>08-FEB-26</t>
+        </is>
+      </c>
+      <c r="B136" s="2" t="inlineStr">
+        <is>
+          <t>SM-461</t>
+        </is>
+      </c>
+      <c r="C136" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-647</t>
+        </is>
+      </c>
+      <c r="D136" s="2" t="n">
+        <v>7258</v>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F136" s="2" t="n">
+        <v>1890</v>
+      </c>
+      <c r="G136" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H136" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I136" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J136" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K136" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="inlineStr">
+        <is>
+          <t>09-FEB-26</t>
+        </is>
+      </c>
+      <c r="B137" s="2" t="inlineStr">
+        <is>
+          <t>SM-469</t>
+        </is>
+      </c>
+      <c r="C137" s="2" t="inlineStr">
+        <is>
+          <t>Air Arabia Egypt E5-410</t>
+        </is>
+      </c>
+      <c r="D137" s="2" t="n">
+        <v>4292</v>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F137" s="2" t="n">
+        <v>-1076</v>
+      </c>
+      <c r="G137" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H137" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I137" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K137" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="inlineStr">
+        <is>
+          <t>09-FEB-26</t>
+        </is>
+      </c>
+      <c r="B138" s="2" t="inlineStr">
+        <is>
+          <t>SM-469</t>
+        </is>
+      </c>
+      <c r="C138" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-649</t>
+        </is>
+      </c>
+      <c r="D138" s="2" t="n">
+        <v>6640</v>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F138" s="2" t="n">
+        <v>1272</v>
+      </c>
+      <c r="G138" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H138" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I138" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J138" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K138" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="inlineStr">
+        <is>
+          <t>09-FEB-26</t>
+        </is>
+      </c>
+      <c r="B139" s="2" t="inlineStr">
+        <is>
+          <t>SM-469</t>
+        </is>
+      </c>
+      <c r="C139" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-651</t>
+        </is>
+      </c>
+      <c r="D139" s="2" t="n">
+        <v>6640</v>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F139" s="2" t="n">
+        <v>1272</v>
+      </c>
+      <c r="G139" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H139" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I139" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J139" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K139" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="inlineStr">
+        <is>
+          <t>09-FEB-26</t>
+        </is>
+      </c>
+      <c r="B140" s="2" t="inlineStr">
+        <is>
+          <t>SM-469</t>
+        </is>
+      </c>
+      <c r="C140" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-647</t>
+        </is>
+      </c>
+      <c r="D140" s="2" t="n">
+        <v>6741</v>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F140" s="2" t="n">
+        <v>1373</v>
+      </c>
+      <c r="G140" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H140" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I140" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J140" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K140" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="inlineStr">
+        <is>
+          <t>10-FEB-26</t>
+        </is>
+      </c>
+      <c r="B141" s="2" t="inlineStr">
+        <is>
+          <t>SM-469</t>
+        </is>
+      </c>
+      <c r="C141" s="2" t="inlineStr">
+        <is>
+          <t>Air Arabia Egypt E5-415</t>
+        </is>
+      </c>
+      <c r="D141" s="2" t="n">
+        <v>4292</v>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F141" s="2" t="n">
+        <v>-1076</v>
+      </c>
+      <c r="G141" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H141" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I141" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K141" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="inlineStr">
+        <is>
+          <t>10-FEB-26</t>
+        </is>
+      </c>
+      <c r="B142" s="2" t="inlineStr">
+        <is>
+          <t>SM-469</t>
+        </is>
+      </c>
+      <c r="C142" s="2" t="inlineStr">
+        <is>
+          <t>Air Arabia Egypt E5-410</t>
+        </is>
+      </c>
+      <c r="D142" s="2" t="n">
+        <v>4292</v>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F142" s="2" t="n">
+        <v>-1076</v>
+      </c>
+      <c r="G142" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H142" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I142" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K142" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="inlineStr">
+        <is>
+          <t>10-FEB-26</t>
+        </is>
+      </c>
+      <c r="B143" s="2" t="inlineStr">
+        <is>
+          <t>SM-469</t>
+        </is>
+      </c>
+      <c r="C143" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-264</t>
+        </is>
+      </c>
+      <c r="D143" s="2" t="n">
+        <v>6288</v>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F143" s="2" t="n">
+        <v>920</v>
+      </c>
+      <c r="G143" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H143" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I143" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="J143" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K143" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="inlineStr">
+        <is>
+          <t>10-FEB-26</t>
+        </is>
+      </c>
+      <c r="B144" s="2" t="inlineStr">
+        <is>
+          <t>SM-469</t>
+        </is>
+      </c>
+      <c r="C144" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-649</t>
+        </is>
+      </c>
+      <c r="D144" s="2" t="n">
+        <v>6640</v>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F144" s="2" t="n">
+        <v>1272</v>
+      </c>
+      <c r="G144" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H144" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I144" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J144" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K144" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="inlineStr">
+        <is>
+          <t>10-FEB-26</t>
+        </is>
+      </c>
+      <c r="B145" s="2" t="inlineStr">
+        <is>
+          <t>SM-469</t>
+        </is>
+      </c>
+      <c r="C145" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-651</t>
+        </is>
+      </c>
+      <c r="D145" s="2" t="n">
+        <v>6640</v>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F145" s="2" t="n">
+        <v>1272</v>
+      </c>
+      <c r="G145" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H145" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I145" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J145" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K145" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="inlineStr">
+        <is>
+          <t>10-FEB-26</t>
+        </is>
+      </c>
+      <c r="B146" s="2" t="inlineStr">
+        <is>
+          <t>SM-469</t>
+        </is>
+      </c>
+      <c r="C146" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-647</t>
+        </is>
+      </c>
+      <c r="D146" s="2" t="n">
+        <v>7258</v>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F146" s="2" t="n">
+        <v>1890</v>
+      </c>
+      <c r="G146" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H146" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I146" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J146" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K146" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="inlineStr">
+        <is>
+          <t>11-FEB-26</t>
+        </is>
+      </c>
+      <c r="B147" s="2" t="inlineStr">
+        <is>
+          <t>SM-469</t>
+        </is>
+      </c>
+      <c r="C147" s="2" t="inlineStr">
+        <is>
+          <t>Air Arabia Egypt E5-415</t>
+        </is>
+      </c>
+      <c r="D147" s="2" t="n">
+        <v>4292</v>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F147" s="2" t="n">
+        <v>-1076</v>
+      </c>
+      <c r="G147" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H147" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I147" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K147" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="inlineStr">
+        <is>
+          <t>11-FEB-26</t>
+        </is>
+      </c>
+      <c r="B148" s="2" t="inlineStr">
+        <is>
+          <t>SM-469</t>
+        </is>
+      </c>
+      <c r="C148" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-266</t>
+        </is>
+      </c>
+      <c r="D148" s="2" t="n">
+        <v>6288</v>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F148" s="2" t="n">
+        <v>920</v>
+      </c>
+      <c r="G148" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H148" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I148" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="J148" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K148" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="inlineStr">
+        <is>
+          <t>11-FEB-26</t>
+        </is>
+      </c>
+      <c r="B149" s="2" t="inlineStr">
+        <is>
+          <t>SM-469</t>
+        </is>
+      </c>
+      <c r="C149" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-288</t>
+        </is>
+      </c>
+      <c r="D149" s="2" t="n">
+        <v>6288</v>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F149" s="2" t="n">
+        <v>920</v>
+      </c>
+      <c r="G149" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H149" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I149" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="J149" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K149" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="inlineStr">
+        <is>
+          <t>11-FEB-26</t>
+        </is>
+      </c>
+      <c r="B150" s="2" t="inlineStr">
+        <is>
+          <t>SM-469</t>
+        </is>
+      </c>
+      <c r="C150" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-276</t>
+        </is>
+      </c>
+      <c r="D150" s="2" t="n">
+        <v>6288</v>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F150" s="2" t="n">
+        <v>920</v>
+      </c>
+      <c r="G150" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H150" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I150" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="J150" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K150" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="inlineStr">
+        <is>
+          <t>11-FEB-26</t>
+        </is>
+      </c>
+      <c r="B151" s="2" t="inlineStr">
+        <is>
+          <t>SM-469</t>
+        </is>
+      </c>
+      <c r="C151" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-272</t>
+        </is>
+      </c>
+      <c r="D151" s="2" t="n">
+        <v>6288</v>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F151" s="2" t="n">
+        <v>920</v>
+      </c>
+      <c r="G151" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H151" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I151" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="J151" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K151" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="inlineStr">
+        <is>
+          <t>11-FEB-26</t>
+        </is>
+      </c>
+      <c r="B152" s="2" t="inlineStr">
+        <is>
+          <t>SM-469</t>
+        </is>
+      </c>
+      <c r="C152" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-264</t>
+        </is>
+      </c>
+      <c r="D152" s="2" t="n">
+        <v>6288</v>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F152" s="2" t="n">
+        <v>920</v>
+      </c>
+      <c r="G152" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H152" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I152" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="J152" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K152" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="inlineStr">
+        <is>
+          <t>11-FEB-26</t>
+        </is>
+      </c>
+      <c r="B153" s="2" t="inlineStr">
+        <is>
+          <t>SM-469</t>
+        </is>
+      </c>
+      <c r="C153" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-270</t>
+        </is>
+      </c>
+      <c r="D153" s="2" t="n">
+        <v>6288</v>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F153" s="2" t="n">
+        <v>920</v>
+      </c>
+      <c r="G153" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H153" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I153" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="J153" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K153" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="inlineStr">
+        <is>
+          <t>11-FEB-26</t>
+        </is>
+      </c>
+      <c r="B154" s="2" t="inlineStr">
+        <is>
+          <t>SM-469</t>
+        </is>
+      </c>
+      <c r="C154" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-649</t>
+        </is>
+      </c>
+      <c r="D154" s="2" t="n">
+        <v>6640</v>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F154" s="2" t="n">
+        <v>1272</v>
+      </c>
+      <c r="G154" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H154" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I154" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J154" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K154" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="inlineStr">
+        <is>
+          <t>11-FEB-26</t>
+        </is>
+      </c>
+      <c r="B155" s="2" t="inlineStr">
+        <is>
+          <t>SM-469</t>
+        </is>
+      </c>
+      <c r="C155" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-651</t>
+        </is>
+      </c>
+      <c r="D155" s="2" t="n">
+        <v>6640</v>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F155" s="2" t="n">
+        <v>1272</v>
+      </c>
+      <c r="G155" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H155" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I155" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J155" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K155" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="inlineStr">
+        <is>
+          <t>11-FEB-26</t>
+        </is>
+      </c>
+      <c r="B156" s="2" t="inlineStr">
+        <is>
+          <t>SM-469</t>
+        </is>
+      </c>
+      <c r="C156" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-647</t>
+        </is>
+      </c>
+      <c r="D156" s="2" t="n">
+        <v>6741</v>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F156" s="2" t="n">
+        <v>1373</v>
+      </c>
+      <c r="G156" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H156" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I156" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J156" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K156" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="inlineStr">
+        <is>
+          <t>11-FEB-26</t>
+        </is>
+      </c>
+      <c r="B157" s="2" t="inlineStr">
+        <is>
+          <t>SM-469</t>
+        </is>
+      </c>
+      <c r="C157" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-268</t>
+        </is>
+      </c>
+      <c r="D157" s="2" t="n">
+        <v>6792</v>
+      </c>
+      <c r="E157" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F157" s="2" t="n">
+        <v>1424</v>
+      </c>
+      <c r="G157" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H157" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I157" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="J157" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K157" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="inlineStr">
+        <is>
+          <t>11-FEB-26</t>
+        </is>
+      </c>
+      <c r="B158" s="2" t="inlineStr">
+        <is>
+          <t>SM-469</t>
+        </is>
+      </c>
+      <c r="C158" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-274</t>
+        </is>
+      </c>
+      <c r="D158" s="2" t="n">
+        <v>6792</v>
+      </c>
+      <c r="E158" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F158" s="2" t="n">
+        <v>1424</v>
+      </c>
+      <c r="G158" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H158" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I158" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="J158" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K158" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="inlineStr">
+        <is>
+          <t>11-FEB-26</t>
+        </is>
+      </c>
+      <c r="B159" s="2" t="inlineStr">
+        <is>
+          <t>SM-469</t>
+        </is>
+      </c>
+      <c r="C159" s="2" t="inlineStr">
+        <is>
+          <t>Saudia SV-320</t>
+        </is>
+      </c>
+      <c r="D159" s="2" t="n">
+        <v>7346</v>
+      </c>
+      <c r="E159" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F159" s="2" t="n">
+        <v>1978</v>
+      </c>
+      <c r="G159" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H159" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I159" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J159" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K159" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="inlineStr">
+        <is>
+          <t>12-FEB-26</t>
+        </is>
+      </c>
+      <c r="B160" s="2" t="inlineStr">
+        <is>
+          <t>SM-461</t>
+        </is>
+      </c>
+      <c r="C160" s="2" t="inlineStr">
+        <is>
+          <t>Air Arabia Egypt E5-410</t>
+        </is>
+      </c>
+      <c r="D160" s="2" t="n">
+        <v>4292</v>
+      </c>
+      <c r="E160" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F160" s="2" t="n">
+        <v>-1076</v>
+      </c>
+      <c r="G160" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H160" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I160" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K160" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="inlineStr">
+        <is>
+          <t>12-FEB-26</t>
+        </is>
+      </c>
+      <c r="B161" s="2" t="inlineStr">
+        <is>
+          <t>SM-461</t>
+        </is>
+      </c>
+      <c r="C161" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-151</t>
+        </is>
+      </c>
+      <c r="D161" s="2" t="n">
+        <v>4549</v>
+      </c>
+      <c r="E161" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F161" s="2" t="n">
+        <v>-819</v>
+      </c>
+      <c r="G161" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H161" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I161" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K161" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="inlineStr">
+        <is>
+          <t>12-FEB-26</t>
+        </is>
+      </c>
+      <c r="B162" s="2" t="inlineStr">
+        <is>
+          <t>SM-461</t>
+        </is>
+      </c>
+      <c r="C162" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-647</t>
+        </is>
+      </c>
+      <c r="D162" s="2" t="n">
+        <v>6741</v>
+      </c>
+      <c r="E162" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F162" s="2" t="n">
+        <v>1373</v>
+      </c>
+      <c r="G162" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H162" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I162" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J162" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K162" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="inlineStr">
+        <is>
+          <t>12-FEB-26</t>
+        </is>
+      </c>
+      <c r="B163" s="2" t="inlineStr">
+        <is>
+          <t>SM-461</t>
+        </is>
+      </c>
+      <c r="C163" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-651</t>
+        </is>
+      </c>
+      <c r="D163" s="2" t="n">
+        <v>7157</v>
+      </c>
+      <c r="E163" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F163" s="2" t="n">
+        <v>1789</v>
+      </c>
+      <c r="G163" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H163" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I163" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J163" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K163" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="inlineStr">
+        <is>
+          <t>13-FEB-26</t>
+        </is>
+      </c>
+      <c r="B164" s="2" t="inlineStr">
+        <is>
+          <t>SM-469</t>
+        </is>
+      </c>
+      <c r="C164" s="2" t="inlineStr">
+        <is>
+          <t>Air Arabia Egypt E5-410</t>
+        </is>
+      </c>
+      <c r="D164" s="2" t="n">
+        <v>4362</v>
+      </c>
+      <c r="E164" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F164" s="2" t="n">
+        <v>-1006</v>
+      </c>
+      <c r="G164" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H164" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I164" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K164" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="inlineStr">
+        <is>
+          <t>13-FEB-26</t>
+        </is>
+      </c>
+      <c r="B165" s="2" t="inlineStr">
+        <is>
+          <t>SM-469</t>
+        </is>
+      </c>
+      <c r="C165" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-649</t>
+        </is>
+      </c>
+      <c r="D165" s="2" t="n">
+        <v>6640</v>
+      </c>
+      <c r="E165" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F165" s="2" t="n">
+        <v>1272</v>
+      </c>
+      <c r="G165" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H165" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I165" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J165" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K165" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="inlineStr">
+        <is>
+          <t>13-FEB-26</t>
+        </is>
+      </c>
+      <c r="B166" s="2" t="inlineStr">
+        <is>
+          <t>SM-469</t>
+        </is>
+      </c>
+      <c r="C166" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-266</t>
+        </is>
+      </c>
+      <c r="D166" s="2" t="n">
+        <v>6792</v>
+      </c>
+      <c r="E166" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F166" s="2" t="n">
+        <v>1424</v>
+      </c>
+      <c r="G166" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H166" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I166" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="J166" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K166" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="inlineStr">
+        <is>
+          <t>13-FEB-26</t>
+        </is>
+      </c>
+      <c r="B167" s="2" t="inlineStr">
+        <is>
+          <t>SM-469</t>
+        </is>
+      </c>
+      <c r="C167" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-651</t>
+        </is>
+      </c>
+      <c r="D167" s="2" t="n">
+        <v>7157</v>
+      </c>
+      <c r="E167" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F167" s="2" t="n">
+        <v>1789</v>
+      </c>
+      <c r="G167" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H167" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I167" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J167" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K167" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="inlineStr">
+        <is>
+          <t>13-FEB-26</t>
+        </is>
+      </c>
+      <c r="B168" s="2" t="inlineStr">
+        <is>
+          <t>SM-469</t>
+        </is>
+      </c>
+      <c r="C168" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-647</t>
+        </is>
+      </c>
+      <c r="D168" s="2" t="n">
+        <v>7258</v>
+      </c>
+      <c r="E168" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F168" s="2" t="n">
+        <v>1890</v>
+      </c>
+      <c r="G168" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H168" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I168" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J168" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K168" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="inlineStr">
+        <is>
+          <t>14-FEB-26</t>
+        </is>
+      </c>
+      <c r="B169" s="2" t="inlineStr">
+        <is>
+          <t>SM-461</t>
+        </is>
+      </c>
+      <c r="C169" s="2" t="inlineStr">
+        <is>
+          <t>Air Arabia Egypt E5-410</t>
+        </is>
+      </c>
+      <c r="D169" s="2" t="n">
+        <v>4363</v>
+      </c>
+      <c r="E169" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F169" s="2" t="n">
+        <v>-1005</v>
+      </c>
+      <c r="G169" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H169" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I169" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K169" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="inlineStr">
+        <is>
+          <t>14-FEB-26</t>
+        </is>
+      </c>
+      <c r="B170" s="2" t="inlineStr">
+        <is>
+          <t>SM-461</t>
+        </is>
+      </c>
+      <c r="C170" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-649</t>
+        </is>
+      </c>
+      <c r="D170" s="2" t="n">
+        <v>7157</v>
+      </c>
+      <c r="E170" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F170" s="2" t="n">
+        <v>1789</v>
+      </c>
+      <c r="G170" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H170" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I170" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J170" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K170" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="inlineStr">
+        <is>
+          <t>15-FEB-26</t>
+        </is>
+      </c>
+      <c r="B171" s="2" t="inlineStr">
+        <is>
+          <t>SM-461</t>
+        </is>
+      </c>
+      <c r="C171" s="2" t="inlineStr">
+        <is>
+          <t>Air Arabia Egypt E5-415</t>
+        </is>
+      </c>
+      <c r="D171" s="2" t="n">
+        <v>4362</v>
+      </c>
+      <c r="E171" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F171" s="2" t="n">
+        <v>-1006</v>
+      </c>
+      <c r="G171" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H171" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I171" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K171" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="inlineStr">
+        <is>
+          <t>15-FEB-26</t>
+        </is>
+      </c>
+      <c r="B172" s="2" t="inlineStr">
+        <is>
+          <t>SM-461</t>
+        </is>
+      </c>
+      <c r="C172" s="2" t="inlineStr">
+        <is>
+          <t>Air Arabia Egypt E5-410</t>
+        </is>
+      </c>
+      <c r="D172" s="2" t="n">
+        <v>4363</v>
+      </c>
+      <c r="E172" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F172" s="2" t="n">
+        <v>-1005</v>
+      </c>
+      <c r="G172" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H172" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I172" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K172" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="inlineStr">
+        <is>
+          <t>15-FEB-26</t>
+        </is>
+      </c>
+      <c r="B173" s="2" t="inlineStr">
+        <is>
+          <t>SM-461</t>
+        </is>
+      </c>
+      <c r="C173" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-651</t>
+        </is>
+      </c>
+      <c r="D173" s="2" t="n">
+        <v>6640</v>
+      </c>
+      <c r="E173" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F173" s="2" t="n">
+        <v>1272</v>
+      </c>
+      <c r="G173" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H173" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I173" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J173" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K173" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="inlineStr">
+        <is>
+          <t>15-FEB-26</t>
+        </is>
+      </c>
+      <c r="B174" s="2" t="inlineStr">
+        <is>
+          <t>SM-461</t>
+        </is>
+      </c>
+      <c r="C174" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-647</t>
+        </is>
+      </c>
+      <c r="D174" s="2" t="n">
+        <v>6741</v>
+      </c>
+      <c r="E174" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F174" s="2" t="n">
+        <v>1373</v>
+      </c>
+      <c r="G174" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H174" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I174" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J174" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K174" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="inlineStr">
+        <is>
+          <t>15-FEB-26</t>
+        </is>
+      </c>
+      <c r="B175" s="2" t="inlineStr">
+        <is>
+          <t>SM-461</t>
+        </is>
+      </c>
+      <c r="C175" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-649</t>
+        </is>
+      </c>
+      <c r="D175" s="2" t="n">
+        <v>7157</v>
+      </c>
+      <c r="E175" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F175" s="2" t="n">
+        <v>1789</v>
+      </c>
+      <c r="G175" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H175" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I175" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J175" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K175" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="inlineStr">
+        <is>
+          <t>16-FEB-26</t>
+        </is>
+      </c>
+      <c r="B176" s="2" t="inlineStr">
+        <is>
+          <t>SM-469</t>
+        </is>
+      </c>
+      <c r="C176" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-649</t>
+        </is>
+      </c>
+      <c r="D176" s="2" t="n">
+        <v>6640</v>
+      </c>
+      <c r="E176" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F176" s="2" t="n">
+        <v>1272</v>
+      </c>
+      <c r="G176" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H176" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I176" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J176" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K176" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="inlineStr">
+        <is>
+          <t>16-FEB-26</t>
+        </is>
+      </c>
+      <c r="B177" s="2" t="inlineStr">
+        <is>
+          <t>SM-469</t>
+        </is>
+      </c>
+      <c r="C177" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-651</t>
+        </is>
+      </c>
+      <c r="D177" s="2" t="n">
+        <v>6640</v>
+      </c>
+      <c r="E177" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F177" s="2" t="n">
+        <v>1272</v>
+      </c>
+      <c r="G177" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H177" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I177" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J177" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K177" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="inlineStr">
+        <is>
+          <t>16-FEB-26</t>
+        </is>
+      </c>
+      <c r="B178" s="2" t="inlineStr">
+        <is>
+          <t>SM-469</t>
+        </is>
+      </c>
+      <c r="C178" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-647</t>
+        </is>
+      </c>
+      <c r="D178" s="2" t="n">
+        <v>6741</v>
+      </c>
+      <c r="E178" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F178" s="2" t="n">
+        <v>1373</v>
+      </c>
+      <c r="G178" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H178" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I178" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J178" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K178" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="inlineStr">
+        <is>
+          <t>17-FEB-26</t>
+        </is>
+      </c>
+      <c r="B179" s="2" t="inlineStr">
+        <is>
+          <t>SM-469</t>
+        </is>
+      </c>
+      <c r="C179" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-651</t>
+        </is>
+      </c>
+      <c r="D179" s="2" t="n">
+        <v>6640</v>
+      </c>
+      <c r="E179" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F179" s="2" t="n">
+        <v>1272</v>
+      </c>
+      <c r="G179" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H179" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I179" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J179" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K179" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="inlineStr">
+        <is>
+          <t>18-FEB-26</t>
+        </is>
+      </c>
+      <c r="B180" s="2" t="inlineStr">
+        <is>
+          <t>SM-469</t>
+        </is>
+      </c>
+      <c r="C180" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-649</t>
+        </is>
+      </c>
+      <c r="D180" s="2" t="n">
+        <v>6640</v>
+      </c>
+      <c r="E180" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F180" s="2" t="n">
+        <v>1272</v>
+      </c>
+      <c r="G180" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H180" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I180" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J180" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K180" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="inlineStr">
+        <is>
+          <t>18-FEB-26</t>
+        </is>
+      </c>
+      <c r="B181" s="2" t="inlineStr">
+        <is>
+          <t>SM-469</t>
+        </is>
+      </c>
+      <c r="C181" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-268</t>
+        </is>
+      </c>
+      <c r="D181" s="2" t="n">
+        <v>6792</v>
+      </c>
+      <c r="E181" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F181" s="2" t="n">
+        <v>1424</v>
+      </c>
+      <c r="G181" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H181" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I181" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="J181" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K181" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="inlineStr">
+        <is>
+          <t>18-FEB-26</t>
+        </is>
+      </c>
+      <c r="B182" s="2" t="inlineStr">
+        <is>
+          <t>SM-469</t>
+        </is>
+      </c>
+      <c r="C182" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-272</t>
+        </is>
+      </c>
+      <c r="D182" s="2" t="n">
+        <v>6792</v>
+      </c>
+      <c r="E182" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F182" s="2" t="n">
+        <v>1424</v>
+      </c>
+      <c r="G182" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H182" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I182" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="J182" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K182" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="inlineStr">
+        <is>
+          <t>18-FEB-26</t>
+        </is>
+      </c>
+      <c r="B183" s="2" t="inlineStr">
+        <is>
+          <t>SM-469</t>
+        </is>
+      </c>
+      <c r="C183" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-651</t>
+        </is>
+      </c>
+      <c r="D183" s="2" t="n">
+        <v>7157</v>
+      </c>
+      <c r="E183" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F183" s="2" t="n">
+        <v>1789</v>
+      </c>
+      <c r="G183" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H183" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I183" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J183" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K183" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="inlineStr">
+        <is>
+          <t>19-FEB-26</t>
+        </is>
+      </c>
+      <c r="B184" s="2" t="inlineStr">
+        <is>
+          <t>SM-461</t>
+        </is>
+      </c>
+      <c r="C184" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-651</t>
+        </is>
+      </c>
+      <c r="D184" s="2" t="n">
+        <v>6640</v>
+      </c>
+      <c r="E184" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F184" s="2" t="n">
+        <v>1272</v>
+      </c>
+      <c r="G184" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H184" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I184" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J184" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K184" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="inlineStr">
+        <is>
+          <t>19-FEB-26</t>
+        </is>
+      </c>
+      <c r="B185" s="2" t="inlineStr">
+        <is>
+          <t>SM-461</t>
+        </is>
+      </c>
+      <c r="C185" s="2" t="inlineStr">
+        <is>
+          <t>Saudia SV-310</t>
+        </is>
+      </c>
+      <c r="D185" s="2" t="n">
+        <v>6729</v>
+      </c>
+      <c r="E185" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F185" s="2" t="n">
+        <v>1361</v>
+      </c>
+      <c r="G185" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H185" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I185" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J185" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K185" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="inlineStr">
+        <is>
+          <t>19-FEB-26</t>
+        </is>
+      </c>
+      <c r="B186" s="2" t="inlineStr">
+        <is>
+          <t>SM-461</t>
+        </is>
+      </c>
+      <c r="C186" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-647</t>
+        </is>
+      </c>
+      <c r="D186" s="2" t="n">
+        <v>6741</v>
+      </c>
+      <c r="E186" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F186" s="2" t="n">
+        <v>1373</v>
+      </c>
+      <c r="G186" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H186" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I186" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J186" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K186" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="inlineStr">
+        <is>
+          <t>19-FEB-26</t>
+        </is>
+      </c>
+      <c r="B187" s="2" t="inlineStr">
+        <is>
+          <t>SM-461</t>
+        </is>
+      </c>
+      <c r="C187" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-649</t>
+        </is>
+      </c>
+      <c r="D187" s="2" t="n">
+        <v>6741</v>
+      </c>
+      <c r="E187" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F187" s="2" t="n">
+        <v>1373</v>
+      </c>
+      <c r="G187" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H187" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I187" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J187" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K187" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="inlineStr">
+        <is>
+          <t>19-FEB-26</t>
+        </is>
+      </c>
+      <c r="B188" s="2" t="inlineStr">
+        <is>
+          <t>SM-461</t>
+        </is>
+      </c>
+      <c r="C188" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-276</t>
+        </is>
+      </c>
+      <c r="D188" s="2" t="n">
+        <v>6792</v>
+      </c>
+      <c r="E188" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F188" s="2" t="n">
+        <v>1424</v>
+      </c>
+      <c r="G188" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H188" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I188" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="J188" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K188" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="inlineStr">
+        <is>
+          <t>19-FEB-26</t>
+        </is>
+      </c>
+      <c r="B189" s="2" t="inlineStr">
+        <is>
+          <t>SM-461</t>
+        </is>
+      </c>
+      <c r="C189" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-268</t>
+        </is>
+      </c>
+      <c r="D189" s="2" t="n">
+        <v>6792</v>
+      </c>
+      <c r="E189" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F189" s="2" t="n">
+        <v>1424</v>
+      </c>
+      <c r="G189" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H189" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I189" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="J189" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K189" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="inlineStr">
+        <is>
+          <t>19-FEB-26</t>
+        </is>
+      </c>
+      <c r="B190" s="2" t="inlineStr">
+        <is>
+          <t>SM-461</t>
+        </is>
+      </c>
+      <c r="C190" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-264</t>
+        </is>
+      </c>
+      <c r="D190" s="2" t="n">
+        <v>6792</v>
+      </c>
+      <c r="E190" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F190" s="2" t="n">
+        <v>1424</v>
+      </c>
+      <c r="G190" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H190" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I190" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="J190" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K190" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="inlineStr">
+        <is>
+          <t>19-FEB-26</t>
+        </is>
+      </c>
+      <c r="B191" s="2" t="inlineStr">
+        <is>
+          <t>SM-461</t>
+        </is>
+      </c>
+      <c r="C191" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-270</t>
+        </is>
+      </c>
+      <c r="D191" s="2" t="n">
+        <v>6792</v>
+      </c>
+      <c r="E191" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F191" s="2" t="n">
+        <v>1424</v>
+      </c>
+      <c r="G191" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H191" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I191" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="J191" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K191" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="inlineStr">
+        <is>
+          <t>19-FEB-26</t>
+        </is>
+      </c>
+      <c r="B192" s="2" t="inlineStr">
+        <is>
+          <t>SM-461</t>
+        </is>
+      </c>
+      <c r="C192" s="2" t="inlineStr">
+        <is>
+          <t>Saudia SV-320</t>
+        </is>
+      </c>
+      <c r="D192" s="2" t="n">
+        <v>7346</v>
+      </c>
+      <c r="E192" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F192" s="2" t="n">
+        <v>1978</v>
+      </c>
+      <c r="G192" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H192" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I192" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J192" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K192" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="inlineStr">
+        <is>
+          <t>19-FEB-26</t>
+        </is>
+      </c>
+      <c r="B193" s="2" t="inlineStr">
+        <is>
+          <t>SM-461</t>
+        </is>
+      </c>
+      <c r="C193" s="2" t="inlineStr">
+        <is>
+          <t>Saudia SV-312</t>
+        </is>
+      </c>
+      <c r="D193" s="2" t="n">
+        <v>7346</v>
+      </c>
+      <c r="E193" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F193" s="2" t="n">
+        <v>1978</v>
+      </c>
+      <c r="G193" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H193" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I193" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J193" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K193" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="inlineStr">
+        <is>
+          <t>19-FEB-26</t>
+        </is>
+      </c>
+      <c r="B194" s="2" t="inlineStr">
+        <is>
+          <t>SM-461</t>
+        </is>
+      </c>
+      <c r="C194" s="2" t="inlineStr">
+        <is>
+          <t>Saudia SV-418</t>
+        </is>
+      </c>
+      <c r="D194" s="2" t="n">
+        <v>7346</v>
+      </c>
+      <c r="E194" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F194" s="2" t="n">
+        <v>1978</v>
+      </c>
+      <c r="G194" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H194" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I194" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J194" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K194" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="inlineStr">
+        <is>
+          <t>20-FEB-26</t>
+        </is>
+      </c>
+      <c r="B195" s="2" t="inlineStr">
+        <is>
+          <t>SM-469</t>
+        </is>
+      </c>
+      <c r="C195" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-651</t>
+        </is>
+      </c>
+      <c r="D195" s="2" t="n">
+        <v>7157</v>
+      </c>
+      <c r="E195" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F195" s="2" t="n">
+        <v>1789</v>
+      </c>
+      <c r="G195" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H195" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I195" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J195" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K195" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="inlineStr">
+        <is>
+          <t>20-FEB-26</t>
+        </is>
+      </c>
+      <c r="B196" s="2" t="inlineStr">
+        <is>
+          <t>SM-469</t>
+        </is>
+      </c>
+      <c r="C196" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-647</t>
+        </is>
+      </c>
+      <c r="D196" s="2" t="n">
+        <v>7258</v>
+      </c>
+      <c r="E196" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F196" s="2" t="n">
+        <v>1890</v>
+      </c>
+      <c r="G196" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H196" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I196" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J196" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K196" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="inlineStr">
+        <is>
+          <t>20-FEB-26</t>
+        </is>
+      </c>
+      <c r="B197" s="2" t="inlineStr">
+        <is>
+          <t>SM-469</t>
+        </is>
+      </c>
+      <c r="C197" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-649</t>
+        </is>
+      </c>
+      <c r="D197" s="2" t="n">
+        <v>7712</v>
+      </c>
+      <c r="E197" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F197" s="2" t="n">
+        <v>2344</v>
+      </c>
+      <c r="G197" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H197" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I197" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J197" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K197" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="inlineStr">
+        <is>
+          <t>21-FEB-26</t>
+        </is>
+      </c>
+      <c r="B198" s="2" t="inlineStr">
+        <is>
+          <t>SM-461</t>
+        </is>
+      </c>
+      <c r="C198" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-151</t>
+        </is>
+      </c>
+      <c r="D198" s="2" t="n">
+        <v>5595</v>
+      </c>
+      <c r="E198" s="2" t="n">
+        <v>5784</v>
+      </c>
+      <c r="F198" s="2" t="n">
+        <v>-189</v>
+      </c>
+      <c r="G198" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H198" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I198" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K198" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="inlineStr">
+        <is>
+          <t>21-FEB-26</t>
+        </is>
+      </c>
+      <c r="B199" s="2" t="inlineStr">
+        <is>
+          <t>SM-461</t>
+        </is>
+      </c>
+      <c r="C199" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-647</t>
+        </is>
+      </c>
+      <c r="D199" s="2" t="n">
+        <v>7258</v>
+      </c>
+      <c r="E199" s="2" t="n">
+        <v>5784</v>
+      </c>
+      <c r="F199" s="2" t="n">
+        <v>1474</v>
+      </c>
+      <c r="G199" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H199" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I199" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J199" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K199" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="inlineStr">
+        <is>
+          <t>21-FEB-26</t>
+        </is>
+      </c>
+      <c r="B200" s="2" t="inlineStr">
+        <is>
+          <t>SM-461</t>
+        </is>
+      </c>
+      <c r="C200" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-651</t>
+        </is>
+      </c>
+      <c r="D200" s="2" t="n">
+        <v>7258</v>
+      </c>
+      <c r="E200" s="2" t="n">
+        <v>5784</v>
+      </c>
+      <c r="F200" s="2" t="n">
+        <v>1474</v>
+      </c>
+      <c r="G200" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H200" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I200" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J200" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K200" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="inlineStr">
+        <is>
+          <t>21-FEB-26</t>
+        </is>
+      </c>
+      <c r="B201" s="2" t="inlineStr">
+        <is>
+          <t>SM-461</t>
+        </is>
+      </c>
+      <c r="C201" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-649</t>
+        </is>
+      </c>
+      <c r="D201" s="2" t="n">
+        <v>7712</v>
+      </c>
+      <c r="E201" s="2" t="n">
+        <v>5784</v>
+      </c>
+      <c r="F201" s="2" t="n">
+        <v>1928</v>
+      </c>
+      <c r="G201" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H201" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I201" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J201" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K201" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="inlineStr">
+        <is>
+          <t>22-FEB-26</t>
+        </is>
+      </c>
+      <c r="B202" s="2" t="inlineStr">
+        <is>
+          <t>SM-461</t>
+        </is>
+      </c>
+      <c r="C202" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-151</t>
+        </is>
+      </c>
+      <c r="D202" s="2" t="n">
+        <v>5595</v>
+      </c>
+      <c r="E202" s="2" t="n">
+        <v>5784</v>
+      </c>
+      <c r="F202" s="2" t="n">
+        <v>-189</v>
+      </c>
+      <c r="G202" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H202" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I202" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K202" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="inlineStr">
+        <is>
+          <t>22-FEB-26</t>
+        </is>
+      </c>
+      <c r="B203" s="2" t="inlineStr">
+        <is>
+          <t>SM-461</t>
+        </is>
+      </c>
+      <c r="C203" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-651</t>
+        </is>
+      </c>
+      <c r="D203" s="2" t="n">
+        <v>7157</v>
+      </c>
+      <c r="E203" s="2" t="n">
+        <v>5784</v>
+      </c>
+      <c r="F203" s="2" t="n">
+        <v>1373</v>
+      </c>
+      <c r="G203" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H203" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I203" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J203" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K203" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="inlineStr">
+        <is>
+          <t>22-FEB-26</t>
+        </is>
+      </c>
+      <c r="B204" s="2" t="inlineStr">
+        <is>
+          <t>SM-461</t>
+        </is>
+      </c>
+      <c r="C204" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-647</t>
+        </is>
+      </c>
+      <c r="D204" s="2" t="n">
+        <v>7258</v>
+      </c>
+      <c r="E204" s="2" t="n">
+        <v>5784</v>
+      </c>
+      <c r="F204" s="2" t="n">
+        <v>1474</v>
+      </c>
+      <c r="G204" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H204" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I204" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J204" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K204" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="inlineStr">
+        <is>
+          <t>23-FEB-26</t>
+        </is>
+      </c>
+      <c r="B205" s="2" t="inlineStr">
+        <is>
+          <t>SM-469</t>
+        </is>
+      </c>
+      <c r="C205" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-647</t>
+        </is>
+      </c>
+      <c r="D205" s="2" t="n">
+        <v>6741</v>
+      </c>
+      <c r="E205" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F205" s="2" t="n">
+        <v>1373</v>
+      </c>
+      <c r="G205" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H205" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I205" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J205" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K205" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="inlineStr">
+        <is>
+          <t>23-FEB-26</t>
+        </is>
+      </c>
+      <c r="B206" s="2" t="inlineStr">
+        <is>
+          <t>SM-469</t>
+        </is>
+      </c>
+      <c r="C206" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-649</t>
+        </is>
+      </c>
+      <c r="D206" s="2" t="n">
+        <v>7712</v>
+      </c>
+      <c r="E206" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F206" s="2" t="n">
+        <v>2344</v>
+      </c>
+      <c r="G206" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H206" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I206" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J206" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K206" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="inlineStr">
+        <is>
+          <t>23-FEB-26</t>
+        </is>
+      </c>
+      <c r="B207" s="2" t="inlineStr">
+        <is>
+          <t>SM-469</t>
+        </is>
+      </c>
+      <c r="C207" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-651</t>
+        </is>
+      </c>
+      <c r="D207" s="2" t="n">
+        <v>7712</v>
+      </c>
+      <c r="E207" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F207" s="2" t="n">
+        <v>2344</v>
+      </c>
+      <c r="G207" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H207" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I207" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J207" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K207" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="inlineStr">
+        <is>
+          <t>24-FEB-26</t>
+        </is>
+      </c>
+      <c r="B208" s="2" t="inlineStr">
+        <is>
+          <t>SM-469</t>
+        </is>
+      </c>
+      <c r="C208" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-266</t>
+        </is>
+      </c>
+      <c r="D208" s="2" t="n">
+        <v>6288</v>
+      </c>
+      <c r="E208" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F208" s="2" t="n">
+        <v>920</v>
+      </c>
+      <c r="G208" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H208" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I208" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="J208" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K208" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="inlineStr">
+        <is>
+          <t>24-FEB-26</t>
+        </is>
+      </c>
+      <c r="B209" s="2" t="inlineStr">
+        <is>
+          <t>SM-469</t>
+        </is>
+      </c>
+      <c r="C209" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-268</t>
+        </is>
+      </c>
+      <c r="D209" s="2" t="n">
+        <v>6288</v>
+      </c>
+      <c r="E209" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F209" s="2" t="n">
+        <v>920</v>
+      </c>
+      <c r="G209" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H209" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I209" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="J209" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K209" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="inlineStr">
+        <is>
+          <t>24-FEB-26</t>
+        </is>
+      </c>
+      <c r="B210" s="2" t="inlineStr">
+        <is>
+          <t>SM-469</t>
+        </is>
+      </c>
+      <c r="C210" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-272</t>
+        </is>
+      </c>
+      <c r="D210" s="2" t="n">
+        <v>6288</v>
+      </c>
+      <c r="E210" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F210" s="2" t="n">
+        <v>920</v>
+      </c>
+      <c r="G210" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H210" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I210" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="J210" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K210" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="inlineStr">
+        <is>
+          <t>24-FEB-26</t>
+        </is>
+      </c>
+      <c r="B211" s="2" t="inlineStr">
+        <is>
+          <t>SM-469</t>
+        </is>
+      </c>
+      <c r="C211" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-270</t>
+        </is>
+      </c>
+      <c r="D211" s="2" t="n">
+        <v>6288</v>
+      </c>
+      <c r="E211" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F211" s="2" t="n">
+        <v>920</v>
+      </c>
+      <c r="G211" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H211" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I211" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="J211" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K211" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="inlineStr">
+        <is>
+          <t>24-FEB-26</t>
+        </is>
+      </c>
+      <c r="B212" s="2" t="inlineStr">
+        <is>
+          <t>SM-469</t>
+        </is>
+      </c>
+      <c r="C212" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-651</t>
+        </is>
+      </c>
+      <c r="D212" s="2" t="n">
+        <v>6640</v>
+      </c>
+      <c r="E212" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F212" s="2" t="n">
+        <v>1272</v>
+      </c>
+      <c r="G212" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H212" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I212" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J212" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K212" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="inlineStr">
+        <is>
+          <t>24-FEB-26</t>
+        </is>
+      </c>
+      <c r="B213" s="2" t="inlineStr">
+        <is>
+          <t>SM-469</t>
+        </is>
+      </c>
+      <c r="C213" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-276</t>
+        </is>
+      </c>
+      <c r="D213" s="2" t="n">
+        <v>6792</v>
+      </c>
+      <c r="E213" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F213" s="2" t="n">
+        <v>1424</v>
+      </c>
+      <c r="G213" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H213" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I213" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="J213" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K213" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="inlineStr">
+        <is>
+          <t>24-FEB-26</t>
+        </is>
+      </c>
+      <c r="B214" s="2" t="inlineStr">
+        <is>
+          <t>SM-469</t>
+        </is>
+      </c>
+      <c r="C214" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-264</t>
+        </is>
+      </c>
+      <c r="D214" s="2" t="n">
+        <v>6792</v>
+      </c>
+      <c r="E214" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F214" s="2" t="n">
+        <v>1424</v>
+      </c>
+      <c r="G214" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H214" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I214" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="J214" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K214" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="inlineStr">
+        <is>
+          <t>24-FEB-26</t>
+        </is>
+      </c>
+      <c r="B215" s="2" t="inlineStr">
+        <is>
+          <t>SM-469</t>
+        </is>
+      </c>
+      <c r="C215" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-649</t>
+        </is>
+      </c>
+      <c r="D215" s="2" t="n">
+        <v>7157</v>
+      </c>
+      <c r="E215" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F215" s="2" t="n">
+        <v>1789</v>
+      </c>
+      <c r="G215" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H215" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I215" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J215" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K215" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="inlineStr">
+        <is>
+          <t>24-FEB-26</t>
+        </is>
+      </c>
+      <c r="B216" s="2" t="inlineStr">
+        <is>
+          <t>SM-469</t>
+        </is>
+      </c>
+      <c r="C216" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-647</t>
+        </is>
+      </c>
+      <c r="D216" s="2" t="n">
+        <v>7258</v>
+      </c>
+      <c r="E216" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F216" s="2" t="n">
+        <v>1890</v>
+      </c>
+      <c r="G216" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H216" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I216" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J216" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K216" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="inlineStr">
+        <is>
+          <t>25-FEB-26</t>
+        </is>
+      </c>
+      <c r="B217" s="2" t="inlineStr">
+        <is>
+          <t>SM-469</t>
+        </is>
+      </c>
+      <c r="C217" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-647</t>
+        </is>
+      </c>
+      <c r="D217" s="2" t="n">
+        <v>6741</v>
+      </c>
+      <c r="E217" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F217" s="2" t="n">
+        <v>1373</v>
+      </c>
+      <c r="G217" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H217" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I217" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J217" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K217" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="inlineStr">
+        <is>
+          <t>25-FEB-26</t>
+        </is>
+      </c>
+      <c r="B218" s="2" t="inlineStr">
+        <is>
+          <t>SM-469</t>
+        </is>
+      </c>
+      <c r="C218" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-649</t>
+        </is>
+      </c>
+      <c r="D218" s="2" t="n">
+        <v>7157</v>
+      </c>
+      <c r="E218" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F218" s="2" t="n">
+        <v>1789</v>
+      </c>
+      <c r="G218" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H218" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I218" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J218" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K218" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="inlineStr">
+        <is>
+          <t>25-FEB-26</t>
+        </is>
+      </c>
+      <c r="B219" s="2" t="inlineStr">
+        <is>
+          <t>SM-469</t>
+        </is>
+      </c>
+      <c r="C219" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-651</t>
+        </is>
+      </c>
+      <c r="D219" s="2" t="n">
+        <v>7157</v>
+      </c>
+      <c r="E219" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F219" s="2" t="n">
+        <v>1789</v>
+      </c>
+      <c r="G219" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H219" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I219" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J219" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K219" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="inlineStr">
+        <is>
+          <t>26-FEB-26</t>
+        </is>
+      </c>
+      <c r="B220" s="2" t="inlineStr">
+        <is>
+          <t>SM-461</t>
+        </is>
+      </c>
+      <c r="C220" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-647</t>
+        </is>
+      </c>
+      <c r="D220" s="2" t="n">
+        <v>6741</v>
+      </c>
+      <c r="E220" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F220" s="2" t="n">
+        <v>1373</v>
+      </c>
+      <c r="G220" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H220" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I220" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J220" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K220" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="inlineStr">
+        <is>
+          <t>26-FEB-26</t>
+        </is>
+      </c>
+      <c r="B221" s="2" t="inlineStr">
+        <is>
+          <t>SM-461</t>
+        </is>
+      </c>
+      <c r="C221" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-651</t>
+        </is>
+      </c>
+      <c r="D221" s="2" t="n">
+        <v>7157</v>
+      </c>
+      <c r="E221" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F221" s="2" t="n">
+        <v>1789</v>
+      </c>
+      <c r="G221" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H221" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I221" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J221" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K221" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="inlineStr">
+        <is>
+          <t>26-FEB-26</t>
+        </is>
+      </c>
+      <c r="B222" s="2" t="inlineStr">
+        <is>
+          <t>SM-461</t>
+        </is>
+      </c>
+      <c r="C222" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-649</t>
+        </is>
+      </c>
+      <c r="D222" s="2" t="n">
+        <v>7712</v>
+      </c>
+      <c r="E222" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F222" s="2" t="n">
+        <v>2344</v>
+      </c>
+      <c r="G222" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H222" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I222" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J222" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K222" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="inlineStr">
+        <is>
+          <t>27-FEB-26</t>
+        </is>
+      </c>
+      <c r="B223" s="2" t="inlineStr">
+        <is>
+          <t>SM-461</t>
+        </is>
+      </c>
+      <c r="C223" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-651</t>
+        </is>
+      </c>
+      <c r="D223" s="2" t="n">
+        <v>7157</v>
+      </c>
+      <c r="E223" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F223" s="2" t="n">
+        <v>1789</v>
+      </c>
+      <c r="G223" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H223" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I223" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J223" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K223" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="inlineStr">
+        <is>
+          <t>27-FEB-26</t>
+        </is>
+      </c>
+      <c r="B224" s="2" t="inlineStr">
+        <is>
+          <t>SM-461</t>
+        </is>
+      </c>
+      <c r="C224" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-647</t>
+        </is>
+      </c>
+      <c r="D224" s="2" t="n">
+        <v>7258</v>
+      </c>
+      <c r="E224" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F224" s="2" t="n">
+        <v>1890</v>
+      </c>
+      <c r="G224" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H224" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I224" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J224" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K224" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="inlineStr">
+        <is>
+          <t>27-FEB-26</t>
+        </is>
+      </c>
+      <c r="B225" s="2" t="inlineStr">
+        <is>
+          <t>SM-469</t>
+        </is>
+      </c>
+      <c r="C225" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-268</t>
+        </is>
+      </c>
+      <c r="D225" s="2" t="n">
+        <v>3893</v>
+      </c>
+      <c r="E225" s="2" t="n">
+        <v>5784</v>
+      </c>
+      <c r="F225" s="2" t="n">
+        <v>-1891</v>
+      </c>
+      <c r="G225" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="H225" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I225" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="J225" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K225" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="inlineStr">
+        <is>
+          <t>27-FEB-26</t>
+        </is>
+      </c>
+      <c r="B226" s="2" t="inlineStr">
+        <is>
+          <t>SM-469</t>
+        </is>
+      </c>
+      <c r="C226" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-272</t>
+        </is>
+      </c>
+      <c r="D226" s="2" t="n">
+        <v>3893</v>
+      </c>
+      <c r="E226" s="2" t="n">
+        <v>5784</v>
+      </c>
+      <c r="F226" s="2" t="n">
+        <v>-1891</v>
+      </c>
+      <c r="G226" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="H226" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I226" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="J226" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K226" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="inlineStr">
+        <is>
+          <t>27-FEB-26</t>
+        </is>
+      </c>
+      <c r="B227" s="2" t="inlineStr">
+        <is>
+          <t>SM-469</t>
+        </is>
+      </c>
+      <c r="C227" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-151</t>
+        </is>
+      </c>
+      <c r="D227" s="2" t="n">
+        <v>5595</v>
+      </c>
+      <c r="E227" s="2" t="n">
+        <v>5784</v>
+      </c>
+      <c r="F227" s="2" t="n">
+        <v>-189</v>
+      </c>
+      <c r="G227" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H227" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I227" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K227" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="inlineStr">
+        <is>
+          <t>27-FEB-26</t>
+        </is>
+      </c>
+      <c r="B228" s="2" t="inlineStr">
+        <is>
+          <t>SM-469</t>
+        </is>
+      </c>
+      <c r="C228" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-651</t>
+        </is>
+      </c>
+      <c r="D228" s="2" t="n">
+        <v>7157</v>
+      </c>
+      <c r="E228" s="2" t="n">
+        <v>5784</v>
+      </c>
+      <c r="F228" s="2" t="n">
+        <v>1373</v>
+      </c>
+      <c r="G228" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H228" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I228" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J228" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K228" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="inlineStr">
+        <is>
+          <t>27-FEB-26</t>
+        </is>
+      </c>
+      <c r="B229" s="2" t="inlineStr">
+        <is>
+          <t>SM-469</t>
+        </is>
+      </c>
+      <c r="C229" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-647</t>
+        </is>
+      </c>
+      <c r="D229" s="2" t="n">
+        <v>7258</v>
+      </c>
+      <c r="E229" s="2" t="n">
+        <v>5784</v>
+      </c>
+      <c r="F229" s="2" t="n">
+        <v>1474</v>
+      </c>
+      <c r="G229" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H229" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I229" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J229" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K229" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="inlineStr">
+        <is>
+          <t>28-FEB-26</t>
+        </is>
+      </c>
+      <c r="B230" s="2" t="inlineStr">
+        <is>
+          <t>SM-461</t>
+        </is>
+      </c>
+      <c r="C230" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-651</t>
+        </is>
+      </c>
+      <c r="D230" s="2" t="n">
+        <v>7258</v>
+      </c>
+      <c r="E230" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F230" s="2" t="n">
+        <v>1890</v>
+      </c>
+      <c r="G230" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H230" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I230" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J230" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K230" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="inlineStr">
+        <is>
+          <t>28-FEB-26</t>
+        </is>
+      </c>
+      <c r="B231" s="2" t="inlineStr">
+        <is>
+          <t>SM-461</t>
+        </is>
+      </c>
+      <c r="C231" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-649</t>
+        </is>
+      </c>
+      <c r="D231" s="2" t="n">
+        <v>7712</v>
+      </c>
+      <c r="E231" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="F231" s="2" t="n">
+        <v>2344</v>
+      </c>
+      <c r="G231" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H231" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I231" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J231" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K231" s="2" t="inlineStr">
         <is>
           <t>EGP</t>
         </is>

--- a/excel_routes/route_CAI_RUH_threats.xlsx
+++ b/excel_routes/route_CAI_RUH_threats.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODERED\LAB\Artifacts\outputs\run_generated_030226_at_07.14\reports\excel_routes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODERED\LAB\Artifacts\outputs\run_generated_300126_at_05.16\reports\excel_routes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F772BE9-8746-45E3-A171-141C5CF985D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F97952D3-6191-412F-B0C7-DB88133F8F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="85">
   <si>
     <t>Date</t>
   </si>
@@ -60,163 +60,226 @@
     <t>Currency</t>
   </si>
   <si>
+    <t>31-JAN-26</t>
+  </si>
+  <si>
+    <t>SM-461</t>
+  </si>
+  <si>
+    <t>Air Arabia Egypt E5-410</t>
+  </si>
+  <si>
+    <t>LOW THREAT</t>
+  </si>
+  <si>
+    <t>EGP</t>
+  </si>
+  <si>
+    <t>Nesma Airlines NE-160</t>
+  </si>
+  <si>
+    <t>01-FEB-26</t>
+  </si>
+  <si>
+    <t>Nile Air NP-151</t>
+  </si>
+  <si>
+    <t>Nesma Airlines NE-162</t>
+  </si>
+  <si>
+    <t>flynas XY-270</t>
+  </si>
+  <si>
+    <t>02-FEB-26</t>
+  </si>
+  <si>
+    <t>SM-469</t>
+  </si>
+  <si>
     <t>03-FEB-26</t>
   </si>
   <si>
-    <t>SM-469</t>
+    <t>EgyptAir MS-649</t>
+  </si>
+  <si>
+    <t>04-FEB-26</t>
+  </si>
+  <si>
+    <t>Air Arabia Egypt E5-415</t>
+  </si>
+  <si>
+    <t>Nile Air NP-251</t>
+  </si>
+  <si>
+    <t>05-FEB-26</t>
+  </si>
+  <si>
+    <t>06-FEB-26</t>
+  </si>
+  <si>
+    <t>EgyptAir MS-647</t>
+  </si>
+  <si>
+    <t>EgyptAir MS-651</t>
+  </si>
+  <si>
+    <t>07-FEB-26</t>
+  </si>
+  <si>
+    <t>08-FEB-26</t>
+  </si>
+  <si>
+    <t>09-FEB-26</t>
+  </si>
+  <si>
+    <t>10-FEB-26</t>
+  </si>
+  <si>
+    <t>11-FEB-26</t>
+  </si>
+  <si>
+    <t>flynas XY-272</t>
+  </si>
+  <si>
+    <t>flynas XY-274</t>
+  </si>
+  <si>
+    <t>13-FEB-26</t>
+  </si>
+  <si>
+    <t>14-FEB-26</t>
+  </si>
+  <si>
+    <t>15-FEB-26</t>
+  </si>
+  <si>
+    <t>16-FEB-26</t>
+  </si>
+  <si>
+    <t>flynas XY-268</t>
+  </si>
+  <si>
+    <t>flynas XY-266</t>
+  </si>
+  <si>
+    <t>flynas XY-288</t>
+  </si>
+  <si>
+    <t>flynas XY-276</t>
+  </si>
+  <si>
+    <t>18-FEB-26</t>
+  </si>
+  <si>
+    <t>20-FEB-26</t>
+  </si>
+  <si>
+    <t>22-FEB-26</t>
+  </si>
+  <si>
+    <t>23-FEB-26</t>
+  </si>
+  <si>
+    <t>24-FEB-26</t>
+  </si>
+  <si>
+    <t>25-FEB-26</t>
+  </si>
+  <si>
+    <t>27-FEB-26</t>
+  </si>
+  <si>
+    <t>flynas XY-264</t>
+  </si>
+  <si>
+    <t>03-MAR-26</t>
+  </si>
+  <si>
+    <t>04-MAR-26</t>
+  </si>
+  <si>
+    <t>08-MAR-26</t>
+  </si>
+  <si>
+    <t>10-MAR-26</t>
+  </si>
+  <si>
+    <t>21-MAR-26</t>
+  </si>
+  <si>
+    <t>22-MAR-26</t>
   </si>
   <si>
     <t>Saudia SV-320</t>
   </si>
   <si>
-    <t>LOW THREAT</t>
-  </si>
-  <si>
-    <t>EGP</t>
-  </si>
-  <si>
-    <t>04-FEB-26</t>
-  </si>
-  <si>
-    <t>SM-461</t>
+    <t>23-MAR-26</t>
+  </si>
+  <si>
+    <t>Saudia SV-310</t>
+  </si>
+  <si>
+    <t>MEDIUM THREAT - MONITOR</t>
+  </si>
+  <si>
+    <t>26-MAR-26</t>
+  </si>
+  <si>
+    <t>27-MAR-26</t>
   </si>
   <si>
     <t>Saudia SV-312</t>
   </si>
   <si>
-    <t>flyadeal F3-612</t>
+    <t>Saudia SV-3450</t>
+  </si>
+  <si>
+    <t>HIGH THREAT ALERT - NEED ACTION</t>
+  </si>
+  <si>
+    <t>flyadeal F3-606</t>
+  </si>
+  <si>
+    <t>28-MAR-26</t>
+  </si>
+  <si>
+    <t>17-APR-26</t>
+  </si>
+  <si>
+    <t>25-APR-26</t>
+  </si>
+  <si>
+    <t>08-MAY-26</t>
+  </si>
+  <si>
+    <t>09-MAY-26</t>
+  </si>
+  <si>
+    <t>15-MAY-26</t>
   </si>
   <si>
     <t>flyadeal F3-608</t>
   </si>
   <si>
-    <t>flyadeal F3-606</t>
-  </si>
-  <si>
-    <t>flyadeal F3-616</t>
-  </si>
-  <si>
-    <t>flynas XY-266</t>
-  </si>
-  <si>
-    <t>flynas XY-276</t>
-  </si>
-  <si>
-    <t>flynas XY-268</t>
-  </si>
-  <si>
-    <t>flynas XY-272</t>
-  </si>
-  <si>
-    <t>flynas XY-274</t>
-  </si>
-  <si>
-    <t>flynas XY-270</t>
-  </si>
-  <si>
-    <t>Nile Air NP-251</t>
-  </si>
-  <si>
-    <t>Air Arabia Egypt E5-415</t>
-  </si>
-  <si>
-    <t>Saudia SV-418</t>
-  </si>
-  <si>
-    <t>05-FEB-26</t>
-  </si>
-  <si>
-    <t>Air Arabia Egypt E5-410</t>
-  </si>
-  <si>
-    <t>Saudia SV-310</t>
-  </si>
-  <si>
-    <t>06-FEB-26</t>
-  </si>
-  <si>
-    <t>Nesma Airlines NE-160</t>
-  </si>
-  <si>
-    <t>Nile Air NP-151</t>
-  </si>
-  <si>
-    <t>07-FEB-26</t>
-  </si>
-  <si>
-    <t>08-FEB-26</t>
-  </si>
-  <si>
-    <t>Nesma Airlines NE-162</t>
-  </si>
-  <si>
-    <t>09-FEB-26</t>
-  </si>
-  <si>
-    <t>10-FEB-26</t>
-  </si>
-  <si>
-    <t>EgyptAir MS-649</t>
-  </si>
-  <si>
-    <t>EgyptAir MS-651</t>
-  </si>
-  <si>
-    <t>11-FEB-26</t>
-  </si>
-  <si>
-    <t>EgyptAir MS-647</t>
-  </si>
-  <si>
-    <t>12-FEB-26</t>
-  </si>
-  <si>
-    <t>Nesma Airlines NE-164</t>
-  </si>
-  <si>
-    <t>flynas XY-264</t>
-  </si>
-  <si>
-    <t>13-FEB-26</t>
-  </si>
-  <si>
-    <t>14-FEB-26</t>
-  </si>
-  <si>
-    <t>15-FEB-26</t>
-  </si>
-  <si>
-    <t>16-FEB-26</t>
-  </si>
-  <si>
-    <t>20-FEB-26</t>
-  </si>
-  <si>
-    <t>21-FEB-26</t>
-  </si>
-  <si>
-    <t>22-FEB-26</t>
-  </si>
-  <si>
-    <t>23-FEB-26</t>
-  </si>
-  <si>
-    <t>24-FEB-26</t>
-  </si>
-  <si>
-    <t>25-FEB-26</t>
-  </si>
-  <si>
-    <t>27-FEB-26</t>
-  </si>
-  <si>
-    <t>01-MAR-26</t>
-  </si>
-  <si>
-    <t>03-MAR-26</t>
-  </si>
-  <si>
-    <t>04-MAR-26</t>
+    <t>flyadeal F3-614</t>
+  </si>
+  <si>
+    <t>EgyptAir MS-689</t>
+  </si>
+  <si>
+    <t>Nile Air NP-253</t>
+  </si>
+  <si>
+    <t>16-MAY-26</t>
+  </si>
+  <si>
+    <t>22-MAY-26</t>
+  </si>
+  <si>
+    <t>23-MAY-26</t>
+  </si>
+  <si>
+    <t>30-MAY-26</t>
   </si>
 </sst>
 </file>
@@ -243,7 +306,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -260,6 +323,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD4EDDA"/>
         <bgColor rgb="FFD4EDDA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF3CD"/>
+        <bgColor rgb="FFFFF3CD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8D7DA"/>
+        <bgColor rgb="FFF8D7DA"/>
       </patternFill>
     </fill>
   </fills>
@@ -290,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -299,6 +374,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -604,7 +685,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K97"/>
+  <dimension ref="A1:K175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -618,7 +699,7 @@
     <col min="7" max="7" width="153.44140625" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="10" max="10" width="30" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
   </cols>
   <sheetData>
@@ -668,22 +749,22 @@
         <v>13</v>
       </c>
       <c r="D2" s="2">
-        <v>5368</v>
+        <v>11847</v>
       </c>
       <c r="E2" s="2">
-        <v>7606</v>
+        <v>13496</v>
       </c>
       <c r="F2" s="2">
-        <v>-2238</v>
+        <v>-1649</v>
       </c>
       <c r="G2" s="2">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H2" s="2">
         <v>30</v>
       </c>
       <c r="I2" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>14</v>
@@ -694,31 +775,31 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="D3" s="2">
-        <v>5368</v>
+        <v>12192</v>
       </c>
       <c r="E3" s="2">
-        <v>8436</v>
+        <v>13496</v>
       </c>
       <c r="F3" s="2">
-        <v>-3068</v>
+        <v>-1304</v>
       </c>
       <c r="G3" s="2">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H3" s="2">
         <v>30</v>
       </c>
       <c r="I3" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>14</v>
@@ -729,31 +810,31 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2">
-        <v>5368</v>
+        <v>8846</v>
       </c>
       <c r="E4" s="2">
-        <v>8436</v>
+        <v>10687</v>
       </c>
       <c r="F4" s="2">
-        <v>-3068</v>
+        <v>-1841</v>
       </c>
       <c r="G4" s="2">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H4" s="2">
         <v>30</v>
       </c>
       <c r="I4" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>14</v>
@@ -764,31 +845,31 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2">
-        <v>6147</v>
+        <v>9043</v>
       </c>
       <c r="E5" s="2">
-        <v>8436</v>
+        <v>10687</v>
       </c>
       <c r="F5" s="2">
-        <v>-2289</v>
+        <v>-1644</v>
       </c>
       <c r="G5" s="2">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H5" s="2">
         <v>30</v>
       </c>
       <c r="I5" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>14</v>
@@ -799,31 +880,31 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2">
-        <v>6147</v>
+        <v>9232</v>
       </c>
       <c r="E6" s="2">
-        <v>8436</v>
+        <v>10687</v>
       </c>
       <c r="F6" s="2">
-        <v>-2289</v>
+        <v>-1455</v>
       </c>
       <c r="G6" s="2">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H6" s="2">
         <v>30</v>
       </c>
       <c r="I6" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>14</v>
@@ -834,31 +915,31 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2">
-        <v>6147</v>
+        <v>11778</v>
       </c>
       <c r="E7" s="2">
-        <v>8436</v>
+        <v>10687</v>
       </c>
       <c r="F7" s="2">
-        <v>-2289</v>
+        <v>1091</v>
       </c>
       <c r="G7" s="2">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H7" s="2">
         <v>30</v>
       </c>
       <c r="I7" s="2">
-        <v>15</v>
+        <v>-10</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>14</v>
@@ -869,31 +950,31 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="D8" s="2">
-        <v>6147</v>
+        <v>7927</v>
       </c>
       <c r="E8" s="2">
-        <v>8436</v>
+        <v>8441</v>
       </c>
       <c r="F8" s="2">
-        <v>-2289</v>
+        <v>-514</v>
       </c>
       <c r="G8" s="2">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H8" s="2">
         <v>30</v>
       </c>
       <c r="I8" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>14</v>
@@ -904,31 +985,31 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D9" s="2">
-        <v>6399</v>
+        <v>8213</v>
       </c>
       <c r="E9" s="2">
-        <v>8436</v>
+        <v>8441</v>
       </c>
       <c r="F9" s="2">
-        <v>-2037</v>
+        <v>-228</v>
       </c>
       <c r="G9" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H9" s="2">
         <v>30</v>
       </c>
       <c r="I9" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>14</v>
@@ -939,31 +1020,31 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D10" s="2">
-        <v>6399</v>
+        <v>7237</v>
       </c>
       <c r="E10" s="2">
-        <v>8436</v>
+        <v>8441</v>
       </c>
       <c r="F10" s="2">
-        <v>-2037</v>
+        <v>-1204</v>
       </c>
       <c r="G10" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H10" s="2">
         <v>30</v>
       </c>
       <c r="I10" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>14</v>
@@ -974,31 +1055,31 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="D11" s="2">
-        <v>6399</v>
+        <v>7475</v>
       </c>
       <c r="E11" s="2">
-        <v>8436</v>
+        <v>8441</v>
       </c>
       <c r="F11" s="2">
-        <v>-2037</v>
+        <v>-966</v>
       </c>
       <c r="G11" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H11" s="2">
         <v>30</v>
       </c>
       <c r="I11" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>14</v>
@@ -1009,31 +1090,31 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D12" s="2">
-        <v>6399</v>
+        <v>9959</v>
       </c>
       <c r="E12" s="2">
-        <v>8436</v>
+        <v>8441</v>
       </c>
       <c r="F12" s="2">
-        <v>-2037</v>
+        <v>1518</v>
       </c>
       <c r="G12" s="2">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H12" s="2">
         <v>30</v>
       </c>
       <c r="I12" s="2">
-        <v>10</v>
+        <v>-16</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>14</v>
@@ -1044,31 +1125,31 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" s="2">
-        <v>6399</v>
+        <v>6619</v>
       </c>
       <c r="E13" s="2">
-        <v>8436</v>
+        <v>6898</v>
       </c>
       <c r="F13" s="2">
-        <v>-2037</v>
+        <v>-279</v>
       </c>
       <c r="G13" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H13" s="2">
         <v>30</v>
       </c>
       <c r="I13" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>14</v>
@@ -1079,31 +1160,31 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D14" s="2">
-        <v>6399</v>
+        <v>6635</v>
       </c>
       <c r="E14" s="2">
-        <v>8436</v>
+        <v>6898</v>
       </c>
       <c r="F14" s="2">
-        <v>-2037</v>
+        <v>-263</v>
       </c>
       <c r="G14" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H14" s="2">
         <v>30</v>
       </c>
       <c r="I14" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>14</v>
@@ -1114,22 +1195,22 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D15" s="2">
-        <v>6625</v>
+        <v>6635</v>
       </c>
       <c r="E15" s="2">
-        <v>8436</v>
+        <v>6898</v>
       </c>
       <c r="F15" s="2">
-        <v>-1811</v>
+        <v>-263</v>
       </c>
       <c r="G15" s="2">
         <v>30</v>
@@ -1149,31 +1230,31 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D16" s="2">
-        <v>8165</v>
+        <v>9219</v>
       </c>
       <c r="E16" s="2">
-        <v>8436</v>
+        <v>6898</v>
       </c>
       <c r="F16" s="2">
-        <v>-271</v>
+        <v>2321</v>
       </c>
       <c r="G16" s="2">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H16" s="2">
         <v>30</v>
       </c>
       <c r="I16" s="2">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>14</v>
@@ -1184,31 +1265,31 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="D17" s="2">
-        <v>8524</v>
+        <v>5594</v>
       </c>
       <c r="E17" s="2">
-        <v>8436</v>
+        <v>6334</v>
       </c>
       <c r="F17" s="2">
-        <v>88</v>
+        <v>-740</v>
       </c>
       <c r="G17" s="2">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H17" s="2">
         <v>30</v>
       </c>
       <c r="I17" s="2">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>14</v>
@@ -1219,31 +1300,31 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D18" s="2">
-        <v>5368</v>
+        <v>5983</v>
       </c>
       <c r="E18" s="2">
-        <v>7606</v>
+        <v>6334</v>
       </c>
       <c r="F18" s="2">
-        <v>-2238</v>
+        <v>-351</v>
       </c>
       <c r="G18" s="2">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H18" s="2">
         <v>30</v>
       </c>
       <c r="I18" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>14</v>
@@ -1254,31 +1335,31 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D19" s="2">
-        <v>5368</v>
+        <v>8491</v>
       </c>
       <c r="E19" s="2">
-        <v>7606</v>
+        <v>6334</v>
       </c>
       <c r="F19" s="2">
-        <v>-2238</v>
+        <v>2157</v>
       </c>
       <c r="G19" s="2">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H19" s="2">
         <v>30</v>
       </c>
       <c r="I19" s="2">
-        <v>7</v>
+        <v>-16</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>14</v>
@@ -1289,22 +1370,22 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="D20" s="2">
-        <v>6625</v>
+        <v>5594</v>
       </c>
       <c r="E20" s="2">
-        <v>7606</v>
+        <v>6334</v>
       </c>
       <c r="F20" s="2">
-        <v>-981</v>
+        <v>-740</v>
       </c>
       <c r="G20" s="2">
         <v>30</v>
@@ -1324,31 +1405,31 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D21" s="2">
-        <v>8524</v>
+        <v>5983</v>
       </c>
       <c r="E21" s="2">
-        <v>7606</v>
+        <v>6334</v>
       </c>
       <c r="F21" s="2">
-        <v>918</v>
+        <v>-351</v>
       </c>
       <c r="G21" s="2">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H21" s="2">
         <v>30</v>
       </c>
       <c r="I21" s="2">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>14</v>
@@ -1359,22 +1440,22 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D22" s="2">
-        <v>7507</v>
+        <v>6220</v>
       </c>
       <c r="E22" s="2">
-        <v>7606</v>
+        <v>6334</v>
       </c>
       <c r="F22" s="2">
-        <v>-99</v>
+        <v>-114</v>
       </c>
       <c r="G22" s="2">
         <v>30</v>
@@ -1394,22 +1475,22 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D23" s="2">
-        <v>9177</v>
+        <v>8178</v>
       </c>
       <c r="E23" s="2">
-        <v>7606</v>
+        <v>6334</v>
       </c>
       <c r="F23" s="2">
-        <v>1571</v>
+        <v>1844</v>
       </c>
       <c r="G23" s="2">
         <v>46</v>
@@ -1429,22 +1510,22 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D24" s="2">
-        <v>9894</v>
+        <v>8491</v>
       </c>
       <c r="E24" s="2">
-        <v>7606</v>
+        <v>6334</v>
       </c>
       <c r="F24" s="2">
-        <v>2288</v>
+        <v>2157</v>
       </c>
       <c r="G24" s="2">
         <v>46</v>
@@ -1464,22 +1545,22 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D25" s="2">
-        <v>9894</v>
+        <v>8592</v>
       </c>
       <c r="E25" s="2">
-        <v>7606</v>
+        <v>6334</v>
       </c>
       <c r="F25" s="2">
-        <v>2288</v>
+        <v>2258</v>
       </c>
       <c r="G25" s="2">
         <v>46</v>
@@ -1499,22 +1580,22 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D26" s="2">
-        <v>6814</v>
+        <v>5594</v>
       </c>
       <c r="E26" s="2">
-        <v>7606</v>
+        <v>6334</v>
       </c>
       <c r="F26" s="2">
-        <v>-792</v>
+        <v>-740</v>
       </c>
       <c r="G26" s="2">
         <v>30</v>
@@ -1534,22 +1615,22 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D27" s="2">
-        <v>7084</v>
+        <v>5983</v>
       </c>
       <c r="E27" s="2">
-        <v>7606</v>
+        <v>6334</v>
       </c>
       <c r="F27" s="2">
-        <v>-522</v>
+        <v>-351</v>
       </c>
       <c r="G27" s="2">
         <v>30</v>
@@ -1569,31 +1650,31 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D28" s="2">
-        <v>7254</v>
+        <v>8027</v>
       </c>
       <c r="E28" s="2">
-        <v>7606</v>
+        <v>6334</v>
       </c>
       <c r="F28" s="2">
-        <v>-352</v>
+        <v>1693</v>
       </c>
       <c r="G28" s="2">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H28" s="2">
         <v>30</v>
       </c>
       <c r="I28" s="2">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>14</v>
@@ -1604,31 +1685,31 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D29" s="2">
-        <v>6789</v>
+        <v>8592</v>
       </c>
       <c r="E29" s="2">
-        <v>8436</v>
+        <v>6334</v>
       </c>
       <c r="F29" s="2">
-        <v>-1647</v>
+        <v>2258</v>
       </c>
       <c r="G29" s="2">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H29" s="2">
         <v>30</v>
       </c>
       <c r="I29" s="2">
-        <v>7</v>
+        <v>-16</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>14</v>
@@ -1639,22 +1720,22 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="D30" s="2">
-        <v>6814</v>
+        <v>5283</v>
       </c>
       <c r="E30" s="2">
-        <v>8436</v>
+        <v>5356</v>
       </c>
       <c r="F30" s="2">
-        <v>-1622</v>
+        <v>-73</v>
       </c>
       <c r="G30" s="2">
         <v>30</v>
@@ -1674,31 +1755,31 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D31" s="2">
-        <v>7084</v>
+        <v>7363</v>
       </c>
       <c r="E31" s="2">
-        <v>8436</v>
+        <v>5356</v>
       </c>
       <c r="F31" s="2">
-        <v>-1352</v>
+        <v>2007</v>
       </c>
       <c r="G31" s="2">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H31" s="2">
         <v>30</v>
       </c>
       <c r="I31" s="2">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J31" s="3" t="s">
         <v>14</v>
@@ -1709,31 +1790,31 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D32" s="2">
-        <v>7254</v>
+        <v>7363</v>
       </c>
       <c r="E32" s="2">
-        <v>8436</v>
+        <v>5356</v>
       </c>
       <c r="F32" s="2">
-        <v>-1182</v>
+        <v>2007</v>
       </c>
       <c r="G32" s="2">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H32" s="2">
         <v>30</v>
       </c>
       <c r="I32" s="2">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>14</v>
@@ -1744,22 +1825,22 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D33" s="2">
-        <v>6709</v>
+        <v>4978</v>
       </c>
       <c r="E33" s="2">
-        <v>7606</v>
+        <v>5356</v>
       </c>
       <c r="F33" s="2">
-        <v>-897</v>
+        <v>-378</v>
       </c>
       <c r="G33" s="2">
         <v>30</v>
@@ -1779,31 +1860,31 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D34" s="2">
-        <v>6814</v>
+        <v>6848</v>
       </c>
       <c r="E34" s="2">
-        <v>7606</v>
+        <v>5356</v>
       </c>
       <c r="F34" s="2">
-        <v>-792</v>
+        <v>1492</v>
       </c>
       <c r="G34" s="2">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H34" s="2">
         <v>30</v>
       </c>
       <c r="I34" s="2">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J34" s="3" t="s">
         <v>14</v>
@@ -1814,22 +1895,22 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D35" s="2">
-        <v>7254</v>
+        <v>4743</v>
       </c>
       <c r="E35" s="2">
-        <v>7606</v>
+        <v>5004</v>
       </c>
       <c r="F35" s="2">
-        <v>-352</v>
+        <v>-261</v>
       </c>
       <c r="G35" s="2">
         <v>30</v>
@@ -1849,31 +1930,31 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D36" s="2">
-        <v>5582</v>
+        <v>6848</v>
       </c>
       <c r="E36" s="2">
-        <v>6336</v>
+        <v>5004</v>
       </c>
       <c r="F36" s="2">
-        <v>-754</v>
+        <v>1844</v>
       </c>
       <c r="G36" s="2">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H36" s="2">
         <v>30</v>
       </c>
       <c r="I36" s="2">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J36" s="3" t="s">
         <v>14</v>
@@ -1884,31 +1965,31 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D37" s="2">
-        <v>5910</v>
+        <v>6949</v>
       </c>
       <c r="E37" s="2">
-        <v>6336</v>
+        <v>5004</v>
       </c>
       <c r="F37" s="2">
-        <v>-426</v>
+        <v>1945</v>
       </c>
       <c r="G37" s="2">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H37" s="2">
         <v>30</v>
       </c>
       <c r="I37" s="2">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J37" s="3" t="s">
         <v>14</v>
@@ -1919,22 +2000,22 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D38" s="2">
-        <v>5997</v>
+        <v>4743</v>
       </c>
       <c r="E38" s="2">
-        <v>6336</v>
+        <v>5004</v>
       </c>
       <c r="F38" s="2">
-        <v>-339</v>
+        <v>-261</v>
       </c>
       <c r="G38" s="2">
         <v>30</v>
@@ -1954,22 +2035,22 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D39" s="2">
-        <v>5228</v>
+        <v>4743</v>
       </c>
       <c r="E39" s="2">
-        <v>5783</v>
+        <v>5356</v>
       </c>
       <c r="F39" s="2">
-        <v>-555</v>
+        <v>-613</v>
       </c>
       <c r="G39" s="2">
         <v>30</v>
@@ -1989,31 +2070,31 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D40" s="2">
-        <v>5582</v>
+        <v>6760</v>
       </c>
       <c r="E40" s="2">
-        <v>5783</v>
+        <v>5356</v>
       </c>
       <c r="F40" s="2">
-        <v>-201</v>
+        <v>1404</v>
       </c>
       <c r="G40" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H40" s="2">
         <v>30</v>
       </c>
       <c r="I40" s="2">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J40" s="3" t="s">
         <v>14</v>
@@ -2024,31 +2105,31 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D41" s="2">
-        <v>4994</v>
+        <v>6760</v>
       </c>
       <c r="E41" s="2">
-        <v>5783</v>
+        <v>5356</v>
       </c>
       <c r="F41" s="2">
-        <v>-789</v>
+        <v>1404</v>
       </c>
       <c r="G41" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H41" s="2">
         <v>30</v>
       </c>
       <c r="I41" s="2">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>14</v>
@@ -2059,22 +2140,22 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D42" s="2">
-        <v>5582</v>
+        <v>4854</v>
       </c>
       <c r="E42" s="2">
-        <v>5783</v>
+        <v>5356</v>
       </c>
       <c r="F42" s="2">
-        <v>-201</v>
+        <v>-502</v>
       </c>
       <c r="G42" s="2">
         <v>30</v>
@@ -2094,31 +2175,31 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D43" s="2">
-        <v>5698</v>
+        <v>6760</v>
       </c>
       <c r="E43" s="2">
-        <v>5783</v>
+        <v>5356</v>
       </c>
       <c r="F43" s="2">
-        <v>-85</v>
+        <v>1404</v>
       </c>
       <c r="G43" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H43" s="2">
         <v>30</v>
       </c>
       <c r="I43" s="2">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>14</v>
@@ -2129,31 +2210,31 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="D44" s="2">
-        <v>6851</v>
+        <v>4580</v>
       </c>
       <c r="E44" s="2">
-        <v>5783</v>
+        <v>5004</v>
       </c>
       <c r="F44" s="2">
-        <v>1068</v>
+        <v>-424</v>
       </c>
       <c r="G44" s="2">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H44" s="2">
         <v>30</v>
       </c>
       <c r="I44" s="2">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>14</v>
@@ -2164,31 +2245,31 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="D45" s="2">
-        <v>7367</v>
+        <v>4345</v>
       </c>
       <c r="E45" s="2">
-        <v>5783</v>
+        <v>4653</v>
       </c>
       <c r="F45" s="2">
-        <v>1584</v>
+        <v>-308</v>
       </c>
       <c r="G45" s="2">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H45" s="2">
         <v>30</v>
       </c>
       <c r="I45" s="2">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>14</v>
@@ -2199,22 +2280,22 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D46" s="2">
-        <v>4994</v>
+        <v>4345</v>
       </c>
       <c r="E46" s="2">
-        <v>5355</v>
+        <v>4653</v>
       </c>
       <c r="F46" s="2">
-        <v>-361</v>
+        <v>-308</v>
       </c>
       <c r="G46" s="2">
         <v>30</v>
@@ -2234,31 +2315,31 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="D47" s="2">
-        <v>7367</v>
+        <v>5212</v>
       </c>
       <c r="E47" s="2">
-        <v>5355</v>
+        <v>5356</v>
       </c>
       <c r="F47" s="2">
-        <v>2012</v>
+        <v>-144</v>
       </c>
       <c r="G47" s="2">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H47" s="2">
         <v>30</v>
       </c>
       <c r="I47" s="2">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>14</v>
@@ -2269,31 +2350,31 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D48" s="2">
-        <v>7467</v>
+        <v>6259</v>
       </c>
       <c r="E48" s="2">
-        <v>5355</v>
+        <v>5356</v>
       </c>
       <c r="F48" s="2">
-        <v>2112</v>
+        <v>903</v>
       </c>
       <c r="G48" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H48" s="2">
         <v>30</v>
       </c>
       <c r="I48" s="2">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>14</v>
@@ -2304,31 +2385,31 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D49" s="2">
-        <v>4551</v>
+        <v>6760</v>
       </c>
       <c r="E49" s="2">
-        <v>5355</v>
+        <v>5356</v>
       </c>
       <c r="F49" s="2">
-        <v>-804</v>
+        <v>1404</v>
       </c>
       <c r="G49" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H49" s="2">
         <v>30</v>
       </c>
       <c r="I49" s="2">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>14</v>
@@ -2339,31 +2420,31 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D50" s="2">
-        <v>5228</v>
+        <v>6760</v>
       </c>
       <c r="E50" s="2">
-        <v>5355</v>
+        <v>5356</v>
       </c>
       <c r="F50" s="2">
-        <v>-127</v>
+        <v>1404</v>
       </c>
       <c r="G50" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H50" s="2">
         <v>30</v>
       </c>
       <c r="I50" s="2">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J50" s="3" t="s">
         <v>14</v>
@@ -2374,22 +2455,22 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D51" s="2">
-        <v>6776</v>
+        <v>6760</v>
       </c>
       <c r="E51" s="2">
-        <v>5355</v>
+        <v>5356</v>
       </c>
       <c r="F51" s="2">
-        <v>1421</v>
+        <v>1404</v>
       </c>
       <c r="G51" s="2">
         <v>40</v>
@@ -2409,31 +2490,31 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D52" s="2">
-        <v>6851</v>
+        <v>6760</v>
       </c>
       <c r="E52" s="2">
-        <v>5355</v>
+        <v>5356</v>
       </c>
       <c r="F52" s="2">
-        <v>1496</v>
+        <v>1404</v>
       </c>
       <c r="G52" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H52" s="2">
         <v>30</v>
       </c>
       <c r="I52" s="2">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>14</v>
@@ -2447,28 +2528,28 @@
         <v>47</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D53" s="2">
-        <v>6952</v>
+        <v>4854</v>
       </c>
       <c r="E53" s="2">
-        <v>5355</v>
+        <v>5004</v>
       </c>
       <c r="F53" s="2">
-        <v>1597</v>
+        <v>-150</v>
       </c>
       <c r="G53" s="2">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H53" s="2">
         <v>30</v>
       </c>
       <c r="I53" s="2">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J53" s="3" t="s">
         <v>14</v>
@@ -2479,31 +2560,31 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D54" s="2">
-        <v>4829</v>
+        <v>6259</v>
       </c>
       <c r="E54" s="2">
-        <v>5355</v>
+        <v>5004</v>
       </c>
       <c r="F54" s="2">
-        <v>-526</v>
+        <v>1255</v>
       </c>
       <c r="G54" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H54" s="2">
         <v>30</v>
       </c>
       <c r="I54" s="2">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>14</v>
@@ -2514,31 +2595,31 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="D55" s="2">
-        <v>4865</v>
+        <v>6259</v>
       </c>
       <c r="E55" s="2">
-        <v>5355</v>
+        <v>5004</v>
       </c>
       <c r="F55" s="2">
-        <v>-490</v>
+        <v>1255</v>
       </c>
       <c r="G55" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H55" s="2">
         <v>30</v>
       </c>
       <c r="I55" s="2">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J55" s="3" t="s">
         <v>14</v>
@@ -2549,31 +2630,31 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D56" s="2">
-        <v>6851</v>
+        <v>4854</v>
       </c>
       <c r="E56" s="2">
-        <v>5355</v>
+        <v>5004</v>
       </c>
       <c r="F56" s="2">
-        <v>1496</v>
+        <v>-150</v>
       </c>
       <c r="G56" s="2">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H56" s="2">
         <v>30</v>
       </c>
       <c r="I56" s="2">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J56" s="3" t="s">
         <v>14</v>
@@ -2584,31 +2665,31 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="D57" s="2">
-        <v>6851</v>
+        <v>4854</v>
       </c>
       <c r="E57" s="2">
-        <v>5355</v>
+        <v>5356</v>
       </c>
       <c r="F57" s="2">
-        <v>1496</v>
+        <v>-502</v>
       </c>
       <c r="G57" s="2">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H57" s="2">
         <v>30</v>
       </c>
       <c r="I57" s="2">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>14</v>
@@ -2619,31 +2700,31 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="D58" s="2">
-        <v>6952</v>
+        <v>5283</v>
       </c>
       <c r="E58" s="2">
-        <v>5355</v>
+        <v>5356</v>
       </c>
       <c r="F58" s="2">
-        <v>1597</v>
+        <v>-73</v>
       </c>
       <c r="G58" s="2">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H58" s="2">
         <v>30</v>
       </c>
       <c r="I58" s="2">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>14</v>
@@ -2654,31 +2735,31 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D59" s="2">
-        <v>5064</v>
+        <v>6848</v>
       </c>
       <c r="E59" s="2">
-        <v>5783</v>
+        <v>5004</v>
       </c>
       <c r="F59" s="2">
-        <v>-719</v>
+        <v>1844</v>
       </c>
       <c r="G59" s="2">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H59" s="2">
         <v>30</v>
       </c>
       <c r="I59" s="2">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>14</v>
@@ -2689,31 +2770,31 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D60" s="2">
-        <v>5582</v>
+        <v>6949</v>
       </c>
       <c r="E60" s="2">
-        <v>5783</v>
+        <v>5004</v>
       </c>
       <c r="F60" s="2">
-        <v>-201</v>
+        <v>1945</v>
       </c>
       <c r="G60" s="2">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H60" s="2">
         <v>30</v>
       </c>
       <c r="I60" s="2">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>14</v>
@@ -2724,31 +2805,31 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D61" s="2">
-        <v>6851</v>
+        <v>6760</v>
       </c>
       <c r="E61" s="2">
-        <v>5783</v>
+        <v>5356</v>
       </c>
       <c r="F61" s="2">
-        <v>1068</v>
+        <v>1404</v>
       </c>
       <c r="G61" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H61" s="2">
         <v>30</v>
       </c>
       <c r="I61" s="2">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J61" s="3" t="s">
         <v>14</v>
@@ -2759,22 +2840,22 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D62" s="2">
-        <v>7933</v>
+        <v>6848</v>
       </c>
       <c r="E62" s="2">
-        <v>5783</v>
+        <v>5356</v>
       </c>
       <c r="F62" s="2">
-        <v>2150</v>
+        <v>1492</v>
       </c>
       <c r="G62" s="2">
         <v>46</v>
@@ -2794,31 +2875,31 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D63" s="2">
-        <v>4359</v>
+        <v>6848</v>
       </c>
       <c r="E63" s="2">
-        <v>5355</v>
+        <v>5356</v>
       </c>
       <c r="F63" s="2">
-        <v>-996</v>
+        <v>1492</v>
       </c>
       <c r="G63" s="2">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H63" s="2">
         <v>30</v>
       </c>
       <c r="I63" s="2">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J63" s="3" t="s">
         <v>14</v>
@@ -2829,22 +2910,22 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D64" s="2">
-        <v>4594</v>
+        <v>5212</v>
       </c>
       <c r="E64" s="2">
-        <v>5355</v>
+        <v>5356</v>
       </c>
       <c r="F64" s="2">
-        <v>-761</v>
+        <v>-144</v>
       </c>
       <c r="G64" s="2">
         <v>30</v>
@@ -2864,31 +2945,31 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="D65" s="2">
-        <v>6851</v>
+        <v>5212</v>
       </c>
       <c r="E65" s="2">
-        <v>5355</v>
+        <v>5356</v>
       </c>
       <c r="F65" s="2">
-        <v>1496</v>
+        <v>-144</v>
       </c>
       <c r="G65" s="2">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H65" s="2">
         <v>30</v>
       </c>
       <c r="I65" s="2">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J65" s="3" t="s">
         <v>14</v>
@@ -2899,31 +2980,31 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D66" s="2">
-        <v>7467</v>
+        <v>6259</v>
       </c>
       <c r="E66" s="2">
-        <v>5355</v>
+        <v>5356</v>
       </c>
       <c r="F66" s="2">
-        <v>2112</v>
+        <v>903</v>
       </c>
       <c r="G66" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H66" s="2">
         <v>30</v>
       </c>
       <c r="I66" s="2">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>14</v>
@@ -2934,31 +3015,31 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D67" s="2">
-        <v>5228</v>
+        <v>6760</v>
       </c>
       <c r="E67" s="2">
-        <v>6336</v>
+        <v>5356</v>
       </c>
       <c r="F67" s="2">
-        <v>-1108</v>
+        <v>1404</v>
       </c>
       <c r="G67" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H67" s="2">
         <v>30</v>
       </c>
       <c r="I67" s="2">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J67" s="3" t="s">
         <v>14</v>
@@ -2969,31 +3050,31 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="D68" s="2">
-        <v>5230</v>
+        <v>5212</v>
       </c>
       <c r="E68" s="2">
-        <v>6336</v>
+        <v>5356</v>
       </c>
       <c r="F68" s="2">
-        <v>-1106</v>
+        <v>-144</v>
       </c>
       <c r="G68" s="2">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H68" s="2">
         <v>30</v>
       </c>
       <c r="I68" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J68" s="3" t="s">
         <v>14</v>
@@ -3004,22 +3085,22 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D69" s="2">
-        <v>5582</v>
+        <v>5212</v>
       </c>
       <c r="E69" s="2">
-        <v>6336</v>
+        <v>5356</v>
       </c>
       <c r="F69" s="2">
-        <v>-754</v>
+        <v>-144</v>
       </c>
       <c r="G69" s="2">
         <v>30</v>
@@ -3039,22 +3120,22 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="D70" s="2">
-        <v>7279</v>
+        <v>6259</v>
       </c>
       <c r="E70" s="2">
-        <v>6336</v>
+        <v>5356</v>
       </c>
       <c r="F70" s="2">
-        <v>943</v>
+        <v>903</v>
       </c>
       <c r="G70" s="2">
         <v>40</v>
@@ -3074,31 +3155,31 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D71" s="2">
-        <v>6851</v>
+        <v>6259</v>
       </c>
       <c r="E71" s="2">
-        <v>5016</v>
+        <v>5356</v>
       </c>
       <c r="F71" s="2">
-        <v>1835</v>
+        <v>903</v>
       </c>
       <c r="G71" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H71" s="2">
         <v>30</v>
       </c>
       <c r="I71" s="2">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J71" s="3" t="s">
         <v>14</v>
@@ -3109,22 +3190,22 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D72" s="2">
-        <v>6851</v>
+        <v>6848</v>
       </c>
       <c r="E72" s="2">
-        <v>4664</v>
+        <v>4653</v>
       </c>
       <c r="F72" s="2">
-        <v>2187</v>
+        <v>2195</v>
       </c>
       <c r="G72" s="2">
         <v>46</v>
@@ -3144,31 +3225,31 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D73" s="2">
-        <v>6851</v>
+        <v>4854</v>
       </c>
       <c r="E73" s="2">
-        <v>5016</v>
+        <v>5782</v>
       </c>
       <c r="F73" s="2">
-        <v>1835</v>
+        <v>-928</v>
       </c>
       <c r="G73" s="2">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H73" s="2">
         <v>30</v>
       </c>
       <c r="I73" s="2">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J73" s="3" t="s">
         <v>14</v>
@@ -3179,31 +3260,31 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="D74" s="2">
-        <v>7367</v>
+        <v>5283</v>
       </c>
       <c r="E74" s="2">
-        <v>5016</v>
+        <v>5782</v>
       </c>
       <c r="F74" s="2">
-        <v>2351</v>
+        <v>-499</v>
       </c>
       <c r="G74" s="2">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H74" s="2">
         <v>30</v>
       </c>
       <c r="I74" s="2">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J74" s="3" t="s">
         <v>14</v>
@@ -3214,31 +3295,31 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="D75" s="2">
-        <v>6851</v>
+        <v>5594</v>
       </c>
       <c r="E75" s="2">
-        <v>5355</v>
+        <v>5782</v>
       </c>
       <c r="F75" s="2">
-        <v>1496</v>
+        <v>-188</v>
       </c>
       <c r="G75" s="2">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H75" s="2">
         <v>30</v>
       </c>
       <c r="I75" s="2">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J75" s="3" t="s">
         <v>14</v>
@@ -3249,31 +3330,31 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D76" s="2">
-        <v>6952</v>
+        <v>6259</v>
       </c>
       <c r="E76" s="2">
-        <v>5355</v>
+        <v>5782</v>
       </c>
       <c r="F76" s="2">
-        <v>1597</v>
+        <v>477</v>
       </c>
       <c r="G76" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H76" s="2">
         <v>30</v>
       </c>
       <c r="I76" s="2">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>14</v>
@@ -3284,31 +3365,31 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="D77" s="2">
-        <v>3884</v>
+        <v>6259</v>
       </c>
       <c r="E77" s="2">
-        <v>5783</v>
+        <v>5782</v>
       </c>
       <c r="F77" s="2">
-        <v>-1899</v>
+        <v>477</v>
       </c>
       <c r="G77" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H77" s="2">
         <v>30</v>
       </c>
       <c r="I77" s="2">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="J77" s="3" t="s">
         <v>14</v>
@@ -3319,31 +3400,31 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D78" s="2">
-        <v>5228</v>
+        <v>6259</v>
       </c>
       <c r="E78" s="2">
-        <v>5783</v>
+        <v>5782</v>
       </c>
       <c r="F78" s="2">
-        <v>-555</v>
+        <v>477</v>
       </c>
       <c r="G78" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H78" s="2">
         <v>30</v>
       </c>
       <c r="I78" s="2">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J78" s="3" t="s">
         <v>14</v>
@@ -3354,31 +3435,31 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D79" s="2">
-        <v>5228</v>
+        <v>6259</v>
       </c>
       <c r="E79" s="2">
-        <v>5783</v>
+        <v>5782</v>
       </c>
       <c r="F79" s="2">
-        <v>-555</v>
+        <v>477</v>
       </c>
       <c r="G79" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H79" s="2">
         <v>30</v>
       </c>
       <c r="I79" s="2">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J79" s="3" t="s">
         <v>14</v>
@@ -3389,31 +3470,31 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D80" s="2">
-        <v>5582</v>
+        <v>6259</v>
       </c>
       <c r="E80" s="2">
-        <v>5783</v>
+        <v>5782</v>
       </c>
       <c r="F80" s="2">
-        <v>-201</v>
+        <v>477</v>
       </c>
       <c r="G80" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H80" s="2">
         <v>30</v>
       </c>
       <c r="I80" s="2">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J80" s="3" t="s">
         <v>14</v>
@@ -3424,31 +3505,31 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D81" s="2">
-        <v>5228</v>
+        <v>6259</v>
       </c>
       <c r="E81" s="2">
-        <v>5355</v>
+        <v>5782</v>
       </c>
       <c r="F81" s="2">
-        <v>-127</v>
+        <v>477</v>
       </c>
       <c r="G81" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H81" s="2">
         <v>30</v>
       </c>
       <c r="I81" s="2">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>14</v>
@@ -3459,31 +3540,31 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D82" s="2">
-        <v>5228</v>
+        <v>6848</v>
       </c>
       <c r="E82" s="2">
-        <v>5355</v>
+        <v>5782</v>
       </c>
       <c r="F82" s="2">
-        <v>-127</v>
+        <v>1066</v>
       </c>
       <c r="G82" s="2">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H82" s="2">
         <v>30</v>
       </c>
       <c r="I82" s="2">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J82" s="3" t="s">
         <v>14</v>
@@ -3494,22 +3575,22 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D83" s="2">
-        <v>6851</v>
+        <v>6848</v>
       </c>
       <c r="E83" s="2">
-        <v>4664</v>
+        <v>4653</v>
       </c>
       <c r="F83" s="2">
-        <v>2187</v>
+        <v>2195</v>
       </c>
       <c r="G83" s="2">
         <v>46</v>
@@ -3529,31 +3610,31 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D84" s="2">
-        <v>3884</v>
+        <v>6848</v>
       </c>
       <c r="E84" s="2">
-        <v>5783</v>
+        <v>4653</v>
       </c>
       <c r="F84" s="2">
-        <v>-1899</v>
+        <v>2195</v>
       </c>
       <c r="G84" s="2">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H84" s="2">
         <v>30</v>
       </c>
       <c r="I84" s="2">
-        <v>10</v>
+        <v>-16</v>
       </c>
       <c r="J84" s="3" t="s">
         <v>14</v>
@@ -3564,31 +3645,31 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D85" s="2">
-        <v>3884</v>
+        <v>6949</v>
       </c>
       <c r="E85" s="2">
-        <v>5783</v>
+        <v>4653</v>
       </c>
       <c r="F85" s="2">
-        <v>-1899</v>
+        <v>2296</v>
       </c>
       <c r="G85" s="2">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H85" s="2">
         <v>30</v>
       </c>
       <c r="I85" s="2">
-        <v>10</v>
+        <v>-16</v>
       </c>
       <c r="J85" s="3" t="s">
         <v>14</v>
@@ -3599,31 +3680,31 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D86" s="2">
-        <v>3884</v>
+        <v>6848</v>
       </c>
       <c r="E86" s="2">
-        <v>5783</v>
+        <v>4653</v>
       </c>
       <c r="F86" s="2">
-        <v>-1899</v>
+        <v>2195</v>
       </c>
       <c r="G86" s="2">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H86" s="2">
         <v>30</v>
       </c>
       <c r="I86" s="2">
-        <v>10</v>
+        <v>-16</v>
       </c>
       <c r="J86" s="3" t="s">
         <v>14</v>
@@ -3634,31 +3715,31 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D87" s="2">
-        <v>3884</v>
+        <v>6848</v>
       </c>
       <c r="E87" s="2">
-        <v>5783</v>
+        <v>4653</v>
       </c>
       <c r="F87" s="2">
-        <v>-1899</v>
+        <v>2195</v>
       </c>
       <c r="G87" s="2">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H87" s="2">
         <v>30</v>
       </c>
       <c r="I87" s="2">
-        <v>10</v>
+        <v>-16</v>
       </c>
       <c r="J87" s="3" t="s">
         <v>14</v>
@@ -3669,31 +3750,31 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D88" s="2">
-        <v>4865</v>
+        <v>4879</v>
       </c>
       <c r="E88" s="2">
-        <v>5783</v>
+        <v>6898</v>
       </c>
       <c r="F88" s="2">
-        <v>-918</v>
+        <v>-2019</v>
       </c>
       <c r="G88" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H88" s="2">
         <v>30</v>
       </c>
       <c r="I88" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J88" s="3" t="s">
         <v>14</v>
@@ -3704,31 +3785,31 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D89" s="2">
-        <v>5299</v>
+        <v>4879</v>
       </c>
       <c r="E89" s="2">
-        <v>5783</v>
+        <v>6898</v>
       </c>
       <c r="F89" s="2">
-        <v>-484</v>
+        <v>-2019</v>
       </c>
       <c r="G89" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H89" s="2">
         <v>30</v>
       </c>
       <c r="I89" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>14</v>
@@ -3739,31 +3820,31 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D90" s="2">
-        <v>5582</v>
+        <v>4879</v>
       </c>
       <c r="E90" s="2">
-        <v>5783</v>
+        <v>6898</v>
       </c>
       <c r="F90" s="2">
-        <v>-201</v>
+        <v>-2019</v>
       </c>
       <c r="G90" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H90" s="2">
         <v>30</v>
       </c>
       <c r="I90" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J90" s="3" t="s">
         <v>14</v>
@@ -3774,22 +3855,22 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="D91" s="2">
-        <v>6273</v>
+        <v>7889</v>
       </c>
       <c r="E91" s="2">
-        <v>5783</v>
+        <v>6898</v>
       </c>
       <c r="F91" s="2">
-        <v>490</v>
+        <v>991</v>
       </c>
       <c r="G91" s="2">
         <v>40</v>
@@ -3809,22 +3890,22 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D92" s="2">
-        <v>6851</v>
+        <v>7977</v>
       </c>
       <c r="E92" s="2">
-        <v>5783</v>
+        <v>6898</v>
       </c>
       <c r="F92" s="2">
-        <v>1068</v>
+        <v>1079</v>
       </c>
       <c r="G92" s="2">
         <v>46</v>
@@ -3844,31 +3925,31 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D93" s="2">
-        <v>4865</v>
+        <v>8780</v>
       </c>
       <c r="E93" s="2">
-        <v>5016</v>
+        <v>6898</v>
       </c>
       <c r="F93" s="2">
-        <v>-151</v>
+        <v>1882</v>
       </c>
       <c r="G93" s="2">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H93" s="2">
         <v>30</v>
       </c>
       <c r="I93" s="2">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J93" s="3" t="s">
         <v>14</v>
@@ -3879,22 +3960,22 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D94" s="2">
-        <v>7367</v>
+        <v>10285</v>
       </c>
       <c r="E94" s="2">
-        <v>5016</v>
+        <v>9206</v>
       </c>
       <c r="F94" s="2">
-        <v>2351</v>
+        <v>1079</v>
       </c>
       <c r="G94" s="2">
         <v>46</v>
@@ -3914,22 +3995,22 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="D95" s="2">
-        <v>6851</v>
+        <v>11101</v>
       </c>
       <c r="E95" s="2">
-        <v>4664</v>
+        <v>9206</v>
       </c>
       <c r="F95" s="2">
-        <v>2187</v>
+        <v>1895</v>
       </c>
       <c r="G95" s="2">
         <v>46</v>
@@ -3949,22 +4030,22 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="D96" s="2">
-        <v>6851</v>
+        <v>11201</v>
       </c>
       <c r="E96" s="2">
-        <v>4664</v>
+        <v>9206</v>
       </c>
       <c r="F96" s="2">
-        <v>2187</v>
+        <v>1995</v>
       </c>
       <c r="G96" s="2">
         <v>46</v>
@@ -3984,22 +4065,22 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="D97" s="2">
-        <v>6952</v>
+        <v>11502</v>
       </c>
       <c r="E97" s="2">
-        <v>4664</v>
+        <v>9206</v>
       </c>
       <c r="F97" s="2">
-        <v>2288</v>
+        <v>2296</v>
       </c>
       <c r="G97" s="2">
         <v>46</v>
@@ -4014,6 +4095,2736 @@
         <v>14</v>
       </c>
       <c r="K97" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D98" s="2">
+        <v>8517</v>
+      </c>
+      <c r="E98" s="2">
+        <v>10498</v>
+      </c>
+      <c r="F98" s="2">
+        <v>-1981</v>
+      </c>
+      <c r="G98" s="2">
+        <v>20</v>
+      </c>
+      <c r="H98" s="2">
+        <v>30</v>
+      </c>
+      <c r="I98" s="2">
+        <v>10</v>
+      </c>
+      <c r="J98" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K98" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D99" s="2">
+        <v>8517</v>
+      </c>
+      <c r="E99" s="2">
+        <v>10498</v>
+      </c>
+      <c r="F99" s="2">
+        <v>-1981</v>
+      </c>
+      <c r="G99" s="2">
+        <v>20</v>
+      </c>
+      <c r="H99" s="2">
+        <v>30</v>
+      </c>
+      <c r="I99" s="2">
+        <v>10</v>
+      </c>
+      <c r="J99" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K99" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D100" s="2">
+        <v>8517</v>
+      </c>
+      <c r="E100" s="2">
+        <v>10498</v>
+      </c>
+      <c r="F100" s="2">
+        <v>-1981</v>
+      </c>
+      <c r="G100" s="2">
+        <v>20</v>
+      </c>
+      <c r="H100" s="2">
+        <v>30</v>
+      </c>
+      <c r="I100" s="2">
+        <v>10</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K100" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D101" s="2">
+        <v>9181</v>
+      </c>
+      <c r="E101" s="2">
+        <v>10498</v>
+      </c>
+      <c r="F101" s="2">
+        <v>-1317</v>
+      </c>
+      <c r="G101" s="2">
+        <v>23</v>
+      </c>
+      <c r="H101" s="2">
+        <v>30</v>
+      </c>
+      <c r="I101" s="2">
+        <v>7</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K101" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D102" s="2">
+        <v>10285</v>
+      </c>
+      <c r="E102" s="2">
+        <v>10498</v>
+      </c>
+      <c r="F102" s="2">
+        <v>-213</v>
+      </c>
+      <c r="G102" s="2">
+        <v>46</v>
+      </c>
+      <c r="H102" s="2">
+        <v>30</v>
+      </c>
+      <c r="I102" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J102" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K102" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D103" s="2">
+        <v>11201</v>
+      </c>
+      <c r="E103" s="2">
+        <v>10498</v>
+      </c>
+      <c r="F103" s="2">
+        <v>703</v>
+      </c>
+      <c r="G103" s="2">
+        <v>46</v>
+      </c>
+      <c r="H103" s="2">
+        <v>30</v>
+      </c>
+      <c r="I103" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J103" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K103" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D104" s="2">
+        <v>11778</v>
+      </c>
+      <c r="E104" s="2">
+        <v>10498</v>
+      </c>
+      <c r="F104" s="2">
+        <v>1280</v>
+      </c>
+      <c r="G104" s="2">
+        <v>40</v>
+      </c>
+      <c r="H104" s="2">
+        <v>30</v>
+      </c>
+      <c r="I104" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J104" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K104" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D105" s="2">
+        <v>12029</v>
+      </c>
+      <c r="E105" s="2">
+        <v>10498</v>
+      </c>
+      <c r="F105" s="2">
+        <v>1531</v>
+      </c>
+      <c r="G105" s="2">
+        <v>46</v>
+      </c>
+      <c r="H105" s="2">
+        <v>30</v>
+      </c>
+      <c r="I105" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J105" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K105" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D106" s="2">
+        <v>16695</v>
+      </c>
+      <c r="E106" s="2">
+        <v>15014</v>
+      </c>
+      <c r="F106" s="2">
+        <v>1681</v>
+      </c>
+      <c r="G106" s="2">
+        <v>46</v>
+      </c>
+      <c r="H106" s="2">
+        <v>30</v>
+      </c>
+      <c r="I106" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J106" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K106" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A107" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D107" s="2">
+        <v>16695</v>
+      </c>
+      <c r="E107" s="2">
+        <v>15014</v>
+      </c>
+      <c r="F107" s="2">
+        <v>1681</v>
+      </c>
+      <c r="G107" s="2">
+        <v>46</v>
+      </c>
+      <c r="H107" s="2">
+        <v>30</v>
+      </c>
+      <c r="I107" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J107" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K107" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D108" s="2">
+        <v>17473</v>
+      </c>
+      <c r="E108" s="2">
+        <v>21148</v>
+      </c>
+      <c r="F108" s="2">
+        <v>-3675</v>
+      </c>
+      <c r="G108" s="2">
+        <v>30</v>
+      </c>
+      <c r="H108" s="2">
+        <v>30</v>
+      </c>
+      <c r="I108" s="2">
+        <v>0</v>
+      </c>
+      <c r="J108" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K108" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D109" s="2">
+        <v>17962</v>
+      </c>
+      <c r="E109" s="2">
+        <v>21148</v>
+      </c>
+      <c r="F109" s="2">
+        <v>-3186</v>
+      </c>
+      <c r="G109" s="2">
+        <v>30</v>
+      </c>
+      <c r="H109" s="2">
+        <v>30</v>
+      </c>
+      <c r="I109" s="2">
+        <v>0</v>
+      </c>
+      <c r="J109" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K109" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D110" s="2">
+        <v>18965</v>
+      </c>
+      <c r="E110" s="2">
+        <v>21148</v>
+      </c>
+      <c r="F110" s="2">
+        <v>-2183</v>
+      </c>
+      <c r="G110" s="2">
+        <v>30</v>
+      </c>
+      <c r="H110" s="2">
+        <v>30</v>
+      </c>
+      <c r="I110" s="2">
+        <v>0</v>
+      </c>
+      <c r="J110" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K110" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A111" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D111" s="2">
+        <v>19630</v>
+      </c>
+      <c r="E111" s="2">
+        <v>21148</v>
+      </c>
+      <c r="F111" s="2">
+        <v>-1518</v>
+      </c>
+      <c r="G111" s="2">
+        <v>23</v>
+      </c>
+      <c r="H111" s="2">
+        <v>30</v>
+      </c>
+      <c r="I111" s="2">
+        <v>7</v>
+      </c>
+      <c r="J111" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K111" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A112" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D112" s="2">
+        <v>19630</v>
+      </c>
+      <c r="E112" s="2">
+        <v>21148</v>
+      </c>
+      <c r="F112" s="2">
+        <v>-1518</v>
+      </c>
+      <c r="G112" s="2">
+        <v>23</v>
+      </c>
+      <c r="H112" s="2">
+        <v>30</v>
+      </c>
+      <c r="I112" s="2">
+        <v>7</v>
+      </c>
+      <c r="J112" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K112" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A113" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D113" s="2">
+        <v>21186</v>
+      </c>
+      <c r="E113" s="2">
+        <v>21148</v>
+      </c>
+      <c r="F113" s="2">
+        <v>38</v>
+      </c>
+      <c r="G113" s="2">
+        <v>40</v>
+      </c>
+      <c r="H113" s="2">
+        <v>30</v>
+      </c>
+      <c r="I113" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J113" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K113" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A114" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D114" s="2">
+        <v>21186</v>
+      </c>
+      <c r="E114" s="2">
+        <v>21148</v>
+      </c>
+      <c r="F114" s="2">
+        <v>38</v>
+      </c>
+      <c r="G114" s="2">
+        <v>40</v>
+      </c>
+      <c r="H114" s="2">
+        <v>30</v>
+      </c>
+      <c r="I114" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J114" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K114" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A115" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D115" s="2">
+        <v>17473</v>
+      </c>
+      <c r="E115" s="2">
+        <v>24384</v>
+      </c>
+      <c r="F115" s="2">
+        <v>-6911</v>
+      </c>
+      <c r="G115" s="2">
+        <v>30</v>
+      </c>
+      <c r="H115" s="2">
+        <v>30</v>
+      </c>
+      <c r="I115" s="2">
+        <v>0</v>
+      </c>
+      <c r="J115" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K115" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A116" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D116" s="2">
+        <v>17962</v>
+      </c>
+      <c r="E116" s="2">
+        <v>24384</v>
+      </c>
+      <c r="F116" s="2">
+        <v>-6422</v>
+      </c>
+      <c r="G116" s="2">
+        <v>30</v>
+      </c>
+      <c r="H116" s="2">
+        <v>30</v>
+      </c>
+      <c r="I116" s="2">
+        <v>0</v>
+      </c>
+      <c r="J116" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K116" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A117" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D117" s="2">
+        <v>18965</v>
+      </c>
+      <c r="E117" s="2">
+        <v>24384</v>
+      </c>
+      <c r="F117" s="2">
+        <v>-5419</v>
+      </c>
+      <c r="G117" s="2">
+        <v>30</v>
+      </c>
+      <c r="H117" s="2">
+        <v>30</v>
+      </c>
+      <c r="I117" s="2">
+        <v>0</v>
+      </c>
+      <c r="J117" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K117" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A118" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D118" s="2">
+        <v>19630</v>
+      </c>
+      <c r="E118" s="2">
+        <v>24384</v>
+      </c>
+      <c r="F118" s="2">
+        <v>-4754</v>
+      </c>
+      <c r="G118" s="2">
+        <v>23</v>
+      </c>
+      <c r="H118" s="2">
+        <v>30</v>
+      </c>
+      <c r="I118" s="2">
+        <v>7</v>
+      </c>
+      <c r="J118" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K118" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A119" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D119" s="2">
+        <v>19630</v>
+      </c>
+      <c r="E119" s="2">
+        <v>24384</v>
+      </c>
+      <c r="F119" s="2">
+        <v>-4754</v>
+      </c>
+      <c r="G119" s="2">
+        <v>23</v>
+      </c>
+      <c r="H119" s="2">
+        <v>30</v>
+      </c>
+      <c r="I119" s="2">
+        <v>7</v>
+      </c>
+      <c r="J119" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K119" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A120" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D120" s="2">
+        <v>21186</v>
+      </c>
+      <c r="E120" s="2">
+        <v>24384</v>
+      </c>
+      <c r="F120" s="2">
+        <v>-3198</v>
+      </c>
+      <c r="G120" s="2">
+        <v>40</v>
+      </c>
+      <c r="H120" s="2">
+        <v>30</v>
+      </c>
+      <c r="I120" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J120" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K120" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A121" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D121" s="2">
+        <v>21186</v>
+      </c>
+      <c r="E121" s="2">
+        <v>24384</v>
+      </c>
+      <c r="F121" s="2">
+        <v>-3198</v>
+      </c>
+      <c r="G121" s="2">
+        <v>40</v>
+      </c>
+      <c r="H121" s="2">
+        <v>30</v>
+      </c>
+      <c r="I121" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J121" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K121" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A122" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D122" s="2">
+        <v>23544</v>
+      </c>
+      <c r="E122" s="2">
+        <v>24384</v>
+      </c>
+      <c r="F122" s="2">
+        <v>-840</v>
+      </c>
+      <c r="G122" s="2">
+        <v>30</v>
+      </c>
+      <c r="H122" s="2">
+        <v>30</v>
+      </c>
+      <c r="I122" s="2">
+        <v>0</v>
+      </c>
+      <c r="J122" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K122" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A123" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D123" s="2">
+        <v>23744</v>
+      </c>
+      <c r="E123" s="2">
+        <v>24384</v>
+      </c>
+      <c r="F123" s="2">
+        <v>-640</v>
+      </c>
+      <c r="G123" s="2">
+        <v>46</v>
+      </c>
+      <c r="H123" s="2">
+        <v>30</v>
+      </c>
+      <c r="I123" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J123" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K123" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A124" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D124" s="2">
+        <v>23744</v>
+      </c>
+      <c r="E124" s="2">
+        <v>24384</v>
+      </c>
+      <c r="F124" s="2">
+        <v>-640</v>
+      </c>
+      <c r="G124" s="2">
+        <v>46</v>
+      </c>
+      <c r="H124" s="2">
+        <v>30</v>
+      </c>
+      <c r="I124" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J124" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K124" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A125" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D125" s="2">
+        <v>24560</v>
+      </c>
+      <c r="E125" s="2">
+        <v>24384</v>
+      </c>
+      <c r="F125" s="2">
+        <v>176</v>
+      </c>
+      <c r="G125" s="2">
+        <v>46</v>
+      </c>
+      <c r="H125" s="2">
+        <v>30</v>
+      </c>
+      <c r="I125" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J125" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K125" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A126" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D126" s="2">
+        <v>24949</v>
+      </c>
+      <c r="E126" s="2">
+        <v>24384</v>
+      </c>
+      <c r="F126" s="2">
+        <v>565</v>
+      </c>
+      <c r="G126" s="2">
+        <v>40</v>
+      </c>
+      <c r="H126" s="2">
+        <v>30</v>
+      </c>
+      <c r="I126" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J126" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K126" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A127" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D127" s="2">
+        <v>24949</v>
+      </c>
+      <c r="E127" s="2">
+        <v>24384</v>
+      </c>
+      <c r="F127" s="2">
+        <v>565</v>
+      </c>
+      <c r="G127" s="2">
+        <v>40</v>
+      </c>
+      <c r="H127" s="2">
+        <v>30</v>
+      </c>
+      <c r="I127" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J127" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K127" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A128" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D128" s="2">
+        <v>24949</v>
+      </c>
+      <c r="E128" s="2">
+        <v>24384</v>
+      </c>
+      <c r="F128" s="2">
+        <v>565</v>
+      </c>
+      <c r="G128" s="2">
+        <v>40</v>
+      </c>
+      <c r="H128" s="2">
+        <v>30</v>
+      </c>
+      <c r="I128" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J128" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K128" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A129" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D129" s="2">
+        <v>24949</v>
+      </c>
+      <c r="E129" s="2">
+        <v>24384</v>
+      </c>
+      <c r="F129" s="2">
+        <v>565</v>
+      </c>
+      <c r="G129" s="2">
+        <v>40</v>
+      </c>
+      <c r="H129" s="2">
+        <v>30</v>
+      </c>
+      <c r="I129" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J129" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K129" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A130" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D130" s="2">
+        <v>24949</v>
+      </c>
+      <c r="E130" s="2">
+        <v>24384</v>
+      </c>
+      <c r="F130" s="2">
+        <v>565</v>
+      </c>
+      <c r="G130" s="2">
+        <v>40</v>
+      </c>
+      <c r="H130" s="2">
+        <v>30</v>
+      </c>
+      <c r="I130" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J130" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K130" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A131" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D131" s="2">
+        <v>23845</v>
+      </c>
+      <c r="E131" s="2">
+        <v>24384</v>
+      </c>
+      <c r="F131" s="2">
+        <v>-539</v>
+      </c>
+      <c r="G131" s="2">
+        <v>46</v>
+      </c>
+      <c r="H131" s="2">
+        <v>30</v>
+      </c>
+      <c r="I131" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J131" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K131" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A132" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D132" s="2">
+        <v>4579</v>
+      </c>
+      <c r="E132" s="2">
+        <v>4653</v>
+      </c>
+      <c r="F132" s="2">
+        <v>-74</v>
+      </c>
+      <c r="G132" s="2">
+        <v>30</v>
+      </c>
+      <c r="H132" s="2">
+        <v>30</v>
+      </c>
+      <c r="I132" s="2">
+        <v>0</v>
+      </c>
+      <c r="J132" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K132" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A133" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D133" s="2">
+        <v>4579</v>
+      </c>
+      <c r="E133" s="2">
+        <v>4653</v>
+      </c>
+      <c r="F133" s="2">
+        <v>-74</v>
+      </c>
+      <c r="G133" s="2">
+        <v>30</v>
+      </c>
+      <c r="H133" s="2">
+        <v>30</v>
+      </c>
+      <c r="I133" s="2">
+        <v>0</v>
+      </c>
+      <c r="J133" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K133" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A134" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D134" s="2">
+        <v>4345</v>
+      </c>
+      <c r="E134" s="2">
+        <v>4653</v>
+      </c>
+      <c r="F134" s="2">
+        <v>-308</v>
+      </c>
+      <c r="G134" s="2">
+        <v>30</v>
+      </c>
+      <c r="H134" s="2">
+        <v>30</v>
+      </c>
+      <c r="I134" s="2">
+        <v>0</v>
+      </c>
+      <c r="J134" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K134" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A135" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D135" s="2">
+        <v>4345</v>
+      </c>
+      <c r="E135" s="2">
+        <v>4653</v>
+      </c>
+      <c r="F135" s="2">
+        <v>-308</v>
+      </c>
+      <c r="G135" s="2">
+        <v>30</v>
+      </c>
+      <c r="H135" s="2">
+        <v>30</v>
+      </c>
+      <c r="I135" s="2">
+        <v>0</v>
+      </c>
+      <c r="J135" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K135" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A136" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D136" s="2">
+        <v>4126</v>
+      </c>
+      <c r="E136" s="2">
+        <v>8441</v>
+      </c>
+      <c r="F136" s="2">
+        <v>-4315</v>
+      </c>
+      <c r="G136" s="2">
+        <v>15</v>
+      </c>
+      <c r="H136" s="2">
+        <v>30</v>
+      </c>
+      <c r="I136" s="2">
+        <v>15</v>
+      </c>
+      <c r="J136" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K136" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A137" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D137" s="2">
+        <v>4126</v>
+      </c>
+      <c r="E137" s="2">
+        <v>8441</v>
+      </c>
+      <c r="F137" s="2">
+        <v>-4315</v>
+      </c>
+      <c r="G137" s="2">
+        <v>15</v>
+      </c>
+      <c r="H137" s="2">
+        <v>30</v>
+      </c>
+      <c r="I137" s="2">
+        <v>15</v>
+      </c>
+      <c r="J137" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K137" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A138" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D138" s="2">
+        <v>4126</v>
+      </c>
+      <c r="E138" s="2">
+        <v>8441</v>
+      </c>
+      <c r="F138" s="2">
+        <v>-4315</v>
+      </c>
+      <c r="G138" s="2">
+        <v>15</v>
+      </c>
+      <c r="H138" s="2">
+        <v>30</v>
+      </c>
+      <c r="I138" s="2">
+        <v>15</v>
+      </c>
+      <c r="J138" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K138" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A139" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D139" s="2">
+        <v>4345</v>
+      </c>
+      <c r="E139" s="2">
+        <v>8441</v>
+      </c>
+      <c r="F139" s="2">
+        <v>-4096</v>
+      </c>
+      <c r="G139" s="2">
+        <v>30</v>
+      </c>
+      <c r="H139" s="2">
+        <v>30</v>
+      </c>
+      <c r="I139" s="2">
+        <v>0</v>
+      </c>
+      <c r="J139" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K139" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A140" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D140" s="2">
+        <v>4377</v>
+      </c>
+      <c r="E140" s="2">
+        <v>8441</v>
+      </c>
+      <c r="F140" s="2">
+        <v>-4064</v>
+      </c>
+      <c r="G140" s="2">
+        <v>20</v>
+      </c>
+      <c r="H140" s="2">
+        <v>30</v>
+      </c>
+      <c r="I140" s="2">
+        <v>10</v>
+      </c>
+      <c r="J140" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K140" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A141" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D141" s="2">
+        <v>4377</v>
+      </c>
+      <c r="E141" s="2">
+        <v>8441</v>
+      </c>
+      <c r="F141" s="2">
+        <v>-4064</v>
+      </c>
+      <c r="G141" s="2">
+        <v>20</v>
+      </c>
+      <c r="H141" s="2">
+        <v>30</v>
+      </c>
+      <c r="I141" s="2">
+        <v>10</v>
+      </c>
+      <c r="J141" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K141" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A142" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D142" s="2">
+        <v>4377</v>
+      </c>
+      <c r="E142" s="2">
+        <v>8441</v>
+      </c>
+      <c r="F142" s="2">
+        <v>-4064</v>
+      </c>
+      <c r="G142" s="2">
+        <v>20</v>
+      </c>
+      <c r="H142" s="2">
+        <v>30</v>
+      </c>
+      <c r="I142" s="2">
+        <v>10</v>
+      </c>
+      <c r="J142" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K142" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A143" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D143" s="2">
+        <v>4377</v>
+      </c>
+      <c r="E143" s="2">
+        <v>8441</v>
+      </c>
+      <c r="F143" s="2">
+        <v>-4064</v>
+      </c>
+      <c r="G143" s="2">
+        <v>20</v>
+      </c>
+      <c r="H143" s="2">
+        <v>30</v>
+      </c>
+      <c r="I143" s="2">
+        <v>10</v>
+      </c>
+      <c r="J143" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K143" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A144" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D144" s="2">
+        <v>4377</v>
+      </c>
+      <c r="E144" s="2">
+        <v>8441</v>
+      </c>
+      <c r="F144" s="2">
+        <v>-4064</v>
+      </c>
+      <c r="G144" s="2">
+        <v>20</v>
+      </c>
+      <c r="H144" s="2">
+        <v>30</v>
+      </c>
+      <c r="I144" s="2">
+        <v>10</v>
+      </c>
+      <c r="J144" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K144" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A145" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D145" s="2">
+        <v>5230</v>
+      </c>
+      <c r="E145" s="2">
+        <v>8441</v>
+      </c>
+      <c r="F145" s="2">
+        <v>-3211</v>
+      </c>
+      <c r="G145" s="2">
+        <v>23</v>
+      </c>
+      <c r="H145" s="2">
+        <v>30</v>
+      </c>
+      <c r="I145" s="2">
+        <v>7</v>
+      </c>
+      <c r="J145" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K145" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A146" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D146" s="2">
+        <v>5230</v>
+      </c>
+      <c r="E146" s="2">
+        <v>8441</v>
+      </c>
+      <c r="F146" s="2">
+        <v>-3211</v>
+      </c>
+      <c r="G146" s="2">
+        <v>23</v>
+      </c>
+      <c r="H146" s="2">
+        <v>30</v>
+      </c>
+      <c r="I146" s="2">
+        <v>7</v>
+      </c>
+      <c r="J146" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K146" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A147" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D147" s="2">
+        <v>6760</v>
+      </c>
+      <c r="E147" s="2">
+        <v>8441</v>
+      </c>
+      <c r="F147" s="2">
+        <v>-1681</v>
+      </c>
+      <c r="G147" s="2">
+        <v>40</v>
+      </c>
+      <c r="H147" s="2">
+        <v>30</v>
+      </c>
+      <c r="I147" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J147" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K147" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A148" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D148" s="2">
+        <v>7325</v>
+      </c>
+      <c r="E148" s="2">
+        <v>8441</v>
+      </c>
+      <c r="F148" s="2">
+        <v>-1116</v>
+      </c>
+      <c r="G148" s="2">
+        <v>46</v>
+      </c>
+      <c r="H148" s="2">
+        <v>30</v>
+      </c>
+      <c r="I148" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J148" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K148" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A149" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D149" s="2">
+        <v>7739</v>
+      </c>
+      <c r="E149" s="2">
+        <v>8441</v>
+      </c>
+      <c r="F149" s="2">
+        <v>-702</v>
+      </c>
+      <c r="G149" s="2">
+        <v>30</v>
+      </c>
+      <c r="H149" s="2">
+        <v>30</v>
+      </c>
+      <c r="I149" s="2">
+        <v>0</v>
+      </c>
+      <c r="J149" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K149" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A150" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D150" s="2">
+        <v>7739</v>
+      </c>
+      <c r="E150" s="2">
+        <v>8441</v>
+      </c>
+      <c r="F150" s="2">
+        <v>-702</v>
+      </c>
+      <c r="G150" s="2">
+        <v>30</v>
+      </c>
+      <c r="H150" s="2">
+        <v>30</v>
+      </c>
+      <c r="I150" s="2">
+        <v>0</v>
+      </c>
+      <c r="J150" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K150" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A151" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D151" s="2">
+        <v>8793</v>
+      </c>
+      <c r="E151" s="2">
+        <v>8441</v>
+      </c>
+      <c r="F151" s="2">
+        <v>352</v>
+      </c>
+      <c r="G151" s="2">
+        <v>46</v>
+      </c>
+      <c r="H151" s="2">
+        <v>30</v>
+      </c>
+      <c r="I151" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J151" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K151" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A152" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D152" s="2">
+        <v>4126</v>
+      </c>
+      <c r="E152" s="2">
+        <v>8441</v>
+      </c>
+      <c r="F152" s="2">
+        <v>-4315</v>
+      </c>
+      <c r="G152" s="2">
+        <v>15</v>
+      </c>
+      <c r="H152" s="2">
+        <v>30</v>
+      </c>
+      <c r="I152" s="2">
+        <v>15</v>
+      </c>
+      <c r="J152" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K152" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A153" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D153" s="2">
+        <v>4126</v>
+      </c>
+      <c r="E153" s="2">
+        <v>8441</v>
+      </c>
+      <c r="F153" s="2">
+        <v>-4315</v>
+      </c>
+      <c r="G153" s="2">
+        <v>15</v>
+      </c>
+      <c r="H153" s="2">
+        <v>30</v>
+      </c>
+      <c r="I153" s="2">
+        <v>15</v>
+      </c>
+      <c r="J153" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K153" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A154" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D154" s="2">
+        <v>4126</v>
+      </c>
+      <c r="E154" s="2">
+        <v>8441</v>
+      </c>
+      <c r="F154" s="2">
+        <v>-4315</v>
+      </c>
+      <c r="G154" s="2">
+        <v>15</v>
+      </c>
+      <c r="H154" s="2">
+        <v>30</v>
+      </c>
+      <c r="I154" s="2">
+        <v>15</v>
+      </c>
+      <c r="J154" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K154" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A155" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D155" s="2">
+        <v>4345</v>
+      </c>
+      <c r="E155" s="2">
+        <v>8441</v>
+      </c>
+      <c r="F155" s="2">
+        <v>-4096</v>
+      </c>
+      <c r="G155" s="2">
+        <v>30</v>
+      </c>
+      <c r="H155" s="2">
+        <v>30</v>
+      </c>
+      <c r="I155" s="2">
+        <v>0</v>
+      </c>
+      <c r="J155" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K155" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A156" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D156" s="2">
+        <v>4879</v>
+      </c>
+      <c r="E156" s="2">
+        <v>8441</v>
+      </c>
+      <c r="F156" s="2">
+        <v>-3562</v>
+      </c>
+      <c r="G156" s="2">
+        <v>20</v>
+      </c>
+      <c r="H156" s="2">
+        <v>30</v>
+      </c>
+      <c r="I156" s="2">
+        <v>10</v>
+      </c>
+      <c r="J156" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K156" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A157" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D157" s="2">
+        <v>4879</v>
+      </c>
+      <c r="E157" s="2">
+        <v>8441</v>
+      </c>
+      <c r="F157" s="2">
+        <v>-3562</v>
+      </c>
+      <c r="G157" s="2">
+        <v>20</v>
+      </c>
+      <c r="H157" s="2">
+        <v>30</v>
+      </c>
+      <c r="I157" s="2">
+        <v>10</v>
+      </c>
+      <c r="J157" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K157" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A158" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D158" s="2">
+        <v>4879</v>
+      </c>
+      <c r="E158" s="2">
+        <v>8441</v>
+      </c>
+      <c r="F158" s="2">
+        <v>-3562</v>
+      </c>
+      <c r="G158" s="2">
+        <v>20</v>
+      </c>
+      <c r="H158" s="2">
+        <v>30</v>
+      </c>
+      <c r="I158" s="2">
+        <v>10</v>
+      </c>
+      <c r="J158" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K158" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A159" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D159" s="2">
+        <v>4879</v>
+      </c>
+      <c r="E159" s="2">
+        <v>8441</v>
+      </c>
+      <c r="F159" s="2">
+        <v>-3562</v>
+      </c>
+      <c r="G159" s="2">
+        <v>20</v>
+      </c>
+      <c r="H159" s="2">
+        <v>30</v>
+      </c>
+      <c r="I159" s="2">
+        <v>10</v>
+      </c>
+      <c r="J159" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K159" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A160" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D160" s="2">
+        <v>4879</v>
+      </c>
+      <c r="E160" s="2">
+        <v>8441</v>
+      </c>
+      <c r="F160" s="2">
+        <v>-3562</v>
+      </c>
+      <c r="G160" s="2">
+        <v>20</v>
+      </c>
+      <c r="H160" s="2">
+        <v>30</v>
+      </c>
+      <c r="I160" s="2">
+        <v>10</v>
+      </c>
+      <c r="J160" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K160" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A161" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D161" s="2">
+        <v>4879</v>
+      </c>
+      <c r="E161" s="2">
+        <v>8441</v>
+      </c>
+      <c r="F161" s="2">
+        <v>-3562</v>
+      </c>
+      <c r="G161" s="2">
+        <v>20</v>
+      </c>
+      <c r="H161" s="2">
+        <v>30</v>
+      </c>
+      <c r="I161" s="2">
+        <v>10</v>
+      </c>
+      <c r="J161" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K161" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A162" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D162" s="2">
+        <v>7739</v>
+      </c>
+      <c r="E162" s="2">
+        <v>8441</v>
+      </c>
+      <c r="F162" s="2">
+        <v>-702</v>
+      </c>
+      <c r="G162" s="2">
+        <v>30</v>
+      </c>
+      <c r="H162" s="2">
+        <v>30</v>
+      </c>
+      <c r="I162" s="2">
+        <v>0</v>
+      </c>
+      <c r="J162" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K162" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A163" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D163" s="2">
+        <v>7977</v>
+      </c>
+      <c r="E163" s="2">
+        <v>8441</v>
+      </c>
+      <c r="F163" s="2">
+        <v>-464</v>
+      </c>
+      <c r="G163" s="2">
+        <v>46</v>
+      </c>
+      <c r="H163" s="2">
+        <v>30</v>
+      </c>
+      <c r="I163" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J163" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K163" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A164" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D164" s="2">
+        <v>8680</v>
+      </c>
+      <c r="E164" s="2">
+        <v>8441</v>
+      </c>
+      <c r="F164" s="2">
+        <v>239</v>
+      </c>
+      <c r="G164" s="2">
+        <v>46</v>
+      </c>
+      <c r="H164" s="2">
+        <v>30</v>
+      </c>
+      <c r="I164" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J164" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K164" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A165" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D165" s="2">
+        <v>9495</v>
+      </c>
+      <c r="E165" s="2">
+        <v>8441</v>
+      </c>
+      <c r="F165" s="2">
+        <v>1054</v>
+      </c>
+      <c r="G165" s="2">
+        <v>46</v>
+      </c>
+      <c r="H165" s="2">
+        <v>30</v>
+      </c>
+      <c r="I165" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J165" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K165" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A166" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D166" s="2">
+        <v>5230</v>
+      </c>
+      <c r="E166" s="2">
+        <v>8441</v>
+      </c>
+      <c r="F166" s="2">
+        <v>-3211</v>
+      </c>
+      <c r="G166" s="2">
+        <v>23</v>
+      </c>
+      <c r="H166" s="2">
+        <v>30</v>
+      </c>
+      <c r="I166" s="2">
+        <v>7</v>
+      </c>
+      <c r="J166" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K166" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A167" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D167" s="2">
+        <v>5230</v>
+      </c>
+      <c r="E167" s="2">
+        <v>8441</v>
+      </c>
+      <c r="F167" s="2">
+        <v>-3211</v>
+      </c>
+      <c r="G167" s="2">
+        <v>23</v>
+      </c>
+      <c r="H167" s="2">
+        <v>30</v>
+      </c>
+      <c r="I167" s="2">
+        <v>7</v>
+      </c>
+      <c r="J167" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K167" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A168" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D168" s="2">
+        <v>5230</v>
+      </c>
+      <c r="E168" s="2">
+        <v>8441</v>
+      </c>
+      <c r="F168" s="2">
+        <v>-3211</v>
+      </c>
+      <c r="G168" s="2">
+        <v>23</v>
+      </c>
+      <c r="H168" s="2">
+        <v>30</v>
+      </c>
+      <c r="I168" s="2">
+        <v>7</v>
+      </c>
+      <c r="J168" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K168" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A169" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D169" s="2">
+        <v>7739</v>
+      </c>
+      <c r="E169" s="2">
+        <v>8441</v>
+      </c>
+      <c r="F169" s="2">
+        <v>-702</v>
+      </c>
+      <c r="G169" s="2">
+        <v>30</v>
+      </c>
+      <c r="H169" s="2">
+        <v>30</v>
+      </c>
+      <c r="I169" s="2">
+        <v>0</v>
+      </c>
+      <c r="J169" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K169" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A170" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D170" s="2">
+        <v>7739</v>
+      </c>
+      <c r="E170" s="2">
+        <v>8441</v>
+      </c>
+      <c r="F170" s="2">
+        <v>-702</v>
+      </c>
+      <c r="G170" s="2">
+        <v>30</v>
+      </c>
+      <c r="H170" s="2">
+        <v>30</v>
+      </c>
+      <c r="I170" s="2">
+        <v>0</v>
+      </c>
+      <c r="J170" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K170" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A171" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D171" s="2">
+        <v>8793</v>
+      </c>
+      <c r="E171" s="2">
+        <v>8441</v>
+      </c>
+      <c r="F171" s="2">
+        <v>352</v>
+      </c>
+      <c r="G171" s="2">
+        <v>46</v>
+      </c>
+      <c r="H171" s="2">
+        <v>30</v>
+      </c>
+      <c r="I171" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J171" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K171" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A172" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D172" s="2">
+        <v>4345</v>
+      </c>
+      <c r="E172" s="2">
+        <v>4653</v>
+      </c>
+      <c r="F172" s="2">
+        <v>-308</v>
+      </c>
+      <c r="G172" s="2">
+        <v>30</v>
+      </c>
+      <c r="H172" s="2">
+        <v>30</v>
+      </c>
+      <c r="I172" s="2">
+        <v>0</v>
+      </c>
+      <c r="J172" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K172" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A173" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D173" s="2">
+        <v>11916</v>
+      </c>
+      <c r="E173" s="2">
+        <v>14901</v>
+      </c>
+      <c r="F173" s="2">
+        <v>-2985</v>
+      </c>
+      <c r="G173" s="2">
+        <v>30</v>
+      </c>
+      <c r="H173" s="2">
+        <v>30</v>
+      </c>
+      <c r="I173" s="2">
+        <v>0</v>
+      </c>
+      <c r="J173" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K173" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A174" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D174" s="2">
+        <v>16218</v>
+      </c>
+      <c r="E174" s="2">
+        <v>14901</v>
+      </c>
+      <c r="F174" s="2">
+        <v>1317</v>
+      </c>
+      <c r="G174" s="2">
+        <v>46</v>
+      </c>
+      <c r="H174" s="2">
+        <v>30</v>
+      </c>
+      <c r="I174" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J174" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K174" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A175" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D175" s="2">
+        <v>16218</v>
+      </c>
+      <c r="E175" s="2">
+        <v>14901</v>
+      </c>
+      <c r="F175" s="2">
+        <v>1317</v>
+      </c>
+      <c r="G175" s="2">
+        <v>46</v>
+      </c>
+      <c r="H175" s="2">
+        <v>30</v>
+      </c>
+      <c r="I175" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J175" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K175" s="2" t="s">
         <v>15</v>
       </c>
     </row>
